--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1939,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44439</v>
+        <v>44441</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2068,7 +2068,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="44" t="s">
         <v>287</v>
       </c>
@@ -2076,11 +2076,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>282270.40000000002</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>260</v>
@@ -3086,19 +3086,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>140</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>156912</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3615,19 +3613,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4916,19 +4912,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5049,19 +5043,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>112008</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5182,19 +5174,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>40</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>48715.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>260</v>
@@ -5573,19 +5563,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -7199,19 +7187,17 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="48" t="s">
         <v>295</v>
       </c>
       <c r="B55" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="50">
-        <v>20</v>
-      </c>
+      <c r="C55" s="50"/>
       <c r="D55" s="47">
         <f t="shared" si="1"/>
-        <v>94123.6</v>
+        <v>0</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>260</v>
@@ -9082,7 +9068,7 @@
       <c r="AZ72" s="26"/>
       <c r="BA72" s="26"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A73" s="44" t="s">
         <v>236</v>
       </c>
@@ -9146,7 +9132,7 @@
       <c r="AZ73" s="26"/>
       <c r="BA73" s="26"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="44" t="s">
         <v>164</v>
       </c>
@@ -9210,7 +9196,7 @@
       <c r="AZ74" s="26"/>
       <c r="BA74" s="26"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="44" t="s">
         <v>137</v>
       </c>
@@ -9272,7 +9258,7 @@
       <c r="AZ75" s="26"/>
       <c r="BA75" s="26"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="44" t="s">
         <v>148</v>
       </c>
@@ -9334,7 +9320,7 @@
       <c r="AZ76" s="26"/>
       <c r="BA76" s="26"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="44" t="s">
         <v>194</v>
       </c>
@@ -10175,19 +10161,17 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>100</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>124696</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10245,19 +10229,17 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>130626</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11165,7 +11147,7 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="94" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A94" s="45" t="s">
         <v>233</v>
       </c>
@@ -11229,7 +11211,7 @@
       <c r="AZ94" s="26"/>
       <c r="BA94" s="26"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="45" t="s">
         <v>162</v>
       </c>
@@ -11293,19 +11275,17 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>60</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>81867</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11817,19 +11797,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>60</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>70736.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -12002,19 +11980,17 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>100</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -18298,7 +18274,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="44" t="s">
         <v>131</v>
       </c>
@@ -18360,7 +18336,7 @@
       <c r="AZ157" s="26"/>
       <c r="BA157" s="26"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="44" t="s">
         <v>239</v>
       </c>
@@ -18684,19 +18660,17 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19206,19 +19180,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>10</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>90665.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>289</v>
@@ -19601,19 +19573,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B168" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17">
-        <v>10</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>260</v>
@@ -19734,19 +19704,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>20</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>199473.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -19867,19 +19835,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>10</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>294</v>
@@ -20138,11 +20104,11 @@
       <c r="B172" s="73"/>
       <c r="C172" s="61">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="D172" s="62">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>1999151.2</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1939,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1975,8 +1975,8 @@
         <v>80</v>
       </c>
       <c r="E2" s="36">
-        <f ca="1">TODAY()</f>
-        <v>44441</v>
+        <f ca="1">TODAY()+1</f>
+        <v>44444</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2068,7 +2068,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>287</v>
       </c>
@@ -2999,33 +2999,37 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>400</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>392980</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>292</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>400</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>397744</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3086,17 +3090,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3613,17 +3619,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4912,17 +4920,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>100</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117880</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5043,17 +5053,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>112008</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5563,17 +5575,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -9068,7 +9082,7 @@
       <c r="AZ72" s="26"/>
       <c r="BA72" s="26"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A73" s="44" t="s">
         <v>236</v>
       </c>
@@ -9132,7 +9146,7 @@
       <c r="AZ73" s="26"/>
       <c r="BA73" s="26"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="44" t="s">
         <v>164</v>
       </c>
@@ -9196,7 +9210,7 @@
       <c r="AZ74" s="26"/>
       <c r="BA74" s="26"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="44" t="s">
         <v>137</v>
       </c>
@@ -9258,7 +9272,7 @@
       <c r="AZ75" s="26"/>
       <c r="BA75" s="26"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="44" t="s">
         <v>148</v>
       </c>
@@ -9320,7 +9334,7 @@
       <c r="AZ76" s="26"/>
       <c r="BA76" s="26"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="44" t="s">
         <v>194</v>
       </c>
@@ -10161,17 +10175,19 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>60</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>74817.600000000006</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10229,17 +10245,19 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11147,7 +11165,7 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A94" s="45" t="s">
         <v>233</v>
       </c>
@@ -11211,7 +11229,7 @@
       <c r="AZ94" s="26"/>
       <c r="BA94" s="26"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="45" t="s">
         <v>162</v>
       </c>
@@ -11275,17 +11293,19 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>40</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54578</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11797,17 +11817,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>40</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47157.600000000006</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11916,17 +11938,19 @@
       <c r="DC100" s="26"/>
       <c r="DD100" s="26"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="44" t="s">
         <v>296</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="17">
+        <v>100</v>
+      </c>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>121489.00000000001</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>260</v>
@@ -11980,17 +12004,19 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>100</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>118882</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -18274,7 +18300,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="44" t="s">
         <v>131</v>
       </c>
@@ -18336,7 +18362,7 @@
       <c r="AZ157" s="26"/>
       <c r="BA157" s="26"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="44" t="s">
         <v>239</v>
       </c>
@@ -18660,17 +18686,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>10</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19180,17 +19208,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>10</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>90665.400000000009</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>289</v>
@@ -19835,7 +19865,7 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
         <v>285</v>
       </c>
@@ -20104,11 +20134,11 @@
       <c r="B172" s="73"/>
       <c r="C172" s="61">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>20</v>
+        <v>1600</v>
       </c>
       <c r="D172" s="62">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>141135.20000000001</v>
+        <v>2008217.2</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20381,7 +20411,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>650000</v>
+        <v>2000000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20392,7 +20422,9 @@
       <c r="B179" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C179" s="56"/>
+      <c r="C179" s="56">
+        <v>12782</v>
+      </c>
       <c r="D179" s="57"/>
       <c r="E179" s="22"/>
     </row>
@@ -20402,7 +20434,7 @@
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>650000</v>
+        <v>2012782</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -892,9 +892,6 @@
     <t xml:space="preserve">Carabian Blue </t>
   </si>
   <si>
-    <t>Persian Blue  Must be</t>
-  </si>
-  <si>
     <t>Z35(3+32)</t>
   </si>
   <si>
@@ -907,9 +904,6 @@
     <t>D48</t>
   </si>
   <si>
-    <t>Dazzling Blue</t>
-  </si>
-  <si>
     <t>G10+</t>
   </si>
   <si>
@@ -926,6 +920,12 @@
   </si>
   <si>
     <t>i32</t>
+  </si>
+  <si>
+    <t>Amazon Green/Persian Blue</t>
+  </si>
+  <si>
+    <t>Dazzling Blue/Super Green</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1975,8 +1975,8 @@
         <v>80</v>
       </c>
       <c r="E2" s="36">
-        <f ca="1">TODAY()+1</f>
-        <v>44444</v>
+        <f ca="1">TODAY()</f>
+        <v>44445</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2076,11 +2076,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>260</v>
@@ -3007,11 +3007,11 @@
         <v>982.45</v>
       </c>
       <c r="C19" s="17">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>392980</v>
+        <v>176841</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
@@ -3019,17 +3019,17 @@
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
       <c r="C20" s="17">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>397744</v>
+        <v>178984.8</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3090,19 +3090,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3619,19 +3617,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -3885,7 +3881,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="44" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
@@ -4920,19 +4916,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>117880</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5053,19 +5047,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>112008</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5188,7 +5180,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
@@ -5575,19 +5567,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -6419,7 +6409,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B49" s="29">
         <v>1166.77</v>
@@ -7203,7 +7193,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="48" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B55" s="49">
         <v>4706.18</v>
@@ -8699,7 +8689,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B67" s="29">
         <v>5142.21</v>
@@ -10175,19 +10165,17 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>60</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>74817.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10245,19 +10233,17 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>40</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11293,19 +11279,17 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17">
-        <v>40</v>
-      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>54578</v>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11817,19 +11801,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>40</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>47157.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11940,17 +11922,17 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
       <c r="C101" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>121489.00000000001</v>
+        <v>72893.400000000009</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>260</v>
@@ -12004,19 +11986,17 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>100</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -18686,19 +18666,17 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19208,7 +19186,7 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
@@ -19223,7 +19201,7 @@
         <v>90665.400000000009</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
@@ -19341,20 +19319,22 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>10</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
+        <v>98734.5</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
@@ -19605,7 +19585,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B168" s="29">
         <v>9056.51</v>
@@ -19736,7 +19716,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
@@ -19865,20 +19845,22 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>7</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>63395.57</v>
       </c>
       <c r="E170" s="41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
@@ -20134,11 +20116,11 @@
       <c r="B172" s="73"/>
       <c r="C172" s="61">
         <f>SUBTOTAL(9,C6:C171)</f>
-        <v>1600</v>
+        <v>457</v>
       </c>
       <c r="D172" s="62">
         <f>SUBTOTAL(9,D6:D171)</f>
-        <v>2008217.2</v>
+        <v>752082.27</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20411,7 +20393,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20423,18 +20405,18 @@
         <v>252</v>
       </c>
       <c r="C179" s="56">
-        <v>12782</v>
+        <v>553444</v>
       </c>
       <c r="D179" s="57"/>
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="19.5" thickBot="1">
       <c r="B180" s="58" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>2012782</v>
+        <v>753444</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1936,10 +1936,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
+      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44445</v>
+        <v>44446</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1997,17 +1997,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="44" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="29">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>5</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>36221.050000000003</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>207</v>
@@ -2076,11 +2078,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>112908.16</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>260</v>
@@ -2999,37 +3001,33 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>180</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>176841</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>180</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>178984.8</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3090,17 +3088,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3617,17 +3617,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22616.399999999998</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4916,17 +4918,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23576</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -7191,17 +7195,19 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:120" ht="15" customHeight="1">
       <c r="A55" s="48" t="s">
         <v>293</v>
       </c>
       <c r="B55" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="50"/>
+      <c r="C55" s="50">
+        <v>30</v>
+      </c>
       <c r="D55" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>141185.40000000002</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>260</v>
@@ -10165,17 +10171,19 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>100</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>124696</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10233,17 +10241,19 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11279,17 +11289,19 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="17">
+        <v>20</v>
+      </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11801,17 +11813,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>60</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70736.400000000009</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11920,19 +11934,17 @@
       <c r="DC100" s="26"/>
       <c r="DD100" s="26"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C101" s="17">
-        <v>60</v>
-      </c>
+      <c r="C101" s="17"/>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>72893.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>260</v>
@@ -11986,17 +11998,19 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -18666,17 +18680,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>5</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19186,19 +19202,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>10</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>90665.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>299</v>
@@ -19714,17 +19728,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -19853,11 +19869,11 @@
         <v>9056.51</v>
       </c>
       <c r="C170" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>63395.57</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>300</v>
@@ -20115,12 +20131,12 @@
       </c>
       <c r="B172" s="73"/>
       <c r="C172" s="61">
-        <f>SUBTOTAL(9,C6:C171)</f>
-        <v>457</v>
+        <f>SUBTOTAL(9,C5:C171)</f>
+        <v>476</v>
       </c>
       <c r="D172" s="62">
-        <f>SUBTOTAL(9,D6:D171)</f>
-        <v>752082.27</v>
+        <f>SUBTOTAL(9,D5:D171)</f>
+        <v>1001208.1100000001</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20393,7 +20409,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20404,9 +20420,7 @@
       <c r="B179" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C179" s="56">
-        <v>553444</v>
-      </c>
+      <c r="C179" s="56"/>
       <c r="D179" s="57"/>
       <c r="E179" s="22"/>
     </row>
@@ -20416,7 +20430,7 @@
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>753444</v>
+        <v>1000000</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1936,10 +1936,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44446</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1997,19 +1997,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="44" t="s">
         <v>271</v>
       </c>
       <c r="B5" s="29">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>5</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>36221.050000000003</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>207</v>
@@ -2070,19 +2068,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>16</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>112908.16</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>260</v>
@@ -3001,17 +2997,19 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>80</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78596</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
@@ -3088,19 +3086,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3617,19 +3613,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>20</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22616.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4918,19 +4912,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>20</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -7203,11 +7195,11 @@
         <v>4706.18</v>
       </c>
       <c r="C55" s="50">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D55" s="47">
         <f t="shared" si="1"/>
-        <v>141185.40000000002</v>
+        <v>188247.2</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>260</v>
@@ -10171,19 +10163,17 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>100</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>124696</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10241,19 +10231,17 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17">
-        <v>40</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11289,7 +11277,7 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
@@ -11813,19 +11801,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>60</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>70736.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11998,19 +11984,17 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -18294,7 +18278,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="44" t="s">
         <v>131</v>
       </c>
@@ -18356,7 +18340,7 @@
       <c r="AZ157" s="26"/>
       <c r="BA157" s="26"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="44" t="s">
         <v>239</v>
       </c>
@@ -18680,19 +18664,17 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>5</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19333,19 +19315,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>10</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>98734.5</v>
+        <v>0</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>299</v>
@@ -19728,19 +19708,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>49868.450000000004</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -19861,19 +19839,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>300</v>
@@ -20131,12 +20107,12 @@
       </c>
       <c r="B172" s="73"/>
       <c r="C172" s="61">
-        <f>SUBTOTAL(9,C5:C171)</f>
-        <v>476</v>
+        <f>SUBTOTAL(9,C19:C171)</f>
+        <v>140</v>
       </c>
       <c r="D172" s="62">
-        <f>SUBTOTAL(9,D5:D171)</f>
-        <v>1001208.1100000001</v>
+        <f>SUBTOTAL(9,D19:D171)</f>
+        <v>294132.2</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20409,7 +20385,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20430,7 +20406,7 @@
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1936,10 +1936,10 @@
   <dimension ref="A1:DP182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
+      <selection pane="bottomRight" activeCell="F182" sqref="F181:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44447</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3005,27 +3005,29 @@
         <v>982.45</v>
       </c>
       <c r="C19" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>78596</v>
+        <v>98245</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39774.400000000001</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3613,17 +3615,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22616.399999999998</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4912,17 +4916,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>40</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5043,17 +5049,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>0</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5563,17 +5571,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -7187,19 +7197,17 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="48" t="s">
         <v>293</v>
       </c>
       <c r="B55" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C55" s="50">
-        <v>40</v>
-      </c>
+      <c r="C55" s="50"/>
       <c r="D55" s="47">
         <f t="shared" si="1"/>
-        <v>188247.2</v>
+        <v>0</v>
       </c>
       <c r="E55" s="47" t="s">
         <v>260</v>
@@ -10163,17 +10171,19 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>20</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10231,17 +10241,19 @@
       <c r="BD85" s="26"/>
       <c r="BE85" s="26"/>
     </row>
-    <row r="86" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" ht="15" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11277,7 +11289,7 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
@@ -11285,11 +11297,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>54578</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11801,17 +11813,19 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17"/>
+      <c r="C100" s="17">
+        <v>20</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23578.800000000003</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11920,17 +11934,19 @@
       <c r="DC100" s="26"/>
       <c r="DD100" s="26"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C101" s="17"/>
+      <c r="C101" s="17">
+        <v>40</v>
+      </c>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>260</v>
@@ -15426,17 +15442,19 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="44" t="s">
         <v>268</v>
       </c>
       <c r="B131" s="29">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17"/>
+      <c r="C131" s="17">
+        <v>20</v>
+      </c>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>260</v>
@@ -18278,7 +18296,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A157" s="44" t="s">
         <v>131</v>
       </c>
@@ -18340,7 +18358,7 @@
       <c r="AZ157" s="26"/>
       <c r="BA157" s="26"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="44" t="s">
         <v>239</v>
       </c>
@@ -18664,17 +18682,19 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17"/>
+      <c r="C161" s="17">
+        <v>10</v>
+      </c>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19184,17 +19204,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>15</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>135998.1</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>299</v>
@@ -19315,17 +19337,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D171" si="5">B166*C166</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>299</v>
@@ -19577,17 +19601,19 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="44" t="s">
         <v>289</v>
       </c>
       <c r="B168" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>5</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>260</v>
@@ -19708,17 +19734,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B169" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -19839,17 +19867,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="41" t="s">
         <v>300</v>
@@ -20108,11 +20138,11 @@
       <c r="B172" s="73"/>
       <c r="C172" s="61">
         <f>SUBTOTAL(9,C19:C171)</f>
-        <v>140</v>
+        <v>495</v>
       </c>
       <c r="D172" s="62">
         <f>SUBTOTAL(9,D19:D171)</f>
-        <v>294132.2</v>
+        <v>1002512.7000000001</v>
       </c>
       <c r="E172" s="63"/>
       <c r="F172" s="27"/>
@@ -20385,7 +20415,7 @@
         <v>279</v>
       </c>
       <c r="C178" s="54">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="D178" s="23"/>
       <c r="E178" s="22" t="s">
@@ -20406,7 +20436,7 @@
       </c>
       <c r="C180" s="60">
         <f>C179+C178</f>
-        <v>300000</v>
+        <v>1000000</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$172</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="302">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -926,6 +926,9 @@
   </si>
   <si>
     <t>Dazzling Blue/Super Green</t>
+  </si>
+  <si>
+    <t>Z33</t>
   </si>
 </sst>
 </file>
@@ -1933,13 +1936,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP182"/>
+  <dimension ref="A1:DP183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F182" sqref="F181:F182"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1975,8 +1978,8 @@
         <v>80</v>
       </c>
       <c r="E2" s="36">
-        <f ca="1">TODAY()</f>
-        <v>44448</v>
+        <f ca="1">TODAY()+1</f>
+        <v>44451</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3005,11 +3008,11 @@
         <v>982.45</v>
       </c>
       <c r="C19" s="17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>98245</v>
+        <v>78596</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
@@ -3023,11 +3026,11 @@
         <v>994.36</v>
       </c>
       <c r="C20" s="17">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>39774.400000000001</v>
+        <v>79548.800000000003</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3088,17 +3091,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112080</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3615,19 +3620,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>20</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22616.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4924,11 +4927,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>23576</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5057,11 +5060,11 @@
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>22401.599999999999</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5571,19 +5574,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -10171,19 +10172,17 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>20</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -10249,11 +10248,11 @@
         <v>1306.26</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="2"/>
-        <v>52250.400000000001</v>
+        <v>26125.200000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -11297,11 +11296,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>54578</v>
+        <v>27289</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -11821,11 +11820,11 @@
         <v>1178.94</v>
       </c>
       <c r="C100" s="17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>23578.800000000003</v>
+        <v>235788</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11934,19 +11933,17 @@
       <c r="DC100" s="26"/>
       <c r="DD100" s="26"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B101" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C101" s="17">
-        <v>40</v>
-      </c>
+      <c r="C101" s="17"/>
       <c r="D101" s="18">
         <f t="shared" si="2"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
         <v>260</v>
@@ -15442,19 +15439,17 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="44" t="s">
         <v>268</v>
       </c>
       <c r="B131" s="29">
         <v>1208.01</v>
       </c>
-      <c r="C131" s="17">
-        <v>20</v>
-      </c>
+      <c r="C131" s="17"/>
       <c r="D131" s="18">
         <f t="shared" si="3"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>260</v>
@@ -18682,19 +18677,17 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B161" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C161" s="17">
-        <v>10</v>
-      </c>
+      <c r="C161" s="17"/>
       <c r="D161" s="18">
         <f t="shared" si="4"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>260</v>
@@ -19204,19 +19197,17 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>15</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>135998.1</v>
+        <v>0</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>299</v>
@@ -19348,7 +19339,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="18">
-        <f t="shared" ref="D166:D171" si="5">B166*C166</f>
+        <f t="shared" ref="D166:D172" si="5">B166*C166</f>
         <v>49367.25</v>
       </c>
       <c r="E166" s="41" t="s">
@@ -19603,17 +19594,17 @@
     </row>
     <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B168" s="29">
-        <v>9056.51</v>
+        <v>8134.32</v>
       </c>
       <c r="C168" s="17">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D168" s="18">
-        <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <f t="shared" ref="D168" si="6">B168*C168</f>
+        <v>1301491.2</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>260</v>
@@ -19666,10 +19657,10 @@
       <c r="AY168" s="27"/>
       <c r="AZ168" s="27"/>
       <c r="BA168" s="27"/>
-      <c r="BB168" s="15"/>
-      <c r="BC168" s="15"/>
-      <c r="BD168" s="15"/>
-      <c r="BE168" s="15"/>
+      <c r="BB168" s="27"/>
+      <c r="BC168" s="27"/>
+      <c r="BD168" s="27"/>
+      <c r="BE168" s="27"/>
       <c r="BF168" s="15"/>
       <c r="BG168" s="15"/>
       <c r="BH168" s="15"/>
@@ -19734,19 +19725,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B169" s="29">
-        <v>9973.69</v>
-      </c>
-      <c r="C169" s="17">
-        <v>10</v>
-      </c>
+        <v>9056.51</v>
+      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
-        <f t="shared" ref="D169" si="6">B169*C169</f>
-        <v>99736.900000000009</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>260</v>
@@ -19867,22 +19856,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B170" s="29">
-        <v>9056.51</v>
-      </c>
-      <c r="C170" s="17">
-        <v>10</v>
-      </c>
+        <v>9973.69</v>
+      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
-        <f t="shared" si="5"/>
-        <v>90565.1</v>
-      </c>
-      <c r="E170" s="41" t="s">
-        <v>300</v>
+        <f t="shared" ref="D170" si="7">B170*C170</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
@@ -19932,10 +19919,10 @@
       <c r="AY170" s="27"/>
       <c r="AZ170" s="27"/>
       <c r="BA170" s="27"/>
-      <c r="BB170" s="27"/>
-      <c r="BC170" s="27"/>
-      <c r="BD170" s="27"/>
-      <c r="BE170" s="27"/>
+      <c r="BB170" s="15"/>
+      <c r="BC170" s="15"/>
+      <c r="BD170" s="15"/>
+      <c r="BE170" s="15"/>
       <c r="BF170" s="15"/>
       <c r="BG170" s="15"/>
       <c r="BH170" s="15"/>
@@ -20000,20 +19987,22 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A171" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B171" s="29">
-        <v>10133.07</v>
-      </c>
-      <c r="C171" s="17"/>
+        <v>9056.51</v>
+      </c>
+      <c r="C171" s="17">
+        <v>5</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E171" s="18" t="s">
-        <v>260</v>
+        <v>45282.55</v>
+      </c>
+      <c r="E171" s="41" t="s">
+        <v>300</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
@@ -20063,10 +20052,10 @@
       <c r="AY171" s="27"/>
       <c r="AZ171" s="27"/>
       <c r="BA171" s="27"/>
-      <c r="BB171" s="15"/>
-      <c r="BC171" s="15"/>
-      <c r="BD171" s="15"/>
-      <c r="BE171" s="15"/>
+      <c r="BB171" s="27"/>
+      <c r="BC171" s="27"/>
+      <c r="BD171" s="27"/>
+      <c r="BE171" s="27"/>
       <c r="BF171" s="15"/>
       <c r="BG171" s="15"/>
       <c r="BH171" s="15"/>
@@ -20131,20 +20120,21 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A172" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B172" s="73"/>
-      <c r="C172" s="61">
-        <f>SUBTOTAL(9,C19:C171)</f>
-        <v>495</v>
-      </c>
-      <c r="D172" s="62">
-        <f>SUBTOTAL(9,D19:D171)</f>
-        <v>1002512.7000000001</v>
-      </c>
-      <c r="E172" s="63"/>
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A172" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" s="29">
+        <v>10133.07</v>
+      </c>
+      <c r="C172" s="17"/>
+      <c r="D172" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
       <c r="H172" s="27"/>
@@ -20193,61 +20183,61 @@
       <c r="AY172" s="27"/>
       <c r="AZ172" s="27"/>
       <c r="BA172" s="27"/>
-      <c r="BB172" s="27"/>
-      <c r="BC172" s="27"/>
-      <c r="BD172" s="27"/>
-      <c r="BE172" s="27"/>
-      <c r="BF172" s="27"/>
-      <c r="BG172" s="27"/>
-      <c r="BH172" s="27"/>
-      <c r="BI172" s="27"/>
-      <c r="BJ172" s="27"/>
-      <c r="BK172" s="27"/>
-      <c r="BL172" s="27"/>
-      <c r="BM172" s="27"/>
-      <c r="BN172" s="27"/>
-      <c r="BO172" s="27"/>
-      <c r="BP172" s="27"/>
-      <c r="BQ172" s="27"/>
-      <c r="BR172" s="27"/>
-      <c r="BS172" s="27"/>
-      <c r="BT172" s="27"/>
-      <c r="BU172" s="27"/>
-      <c r="BV172" s="27"/>
-      <c r="BW172" s="27"/>
-      <c r="BX172" s="27"/>
-      <c r="BY172" s="27"/>
-      <c r="BZ172" s="27"/>
-      <c r="CA172" s="27"/>
-      <c r="CB172" s="27"/>
-      <c r="CC172" s="27"/>
-      <c r="CD172" s="27"/>
-      <c r="CE172" s="27"/>
-      <c r="CF172" s="27"/>
-      <c r="CG172" s="27"/>
-      <c r="CH172" s="27"/>
-      <c r="CI172" s="27"/>
-      <c r="CJ172" s="27"/>
-      <c r="CK172" s="27"/>
-      <c r="CL172" s="27"/>
-      <c r="CM172" s="27"/>
-      <c r="CN172" s="27"/>
-      <c r="CO172" s="27"/>
-      <c r="CP172" s="27"/>
-      <c r="CQ172" s="27"/>
-      <c r="CR172" s="27"/>
-      <c r="CS172" s="27"/>
-      <c r="CT172" s="27"/>
-      <c r="CU172" s="27"/>
-      <c r="CV172" s="27"/>
-      <c r="CW172" s="27"/>
-      <c r="CX172" s="27"/>
-      <c r="CY172" s="27"/>
-      <c r="CZ172" s="27"/>
-      <c r="DA172" s="27"/>
-      <c r="DB172" s="27"/>
-      <c r="DC172" s="27"/>
-      <c r="DD172" s="27"/>
+      <c r="BB172" s="15"/>
+      <c r="BC172" s="15"/>
+      <c r="BD172" s="15"/>
+      <c r="BE172" s="15"/>
+      <c r="BF172" s="15"/>
+      <c r="BG172" s="15"/>
+      <c r="BH172" s="15"/>
+      <c r="BI172" s="15"/>
+      <c r="BJ172" s="15"/>
+      <c r="BK172" s="15"/>
+      <c r="BL172" s="15"/>
+      <c r="BM172" s="15"/>
+      <c r="BN172" s="15"/>
+      <c r="BO172" s="15"/>
+      <c r="BP172" s="15"/>
+      <c r="BQ172" s="15"/>
+      <c r="BR172" s="15"/>
+      <c r="BS172" s="15"/>
+      <c r="BT172" s="15"/>
+      <c r="BU172" s="15"/>
+      <c r="BV172" s="15"/>
+      <c r="BW172" s="15"/>
+      <c r="BX172" s="15"/>
+      <c r="BY172" s="15"/>
+      <c r="BZ172" s="15"/>
+      <c r="CA172" s="15"/>
+      <c r="CB172" s="15"/>
+      <c r="CC172" s="15"/>
+      <c r="CD172" s="15"/>
+      <c r="CE172" s="15"/>
+      <c r="CF172" s="15"/>
+      <c r="CG172" s="15"/>
+      <c r="CH172" s="15"/>
+      <c r="CI172" s="15"/>
+      <c r="CJ172" s="15"/>
+      <c r="CK172" s="15"/>
+      <c r="CL172" s="15"/>
+      <c r="CM172" s="15"/>
+      <c r="CN172" s="15"/>
+      <c r="CO172" s="15"/>
+      <c r="CP172" s="15"/>
+      <c r="CQ172" s="15"/>
+      <c r="CR172" s="15"/>
+      <c r="CS172" s="15"/>
+      <c r="CT172" s="15"/>
+      <c r="CU172" s="15"/>
+      <c r="CV172" s="15"/>
+      <c r="CW172" s="15"/>
+      <c r="CX172" s="15"/>
+      <c r="CY172" s="15"/>
+      <c r="CZ172" s="15"/>
+      <c r="DA172" s="15"/>
+      <c r="DB172" s="15"/>
+      <c r="DC172" s="15"/>
+      <c r="DD172" s="15"/>
       <c r="DE172" s="15"/>
       <c r="DF172" s="15"/>
       <c r="DG172" s="15"/>
@@ -20261,12 +20251,20 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
-      <c r="A173" s="46"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="21"/>
-      <c r="E173" s="21"/>
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A173" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="73"/>
+      <c r="C173" s="61">
+        <f>SUBTOTAL(9,C19:C172)</f>
+        <v>710</v>
+      </c>
+      <c r="D173" s="62">
+        <f>SUBTOTAL(9,D19:D172)</f>
+        <v>2001545.5999999999</v>
+      </c>
+      <c r="E173" s="63"/>
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
@@ -20383,68 +20381,190 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B174" s="64"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="64"/>
-    </row>
-    <row r="175" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B175" s="69" t="s">
+    <row r="174" spans="1:120" ht="15" customHeight="1">
+      <c r="A174" s="46"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="27"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="27"/>
+      <c r="N174" s="27"/>
+      <c r="O174" s="27"/>
+      <c r="P174" s="27"/>
+      <c r="Q174" s="27"/>
+      <c r="R174" s="27"/>
+      <c r="S174" s="27"/>
+      <c r="T174" s="27"/>
+      <c r="U174" s="27"/>
+      <c r="V174" s="27"/>
+      <c r="W174" s="27"/>
+      <c r="X174" s="27"/>
+      <c r="Y174" s="27"/>
+      <c r="Z174" s="27"/>
+      <c r="AA174" s="27"/>
+      <c r="AB174" s="27"/>
+      <c r="AC174" s="27"/>
+      <c r="AD174" s="27"/>
+      <c r="AE174" s="27"/>
+      <c r="AF174" s="27"/>
+      <c r="AG174" s="27"/>
+      <c r="AH174" s="27"/>
+      <c r="AI174" s="27"/>
+      <c r="AJ174" s="27"/>
+      <c r="AK174" s="27"/>
+      <c r="AL174" s="27"/>
+      <c r="AM174" s="27"/>
+      <c r="AN174" s="27"/>
+      <c r="AO174" s="27"/>
+      <c r="AP174" s="27"/>
+      <c r="AQ174" s="27"/>
+      <c r="AR174" s="27"/>
+      <c r="AS174" s="27"/>
+      <c r="AT174" s="27"/>
+      <c r="AU174" s="27"/>
+      <c r="AV174" s="27"/>
+      <c r="AW174" s="27"/>
+      <c r="AX174" s="27"/>
+      <c r="AY174" s="27"/>
+      <c r="AZ174" s="27"/>
+      <c r="BA174" s="27"/>
+      <c r="BB174" s="27"/>
+      <c r="BC174" s="27"/>
+      <c r="BD174" s="27"/>
+      <c r="BE174" s="27"/>
+      <c r="BF174" s="27"/>
+      <c r="BG174" s="27"/>
+      <c r="BH174" s="27"/>
+      <c r="BI174" s="27"/>
+      <c r="BJ174" s="27"/>
+      <c r="BK174" s="27"/>
+      <c r="BL174" s="27"/>
+      <c r="BM174" s="27"/>
+      <c r="BN174" s="27"/>
+      <c r="BO174" s="27"/>
+      <c r="BP174" s="27"/>
+      <c r="BQ174" s="27"/>
+      <c r="BR174" s="27"/>
+      <c r="BS174" s="27"/>
+      <c r="BT174" s="27"/>
+      <c r="BU174" s="27"/>
+      <c r="BV174" s="27"/>
+      <c r="BW174" s="27"/>
+      <c r="BX174" s="27"/>
+      <c r="BY174" s="27"/>
+      <c r="BZ174" s="27"/>
+      <c r="CA174" s="27"/>
+      <c r="CB174" s="27"/>
+      <c r="CC174" s="27"/>
+      <c r="CD174" s="27"/>
+      <c r="CE174" s="27"/>
+      <c r="CF174" s="27"/>
+      <c r="CG174" s="27"/>
+      <c r="CH174" s="27"/>
+      <c r="CI174" s="27"/>
+      <c r="CJ174" s="27"/>
+      <c r="CK174" s="27"/>
+      <c r="CL174" s="27"/>
+      <c r="CM174" s="27"/>
+      <c r="CN174" s="27"/>
+      <c r="CO174" s="27"/>
+      <c r="CP174" s="27"/>
+      <c r="CQ174" s="27"/>
+      <c r="CR174" s="27"/>
+      <c r="CS174" s="27"/>
+      <c r="CT174" s="27"/>
+      <c r="CU174" s="27"/>
+      <c r="CV174" s="27"/>
+      <c r="CW174" s="27"/>
+      <c r="CX174" s="27"/>
+      <c r="CY174" s="27"/>
+      <c r="CZ174" s="27"/>
+      <c r="DA174" s="27"/>
+      <c r="DB174" s="27"/>
+      <c r="DC174" s="27"/>
+      <c r="DD174" s="27"/>
+      <c r="DE174" s="15"/>
+      <c r="DF174" s="15"/>
+      <c r="DG174" s="15"/>
+      <c r="DH174" s="15"/>
+      <c r="DI174" s="15"/>
+      <c r="DJ174" s="15"/>
+      <c r="DK174" s="15"/>
+      <c r="DL174" s="15"/>
+      <c r="DM174" s="15"/>
+      <c r="DN174" s="15"/>
+      <c r="DO174" s="15"/>
+      <c r="DP174" s="15"/>
+    </row>
+    <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1">
+      <c r="B175" s="64"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="64"/>
+    </row>
+    <row r="176" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B176" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C175" s="70"/>
-      <c r="D175" s="71"/>
-      <c r="E175" s="25"/>
-    </row>
-    <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
-    <row r="177" spans="2:5">
-      <c r="B177" s="51" t="s">
+      <c r="C176" s="70"/>
+      <c r="D176" s="71"/>
+      <c r="E176" s="25"/>
+    </row>
+    <row r="177" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
+    <row r="178" spans="2:5">
+      <c r="B178" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="52" t="s">
+      <c r="C178" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="53" t="s">
+      <c r="D178" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E177" s="22"/>
-    </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1">
-      <c r="B178" s="31" t="s">
+      <c r="E178" s="22"/>
+    </row>
+    <row r="179" spans="2:5" ht="15" customHeight="1">
+      <c r="B179" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C178" s="54">
-        <v>1000000</v>
-      </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="22" t="s">
+      <c r="C179" s="54">
+        <v>2000000</v>
+      </c>
+      <c r="D179" s="23"/>
+      <c r="E179" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B179" s="55" t="s">
+    <row r="180" spans="2:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B180" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C179" s="56"/>
-      <c r="D179" s="57"/>
-      <c r="E179" s="22"/>
-    </row>
-    <row r="180" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B180" s="58" t="s">
+      <c r="C180" s="56"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="22"/>
+    </row>
+    <row r="181" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B181" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="60">
-        <f>C179+C178</f>
-        <v>1000000</v>
-      </c>
-      <c r="D180" s="59"/>
-      <c r="E180" s="24"/>
-    </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1"/>
-    <row r="182" spans="2:5" ht="15.75" customHeight="1"/>
+      <c r="C181" s="60">
+        <f>C180+C179</f>
+        <v>2000000</v>
+      </c>
+      <c r="D181" s="59"/>
+      <c r="E181" s="24"/>
+    </row>
+    <row r="182" spans="2:5" ht="15" customHeight="1"/>
+    <row r="183" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E171">
+  <autoFilter ref="A4:E172">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20458,11 +20578,11 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:E175"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="A173:B173"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,8 +1978,8 @@
         <v>80</v>
       </c>
       <c r="E2" s="36">
-        <f ca="1">TODAY()+1</f>
-        <v>44451</v>
+        <f ca="1">TODAY()</f>
+        <v>44452</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3000,37 +3000,33 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>80</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>78596</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>80</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>79548.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3099,11 +3095,11 @@
         <v>1120.8</v>
       </c>
       <c r="C21" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>112080</v>
+        <v>44832</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3620,17 +3616,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4927,11 +4925,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>35364</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5574,17 +5572,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -10172,17 +10172,19 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17"/>
+      <c r="C85" s="17">
+        <v>40</v>
+      </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -11812,19 +11814,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
         <v>226</v>
       </c>
       <c r="B100" s="29">
         <v>1178.94</v>
       </c>
-      <c r="C100" s="17">
-        <v>200</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="2"/>
-        <v>235788</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>260</v>
@@ -11997,17 +11997,19 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -19197,17 +19199,19 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17"/>
+      <c r="C165" s="17">
+        <v>5</v>
+      </c>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E165" s="41" t="s">
         <v>299</v>
@@ -19328,19 +19332,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D172" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>299</v>
@@ -19592,19 +19594,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
         <v>301</v>
       </c>
       <c r="B168" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C168" s="17">
-        <v>160</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" ref="D168" si="6">B168*C168</f>
-        <v>1301491.2</v>
+        <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>260</v>
@@ -20257,12 +20257,12 @@
       </c>
       <c r="B173" s="73"/>
       <c r="C173" s="61">
-        <f>SUBTOTAL(9,C19:C172)</f>
-        <v>710</v>
+        <f>SUBTOTAL(9,C21:C172)</f>
+        <v>260</v>
       </c>
       <c r="D173" s="62">
-        <f>SUBTOTAL(9,D19:D172)</f>
-        <v>2001545.5999999999</v>
+        <f>SUBTOTAL(9,D21:D172)</f>
+        <v>393962.25</v>
       </c>
       <c r="E173" s="63"/>
       <c r="F173" s="27"/>
@@ -20535,7 +20535,7 @@
         <v>279</v>
       </c>
       <c r="C179" s="54">
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="D179" s="23"/>
       <c r="E179" s="22" t="s">
@@ -20556,7 +20556,7 @@
       </c>
       <c r="C181" s="60">
         <f>C180+C179</f>
-        <v>2000000</v>
+        <v>400000</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>Z33</t>
+  </si>
+  <si>
+    <t>Blue/Green</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1945,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomRight" activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44452</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3000,33 +3003,37 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>30</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29473.5</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>60</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59661.599999999999</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3087,19 +3094,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>40</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>44832</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3616,19 +3621,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -4925,11 +4928,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>35364</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5058,11 +5061,11 @@
         <v>1120.08</v>
       </c>
       <c r="C38" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>22401.599999999999</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5183,17 +5186,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="44" t="s">
         <v>292</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>100</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>121789.00000000001</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>260</v>
@@ -5572,19 +5577,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>260</v>
@@ -8694,17 +8697,19 @@
       <c r="DC66" s="14"/>
       <c r="DD66" s="14"/>
     </row>
-    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:120" ht="15" customHeight="1">
       <c r="A67" s="44" t="s">
         <v>298</v>
       </c>
       <c r="B67" s="29">
         <v>5142.21</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="17">
+        <v>15</v>
+      </c>
       <c r="D67" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77133.149999999994</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>260</v>
@@ -10180,11 +10185,11 @@
         <v>1246.96</v>
       </c>
       <c r="C85" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>49878.400000000001</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -11997,19 +12002,17 @@
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B102" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" ref="D102:D133" si="3">B102*C102</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>260</v>
@@ -19332,17 +19335,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D172" si="5">B166*C166</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>299</v>
@@ -19594,20 +19599,22 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A168" s="44" t="s">
         <v>301</v>
       </c>
       <c r="B168" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>30</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" ref="D168" si="6">B168*C168</f>
-        <v>0</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>260</v>
+        <v>244029.59999999998</v>
+      </c>
+      <c r="E168" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
@@ -19987,19 +19994,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B171" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C171" s="17">
-        <v>5</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" si="5"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E171" s="41" t="s">
         <v>300</v>
@@ -20257,12 +20262,12 @@
       </c>
       <c r="B173" s="73"/>
       <c r="C173" s="61">
-        <f>SUBTOTAL(9,C21:C172)</f>
-        <v>260</v>
+        <f>SUBTOTAL(9,C19:C172)</f>
+        <v>385</v>
       </c>
       <c r="D173" s="62">
-        <f>SUBTOTAL(9,D21:D172)</f>
-        <v>393962.25</v>
+        <f>SUBTOTAL(9,D19:D172)</f>
+        <v>797095.4</v>
       </c>
       <c r="E173" s="63"/>
       <c r="F173" s="27"/>
@@ -20535,7 +20540,7 @@
         <v>279</v>
       </c>
       <c r="C179" s="54">
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D179" s="23"/>
       <c r="E179" s="22" t="s">
@@ -20556,7 +20561,7 @@
       </c>
       <c r="C181" s="60">
         <f>C180+C179</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -916,9 +916,6 @@
     <t>D78</t>
   </si>
   <si>
-    <t xml:space="preserve"> Deposit =</t>
-  </si>
-  <si>
     <t>i32</t>
   </si>
   <si>
@@ -932,6 +929,12 @@
   </si>
   <si>
     <t>Blue/Green</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Deposit =</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1948,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J168" sqref="J168"/>
+      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44453</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3003,37 +3006,33 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>255</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>30</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>29473.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>291</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>59661.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>260</v>
@@ -3094,17 +3093,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>80</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>89664</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3621,17 +3622,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -3883,17 +3886,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="44" t="s">
         <v>295</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>420</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>432789</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>260</v>
@@ -4920,19 +4925,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5053,19 +5056,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D69" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5186,19 +5187,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="44" t="s">
         <v>292</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>100</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>121789.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>260</v>
@@ -5577,20 +5576,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>260</v>
+        <v>28447.600000000002</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -8697,19 +8698,17 @@
       <c r="DC66" s="14"/>
       <c r="DD66" s="14"/>
     </row>
-    <row r="67" spans="1:120" ht="15" customHeight="1">
+    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B67" s="29">
         <v>5142.21</v>
       </c>
-      <c r="C67" s="17">
-        <v>15</v>
-      </c>
+      <c r="C67" s="17"/>
       <c r="D67" s="18">
         <f t="shared" si="1"/>
-        <v>77133.149999999994</v>
+        <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
         <v>260</v>
@@ -10177,19 +10176,17 @@
       <c r="AZ84" s="26"/>
       <c r="BA84" s="26"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>265</v>
       </c>
       <c r="B85" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C85" s="17">
-        <v>20</v>
-      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="18">
         <f t="shared" si="2"/>
-        <v>24939.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
         <v>260</v>
@@ -11295,7 +11292,7 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1">
+    <row r="96" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A96" s="45" t="s">
         <v>269</v>
       </c>
@@ -11303,11 +11300,11 @@
         <v>1364.45</v>
       </c>
       <c r="C96" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D96" s="18">
         <f t="shared" si="2"/>
-        <v>27289</v>
+        <v>54578</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
@@ -18296,7 +18293,7 @@
       <c r="DC156" s="14"/>
       <c r="DD156" s="14"/>
     </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A157" s="44" t="s">
         <v>131</v>
       </c>
@@ -18358,7 +18355,7 @@
       <c r="AZ157" s="26"/>
       <c r="BA157" s="26"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="44" t="s">
         <v>239</v>
       </c>
@@ -19202,22 +19199,20 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B165" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C165" s="17">
-        <v>5</v>
-      </c>
+      <c r="C165" s="17"/>
       <c r="D165" s="18">
         <f t="shared" si="4"/>
-        <v>45332.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E165" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
@@ -19335,22 +19330,20 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C166" s="17">
-        <v>5</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" ref="D166:D172" si="5">B166*C166</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
@@ -19599,22 +19592,20 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B168" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C168" s="17">
-        <v>30</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" ref="D168" si="6">B168*C168</f>
-        <v>244029.59999999998</v>
+        <v>0</v>
       </c>
       <c r="E168" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
@@ -20007,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
@@ -20262,12 +20253,12 @@
       </c>
       <c r="B173" s="73"/>
       <c r="C173" s="61">
-        <f>SUBTOTAL(9,C19:C172)</f>
-        <v>385</v>
+        <f>SUBTOTAL(9,C21:C172)</f>
+        <v>620</v>
       </c>
       <c r="D173" s="62">
-        <f>SUBTOTAL(9,D19:D172)</f>
-        <v>797095.4</v>
+        <f>SUBTOTAL(9,D21:D172)</f>
+        <v>676836.6</v>
       </c>
       <c r="E173" s="63"/>
       <c r="F173" s="27"/>
@@ -20540,7 +20531,7 @@
         <v>279</v>
       </c>
       <c r="C179" s="54">
-        <v>800000</v>
+        <v>500000</v>
       </c>
       <c r="D179" s="23"/>
       <c r="E179" s="22" t="s">
@@ -20551,17 +20542,19 @@
       <c r="B180" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C180" s="56"/>
+      <c r="C180" s="56">
+        <v>184930</v>
+      </c>
       <c r="D180" s="57"/>
       <c r="E180" s="22"/>
     </row>
     <row r="181" spans="2:5" ht="19.5" thickBot="1">
       <c r="B181" s="58" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C181" s="60">
-        <f>C180+C179</f>
-        <v>800000</v>
+        <f>C179+C180</f>
+        <v>684930</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>Deposit =</t>
+  </si>
+  <si>
+    <t>D76</t>
   </si>
 </sst>
 </file>
@@ -1942,13 +1945,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP183"/>
+  <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1985,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44454</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3622,19 +3625,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>264</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>260</v>
@@ -3894,11 +3895,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>432789</v>
+        <v>309135</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>260</v>
@@ -5065,7 +5066,7 @@
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="18">
-        <f t="shared" ref="D38:D69" si="1">B38*C38</f>
+        <f t="shared" ref="D38:D70" si="1">B38*C38</f>
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
@@ -5576,19 +5577,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>302</v>
@@ -6418,17 +6417,19 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="45" t="s">
-        <v>296</v>
+    <row r="49" spans="1:120" ht="15" customHeight="1">
+      <c r="A49" s="44" t="s">
+        <v>304</v>
       </c>
       <c r="B49" s="29">
-        <v>1166.77</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>1156.75</v>
+      </c>
+      <c r="C49" s="17">
+        <v>230</v>
+      </c>
       <c r="D49" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="D49" si="2">B49*C49</f>
+        <v>266052.5</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>260</v>
@@ -6549,17 +6550,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="45" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="B50" s="29">
-        <v>1066.6600000000001</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>1166.77</v>
+      </c>
+      <c r="C50" s="17">
+        <v>100</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116677</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>260</v>
@@ -6612,61 +6615,61 @@
       <c r="AY50" s="27"/>
       <c r="AZ50" s="27"/>
       <c r="BA50" s="27"/>
-      <c r="BB50" s="27"/>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="27"/>
-      <c r="BF50" s="27"/>
-      <c r="BG50" s="27"/>
-      <c r="BH50" s="27"/>
-      <c r="BI50" s="27"/>
-      <c r="BJ50" s="27"/>
-      <c r="BK50" s="27"/>
-      <c r="BL50" s="27"/>
-      <c r="BM50" s="27"/>
-      <c r="BN50" s="27"/>
-      <c r="BO50" s="27"/>
-      <c r="BP50" s="27"/>
-      <c r="BQ50" s="27"/>
-      <c r="BR50" s="27"/>
-      <c r="BS50" s="27"/>
-      <c r="BT50" s="27"/>
-      <c r="BU50" s="27"/>
-      <c r="BV50" s="27"/>
-      <c r="BW50" s="27"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="27"/>
-      <c r="BZ50" s="27"/>
-      <c r="CA50" s="27"/>
-      <c r="CB50" s="27"/>
-      <c r="CC50" s="27"/>
-      <c r="CD50" s="27"/>
-      <c r="CE50" s="27"/>
-      <c r="CF50" s="27"/>
-      <c r="CG50" s="27"/>
-      <c r="CH50" s="27"/>
-      <c r="CI50" s="27"/>
-      <c r="CJ50" s="27"/>
-      <c r="CK50" s="27"/>
-      <c r="CL50" s="27"/>
-      <c r="CM50" s="27"/>
-      <c r="CN50" s="27"/>
-      <c r="CO50" s="27"/>
-      <c r="CP50" s="27"/>
-      <c r="CQ50" s="27"/>
-      <c r="CR50" s="27"/>
-      <c r="CS50" s="27"/>
-      <c r="CT50" s="27"/>
-      <c r="CU50" s="27"/>
-      <c r="CV50" s="27"/>
-      <c r="CW50" s="27"/>
-      <c r="CX50" s="27"/>
-      <c r="CY50" s="27"/>
-      <c r="CZ50" s="27"/>
-      <c r="DA50" s="27"/>
-      <c r="DB50" s="27"/>
-      <c r="DC50" s="27"/>
-      <c r="DD50" s="27"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="15"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="15"/>
+      <c r="BO50" s="15"/>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="15"/>
+      <c r="BS50" s="15"/>
+      <c r="BT50" s="15"/>
+      <c r="BU50" s="15"/>
+      <c r="BV50" s="15"/>
+      <c r="BW50" s="15"/>
+      <c r="BX50" s="15"/>
+      <c r="BY50" s="15"/>
+      <c r="BZ50" s="15"/>
+      <c r="CA50" s="15"/>
+      <c r="CB50" s="15"/>
+      <c r="CC50" s="15"/>
+      <c r="CD50" s="15"/>
+      <c r="CE50" s="15"/>
+      <c r="CF50" s="15"/>
+      <c r="CG50" s="15"/>
+      <c r="CH50" s="15"/>
+      <c r="CI50" s="15"/>
+      <c r="CJ50" s="15"/>
+      <c r="CK50" s="15"/>
+      <c r="CL50" s="15"/>
+      <c r="CM50" s="15"/>
+      <c r="CN50" s="15"/>
+      <c r="CO50" s="15"/>
+      <c r="CP50" s="15"/>
+      <c r="CQ50" s="15"/>
+      <c r="CR50" s="15"/>
+      <c r="CS50" s="15"/>
+      <c r="CT50" s="15"/>
+      <c r="CU50" s="15"/>
+      <c r="CV50" s="15"/>
+      <c r="CW50" s="15"/>
+      <c r="CX50" s="15"/>
+      <c r="CY50" s="15"/>
+      <c r="CZ50" s="15"/>
+      <c r="DA50" s="15"/>
+      <c r="DB50" s="15"/>
+      <c r="DC50" s="15"/>
+      <c r="DD50" s="15"/>
       <c r="DE50" s="15"/>
       <c r="DF50" s="15"/>
       <c r="DG50" s="15"/>
@@ -6681,11 +6684,11 @@
       <c r="DP50" s="15"/>
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="44" t="s">
-        <v>245</v>
+      <c r="A51" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="B51" s="29">
-        <v>1014.53</v>
+        <v>1066.6600000000001</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="18">
@@ -6743,61 +6746,61 @@
       <c r="AY51" s="27"/>
       <c r="AZ51" s="27"/>
       <c r="BA51" s="27"/>
-      <c r="BB51" s="15"/>
-      <c r="BC51" s="15"/>
-      <c r="BD51" s="15"/>
-      <c r="BE51" s="15"/>
-      <c r="BF51" s="15"/>
-      <c r="BG51" s="15"/>
-      <c r="BH51" s="15"/>
-      <c r="BI51" s="15"/>
-      <c r="BJ51" s="15"/>
-      <c r="BK51" s="15"/>
-      <c r="BL51" s="15"/>
-      <c r="BM51" s="15"/>
-      <c r="BN51" s="15"/>
-      <c r="BO51" s="15"/>
-      <c r="BP51" s="15"/>
-      <c r="BQ51" s="15"/>
-      <c r="BR51" s="15"/>
-      <c r="BS51" s="15"/>
-      <c r="BT51" s="15"/>
-      <c r="BU51" s="15"/>
-      <c r="BV51" s="15"/>
-      <c r="BW51" s="15"/>
-      <c r="BX51" s="15"/>
-      <c r="BY51" s="15"/>
-      <c r="BZ51" s="15"/>
-      <c r="CA51" s="15"/>
-      <c r="CB51" s="15"/>
-      <c r="CC51" s="15"/>
-      <c r="CD51" s="15"/>
-      <c r="CE51" s="15"/>
-      <c r="CF51" s="15"/>
-      <c r="CG51" s="15"/>
-      <c r="CH51" s="15"/>
-      <c r="CI51" s="15"/>
-      <c r="CJ51" s="15"/>
-      <c r="CK51" s="15"/>
-      <c r="CL51" s="15"/>
-      <c r="CM51" s="15"/>
-      <c r="CN51" s="15"/>
-      <c r="CO51" s="15"/>
-      <c r="CP51" s="15"/>
-      <c r="CQ51" s="15"/>
-      <c r="CR51" s="15"/>
-      <c r="CS51" s="15"/>
-      <c r="CT51" s="15"/>
-      <c r="CU51" s="15"/>
-      <c r="CV51" s="15"/>
-      <c r="CW51" s="15"/>
-      <c r="CX51" s="15"/>
-      <c r="CY51" s="15"/>
-      <c r="CZ51" s="15"/>
-      <c r="DA51" s="15"/>
-      <c r="DB51" s="15"/>
-      <c r="DC51" s="15"/>
-      <c r="DD51" s="15"/>
+      <c r="BB51" s="27"/>
+      <c r="BC51" s="27"/>
+      <c r="BD51" s="27"/>
+      <c r="BE51" s="27"/>
+      <c r="BF51" s="27"/>
+      <c r="BG51" s="27"/>
+      <c r="BH51" s="27"/>
+      <c r="BI51" s="27"/>
+      <c r="BJ51" s="27"/>
+      <c r="BK51" s="27"/>
+      <c r="BL51" s="27"/>
+      <c r="BM51" s="27"/>
+      <c r="BN51" s="27"/>
+      <c r="BO51" s="27"/>
+      <c r="BP51" s="27"/>
+      <c r="BQ51" s="27"/>
+      <c r="BR51" s="27"/>
+      <c r="BS51" s="27"/>
+      <c r="BT51" s="27"/>
+      <c r="BU51" s="27"/>
+      <c r="BV51" s="27"/>
+      <c r="BW51" s="27"/>
+      <c r="BX51" s="27"/>
+      <c r="BY51" s="27"/>
+      <c r="BZ51" s="27"/>
+      <c r="CA51" s="27"/>
+      <c r="CB51" s="27"/>
+      <c r="CC51" s="27"/>
+      <c r="CD51" s="27"/>
+      <c r="CE51" s="27"/>
+      <c r="CF51" s="27"/>
+      <c r="CG51" s="27"/>
+      <c r="CH51" s="27"/>
+      <c r="CI51" s="27"/>
+      <c r="CJ51" s="27"/>
+      <c r="CK51" s="27"/>
+      <c r="CL51" s="27"/>
+      <c r="CM51" s="27"/>
+      <c r="CN51" s="27"/>
+      <c r="CO51" s="27"/>
+      <c r="CP51" s="27"/>
+      <c r="CQ51" s="27"/>
+      <c r="CR51" s="27"/>
+      <c r="CS51" s="27"/>
+      <c r="CT51" s="27"/>
+      <c r="CU51" s="27"/>
+      <c r="CV51" s="27"/>
+      <c r="CW51" s="27"/>
+      <c r="CX51" s="27"/>
+      <c r="CY51" s="27"/>
+      <c r="CZ51" s="27"/>
+      <c r="DA51" s="27"/>
+      <c r="DB51" s="27"/>
+      <c r="DC51" s="27"/>
+      <c r="DD51" s="27"/>
       <c r="DE51" s="15"/>
       <c r="DF51" s="15"/>
       <c r="DG51" s="15"/>
@@ -6813,17 +6816,19 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="44" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B52" s="29">
-        <v>1264.153</v>
+        <v>1014.53</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E52" s="18"/>
+      <c r="E52" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
@@ -6941,20 +6946,18 @@
       <c r="DP52" s="15"/>
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="45" t="s">
-        <v>231</v>
+      <c r="A53" s="44" t="s">
+        <v>180</v>
       </c>
       <c r="B53" s="29">
-        <v>2702.42</v>
+        <v>1264.153</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E53" s="18" t="s">
-        <v>238</v>
-      </c>
+      <c r="E53" s="18"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -7073,18 +7076,18 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="45" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B54" s="29">
-        <v>4500</v>
-      </c>
-      <c r="C54" s="19"/>
+        <v>2702.42</v>
+      </c>
+      <c r="C54" s="17"/>
       <c r="D54" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -7203,18 +7206,18 @@
       <c r="DP54" s="15"/>
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B55" s="49">
-        <v>4706.18</v>
-      </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="47">
+      <c r="A55" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="29">
+        <v>4500</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" s="18" t="s">
         <v>260</v>
       </c>
       <c r="F55" s="27"/>
@@ -7334,18 +7337,20 @@
       <c r="DP55" s="15"/>
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56" s="29">
-        <v>20340.84</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18">
+      <c r="A56" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" s="49">
+        <v>4706.18</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="47" t="s">
+        <v>260</v>
+      </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -7464,10 +7469,10 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="44" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B57" s="29">
-        <v>24267.584999999999</v>
+        <v>20340.84</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="18">
@@ -7593,19 +7598,17 @@
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="44" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B58" s="29">
-        <v>5334.3029999999999</v>
+        <v>24267.584999999999</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E58" s="18" t="s">
-        <v>207</v>
-      </c>
+      <c r="E58" s="18"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -7724,17 +7727,19 @@
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B59" s="29">
-        <v>6900.2079999999996</v>
+        <v>5334.3029999999999</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="18"/>
+      <c r="E59" s="18" t="s">
+        <v>207</v>
+      </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -7853,10 +7858,10 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="44" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B60" s="29">
-        <v>6715.95</v>
+        <v>6900.2079999999996</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="18">
@@ -7982,10 +7987,10 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="44" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B61" s="29">
-        <v>8573.3799999999992</v>
+        <v>6715.95</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="18">
@@ -8111,19 +8116,17 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="44" t="s">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="B62" s="29">
-        <v>4044.61</v>
+        <v>8573.3799999999992</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="18" t="s">
-        <v>267</v>
-      </c>
+      <c r="E62" s="18"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -8242,17 +8245,19 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="44" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="B63" s="29">
-        <v>8088.17</v>
+        <v>4044.61</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E63" s="18"/>
+      <c r="E63" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -8371,10 +8376,10 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" s="29">
-        <v>5158.25</v>
+        <v>8088.17</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="18">
@@ -8500,10 +8505,10 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="44" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B65" s="29">
-        <v>4885.6000000000004</v>
+        <v>5158.25</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="18">
@@ -8629,81 +8634,139 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="B66" s="29">
-        <v>5247.46</v>
+        <v>4885.6000000000004</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="BB66" s="14"/>
-      <c r="BC66" s="14"/>
-      <c r="BD66" s="14"/>
-      <c r="BE66" s="14"/>
-      <c r="BF66" s="14"/>
-      <c r="BG66" s="14"/>
-      <c r="BH66" s="14"/>
-      <c r="BI66" s="14"/>
-      <c r="BJ66" s="14"/>
-      <c r="BK66" s="14"/>
-      <c r="BL66" s="14"/>
-      <c r="BM66" s="14"/>
-      <c r="BN66" s="14"/>
-      <c r="BO66" s="14"/>
-      <c r="BP66" s="14"/>
-      <c r="BQ66" s="14"/>
-      <c r="BR66" s="14"/>
-      <c r="BS66" s="14"/>
-      <c r="BT66" s="14"/>
-      <c r="BU66" s="14"/>
-      <c r="BV66" s="14"/>
-      <c r="BW66" s="14"/>
-      <c r="BX66" s="14"/>
-      <c r="BY66" s="14"/>
-      <c r="BZ66" s="14"/>
-      <c r="CA66" s="14"/>
-      <c r="CB66" s="14"/>
-      <c r="CC66" s="14"/>
-      <c r="CD66" s="14"/>
-      <c r="CE66" s="14"/>
-      <c r="CF66" s="14"/>
-      <c r="CG66" s="14"/>
-      <c r="CH66" s="14"/>
-      <c r="CI66" s="14"/>
-      <c r="CJ66" s="14"/>
-      <c r="CK66" s="14"/>
-      <c r="CL66" s="14"/>
-      <c r="CM66" s="14"/>
-      <c r="CN66" s="14"/>
-      <c r="CO66" s="14"/>
-      <c r="CP66" s="14"/>
-      <c r="CQ66" s="14"/>
-      <c r="CR66" s="14"/>
-      <c r="CS66" s="14"/>
-      <c r="CT66" s="14"/>
-      <c r="CU66" s="14"/>
-      <c r="CV66" s="14"/>
-      <c r="CW66" s="14"/>
-      <c r="CX66" s="14"/>
-      <c r="CY66" s="14"/>
-      <c r="CZ66" s="14"/>
-      <c r="DA66" s="14"/>
-      <c r="DB66" s="14"/>
-      <c r="DC66" s="14"/>
-      <c r="DD66" s="14"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="27"/>
+      <c r="AI66" s="27"/>
+      <c r="AJ66" s="27"/>
+      <c r="AK66" s="27"/>
+      <c r="AL66" s="27"/>
+      <c r="AM66" s="27"/>
+      <c r="AN66" s="27"/>
+      <c r="AO66" s="27"/>
+      <c r="AP66" s="27"/>
+      <c r="AQ66" s="27"/>
+      <c r="AR66" s="27"/>
+      <c r="AS66" s="27"/>
+      <c r="AT66" s="27"/>
+      <c r="AU66" s="27"/>
+      <c r="AV66" s="27"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="27"/>
+      <c r="AY66" s="27"/>
+      <c r="AZ66" s="27"/>
+      <c r="BA66" s="27"/>
+      <c r="BB66" s="15"/>
+      <c r="BC66" s="15"/>
+      <c r="BD66" s="15"/>
+      <c r="BE66" s="15"/>
+      <c r="BF66" s="15"/>
+      <c r="BG66" s="15"/>
+      <c r="BH66" s="15"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="15"/>
+      <c r="BK66" s="15"/>
+      <c r="BL66" s="15"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="15"/>
+      <c r="BO66" s="15"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="15"/>
+      <c r="BS66" s="15"/>
+      <c r="BT66" s="15"/>
+      <c r="BU66" s="15"/>
+      <c r="BV66" s="15"/>
+      <c r="BW66" s="15"/>
+      <c r="BX66" s="15"/>
+      <c r="BY66" s="15"/>
+      <c r="BZ66" s="15"/>
+      <c r="CA66" s="15"/>
+      <c r="CB66" s="15"/>
+      <c r="CC66" s="15"/>
+      <c r="CD66" s="15"/>
+      <c r="CE66" s="15"/>
+      <c r="CF66" s="15"/>
+      <c r="CG66" s="15"/>
+      <c r="CH66" s="15"/>
+      <c r="CI66" s="15"/>
+      <c r="CJ66" s="15"/>
+      <c r="CK66" s="15"/>
+      <c r="CL66" s="15"/>
+      <c r="CM66" s="15"/>
+      <c r="CN66" s="15"/>
+      <c r="CO66" s="15"/>
+      <c r="CP66" s="15"/>
+      <c r="CQ66" s="15"/>
+      <c r="CR66" s="15"/>
+      <c r="CS66" s="15"/>
+      <c r="CT66" s="15"/>
+      <c r="CU66" s="15"/>
+      <c r="CV66" s="15"/>
+      <c r="CW66" s="15"/>
+      <c r="CX66" s="15"/>
+      <c r="CY66" s="15"/>
+      <c r="CZ66" s="15"/>
+      <c r="DA66" s="15"/>
+      <c r="DB66" s="15"/>
+      <c r="DC66" s="15"/>
+      <c r="DD66" s="15"/>
+      <c r="DE66" s="15"/>
+      <c r="DF66" s="15"/>
+      <c r="DG66" s="15"/>
+      <c r="DH66" s="15"/>
+      <c r="DI66" s="15"/>
+      <c r="DJ66" s="15"/>
+      <c r="DK66" s="15"/>
+      <c r="DL66" s="15"/>
+      <c r="DM66" s="15"/>
+      <c r="DN66" s="15"/>
+      <c r="DO66" s="15"/>
+      <c r="DP66" s="15"/>
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B67" s="29">
-        <v>5142.21</v>
+        <v>5247.46</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="18">
@@ -8711,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8769,74 +8832,83 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="B68" s="29">
-        <v>5607.32</v>
+        <v>5142.21</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="U68" s="26"/>
-      <c r="V68" s="26"/>
-      <c r="W68" s="26"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
-      <c r="AF68" s="26"/>
-      <c r="AG68" s="26"/>
-      <c r="AH68" s="26"/>
-      <c r="AI68" s="26"/>
-      <c r="AJ68" s="26"/>
-      <c r="AK68" s="26"/>
-      <c r="AL68" s="26"/>
-      <c r="AM68" s="26"/>
-      <c r="AN68" s="26"/>
-      <c r="AO68" s="26"/>
-      <c r="AP68" s="26"/>
-      <c r="AQ68" s="26"/>
-      <c r="AR68" s="26"/>
-      <c r="AS68" s="26"/>
-      <c r="AT68" s="26"/>
-      <c r="AU68" s="26"/>
-      <c r="AV68" s="26"/>
-      <c r="AW68" s="26"/>
-      <c r="AX68" s="26"/>
-      <c r="AY68" s="26"/>
-      <c r="AZ68" s="26"/>
-      <c r="BA68" s="26"/>
+      <c r="E68" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB68" s="14"/>
+      <c r="BC68" s="14"/>
+      <c r="BD68" s="14"/>
+      <c r="BE68" s="14"/>
+      <c r="BF68" s="14"/>
+      <c r="BG68" s="14"/>
+      <c r="BH68" s="14"/>
+      <c r="BI68" s="14"/>
+      <c r="BJ68" s="14"/>
+      <c r="BK68" s="14"/>
+      <c r="BL68" s="14"/>
+      <c r="BM68" s="14"/>
+      <c r="BN68" s="14"/>
+      <c r="BO68" s="14"/>
+      <c r="BP68" s="14"/>
+      <c r="BQ68" s="14"/>
+      <c r="BR68" s="14"/>
+      <c r="BS68" s="14"/>
+      <c r="BT68" s="14"/>
+      <c r="BU68" s="14"/>
+      <c r="BV68" s="14"/>
+      <c r="BW68" s="14"/>
+      <c r="BX68" s="14"/>
+      <c r="BY68" s="14"/>
+      <c r="BZ68" s="14"/>
+      <c r="CA68" s="14"/>
+      <c r="CB68" s="14"/>
+      <c r="CC68" s="14"/>
+      <c r="CD68" s="14"/>
+      <c r="CE68" s="14"/>
+      <c r="CF68" s="14"/>
+      <c r="CG68" s="14"/>
+      <c r="CH68" s="14"/>
+      <c r="CI68" s="14"/>
+      <c r="CJ68" s="14"/>
+      <c r="CK68" s="14"/>
+      <c r="CL68" s="14"/>
+      <c r="CM68" s="14"/>
+      <c r="CN68" s="14"/>
+      <c r="CO68" s="14"/>
+      <c r="CP68" s="14"/>
+      <c r="CQ68" s="14"/>
+      <c r="CR68" s="14"/>
+      <c r="CS68" s="14"/>
+      <c r="CT68" s="14"/>
+      <c r="CU68" s="14"/>
+      <c r="CV68" s="14"/>
+      <c r="CW68" s="14"/>
+      <c r="CX68" s="14"/>
+      <c r="CY68" s="14"/>
+      <c r="CZ68" s="14"/>
+      <c r="DA68" s="14"/>
+      <c r="DB68" s="14"/>
+      <c r="DC68" s="14"/>
+      <c r="DD68" s="14"/>
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="44" t="s">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c r="B69" s="29">
-        <v>4866.5600000000004</v>
+        <v>5607.32</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="18">
@@ -8895,19 +8967,17 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="44" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="B70" s="29">
-        <v>5603.31</v>
+        <v>4866.5600000000004</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="18">
-        <f t="shared" ref="D70:D101" si="2">B70*C70</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>207</v>
-      </c>
+      <c r="E70" s="18"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
       <c r="H70" s="26"/>
@@ -8959,18 +9029,18 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="B71" s="29">
-        <v>5411.86</v>
+        <v>5603.31</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D71:D102" si="3">B71*C71</f>
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -9023,17 +9093,19 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="44" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B72" s="29">
-        <v>5412.5</v>
+        <v>5411.86</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E72" s="18"/>
+      <c r="E72" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
       <c r="H72" s="26"/>
@@ -9083,21 +9155,19 @@
       <c r="AZ72" s="26"/>
       <c r="BA72" s="26"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="44" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B73" s="29">
-        <v>5792.76</v>
+        <v>5412.5</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="E73" s="18"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
       <c r="H73" s="26"/>
@@ -9149,18 +9219,18 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="44" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="B74" s="29">
-        <v>5793.45</v>
+        <v>5792.76</v>
       </c>
       <c r="C74" s="17"/>
       <c r="D74" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -9213,17 +9283,19 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="44" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B75" s="29">
-        <v>7714.24</v>
+        <v>5793.45</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E75" s="18"/>
+      <c r="E75" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
@@ -9275,14 +9347,14 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="44" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B76" s="29">
-        <v>8225.51</v>
+        <v>7714.24</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E76" s="18"/>
@@ -9337,14 +9409,14 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="44" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="B77" s="29">
-        <v>5382.7857000000004</v>
+        <v>8225.51</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E77" s="18"/>
@@ -9397,151 +9469,82 @@
       <c r="AZ77" s="26"/>
       <c r="BA77" s="26"/>
     </row>
-    <row r="78" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="44" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B78" s="29">
-        <v>6306.98</v>
+        <v>5382.7857000000004</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="27"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27"/>
-      <c r="U78" s="27"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
-      <c r="AD78" s="27"/>
-      <c r="AE78" s="27"/>
-      <c r="AF78" s="27"/>
-      <c r="AG78" s="27"/>
-      <c r="AH78" s="27"/>
-      <c r="AI78" s="27"/>
-      <c r="AJ78" s="27"/>
-      <c r="AK78" s="27"/>
-      <c r="AL78" s="27"/>
-      <c r="AM78" s="27"/>
-      <c r="AN78" s="27"/>
-      <c r="AO78" s="27"/>
-      <c r="AP78" s="27"/>
-      <c r="AQ78" s="27"/>
-      <c r="AR78" s="27"/>
-      <c r="AS78" s="27"/>
-      <c r="AT78" s="27"/>
-      <c r="AU78" s="27"/>
-      <c r="AV78" s="27"/>
-      <c r="AW78" s="27"/>
-      <c r="AX78" s="27"/>
-      <c r="AY78" s="27"/>
-      <c r="AZ78" s="27"/>
-      <c r="BA78" s="27"/>
-      <c r="BB78" s="15"/>
-      <c r="BC78" s="15"/>
-      <c r="BD78" s="15"/>
-      <c r="BE78" s="15"/>
-      <c r="BF78" s="15"/>
-      <c r="BG78" s="15"/>
-      <c r="BH78" s="15"/>
-      <c r="BI78" s="15"/>
-      <c r="BJ78" s="15"/>
-      <c r="BK78" s="15"/>
-      <c r="BL78" s="15"/>
-      <c r="BM78" s="15"/>
-      <c r="BN78" s="15"/>
-      <c r="BO78" s="15"/>
-      <c r="BP78" s="15"/>
-      <c r="BQ78" s="15"/>
-      <c r="BR78" s="15"/>
-      <c r="BS78" s="15"/>
-      <c r="BT78" s="15"/>
-      <c r="BU78" s="15"/>
-      <c r="BV78" s="15"/>
-      <c r="BW78" s="15"/>
-      <c r="BX78" s="15"/>
-      <c r="BY78" s="15"/>
-      <c r="BZ78" s="15"/>
-      <c r="CA78" s="15"/>
-      <c r="CB78" s="15"/>
-      <c r="CC78" s="15"/>
-      <c r="CD78" s="15"/>
-      <c r="CE78" s="15"/>
-      <c r="CF78" s="15"/>
-      <c r="CG78" s="15"/>
-      <c r="CH78" s="15"/>
-      <c r="CI78" s="15"/>
-      <c r="CJ78" s="15"/>
-      <c r="CK78" s="15"/>
-      <c r="CL78" s="15"/>
-      <c r="CM78" s="15"/>
-      <c r="CN78" s="15"/>
-      <c r="CO78" s="15"/>
-      <c r="CP78" s="15"/>
-      <c r="CQ78" s="15"/>
-      <c r="CR78" s="15"/>
-      <c r="CS78" s="15"/>
-      <c r="CT78" s="15"/>
-      <c r="CU78" s="15"/>
-      <c r="CV78" s="15"/>
-      <c r="CW78" s="15"/>
-      <c r="CX78" s="15"/>
-      <c r="CY78" s="15"/>
-      <c r="CZ78" s="15"/>
-      <c r="DA78" s="15"/>
-      <c r="DB78" s="15"/>
-      <c r="DC78" s="15"/>
-      <c r="DD78" s="15"/>
-      <c r="DE78" s="15"/>
-      <c r="DF78" s="15"/>
-      <c r="DG78" s="15"/>
-      <c r="DH78" s="15"/>
-      <c r="DI78" s="15"/>
-      <c r="DJ78" s="15"/>
-      <c r="DK78" s="15"/>
-      <c r="DL78" s="15"/>
-      <c r="DM78" s="15"/>
-      <c r="DN78" s="15"/>
-      <c r="DO78" s="15"/>
-      <c r="DP78" s="15"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="26"/>
+      <c r="AC78" s="26"/>
+      <c r="AD78" s="26"/>
+      <c r="AE78" s="26"/>
+      <c r="AF78" s="26"/>
+      <c r="AG78" s="26"/>
+      <c r="AH78" s="26"/>
+      <c r="AI78" s="26"/>
+      <c r="AJ78" s="26"/>
+      <c r="AK78" s="26"/>
+      <c r="AL78" s="26"/>
+      <c r="AM78" s="26"/>
+      <c r="AN78" s="26"/>
+      <c r="AO78" s="26"/>
+      <c r="AP78" s="26"/>
+      <c r="AQ78" s="26"/>
+      <c r="AR78" s="26"/>
+      <c r="AS78" s="26"/>
+      <c r="AT78" s="26"/>
+      <c r="AU78" s="26"/>
+      <c r="AV78" s="26"/>
+      <c r="AW78" s="26"/>
+      <c r="AX78" s="26"/>
+      <c r="AY78" s="26"/>
+      <c r="AZ78" s="26"/>
+      <c r="BA78" s="26"/>
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="44" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B79" s="29">
-        <v>5708.6</v>
+        <v>6306.98</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
@@ -9661,14 +9664,14 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B80" s="29">
-        <v>6405.21</v>
+        <v>5708.6</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
@@ -9791,19 +9794,19 @@
       <c r="DP80" s="15"/>
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="45" t="s">
-        <v>125</v>
+      <c r="A81" s="44" t="s">
+        <v>261</v>
       </c>
       <c r="B81" s="29">
-        <v>1182</v>
+        <v>6405.21</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -9923,17 +9926,19 @@
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="45" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B82" s="29">
-        <v>1199.99</v>
+        <v>1182</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="18"/>
+      <c r="E82" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
@@ -10050,83 +10055,148 @@
       <c r="DO82" s="15"/>
       <c r="DP82" s="15"/>
     </row>
-    <row r="83" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="45" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B83" s="29">
-        <v>1189.97</v>
+        <v>1199.99</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E83" s="18"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
-      <c r="U83" s="26"/>
-      <c r="V83" s="26"/>
-      <c r="W83" s="26"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
-      <c r="AF83" s="26"/>
-      <c r="AG83" s="26"/>
-      <c r="AH83" s="26"/>
-      <c r="AI83" s="26"/>
-      <c r="AJ83" s="26"/>
-      <c r="AK83" s="26"/>
-      <c r="AL83" s="26"/>
-      <c r="AM83" s="26"/>
-      <c r="AN83" s="26"/>
-      <c r="AO83" s="26"/>
-      <c r="AP83" s="26"/>
-      <c r="AQ83" s="26"/>
-      <c r="AR83" s="26"/>
-      <c r="AS83" s="26"/>
-      <c r="AT83" s="26"/>
-      <c r="AU83" s="26"/>
-      <c r="AV83" s="26"/>
-      <c r="AW83" s="26"/>
-      <c r="AX83" s="26"/>
-      <c r="AY83" s="26"/>
-      <c r="AZ83" s="26"/>
-      <c r="BA83" s="26"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
+      <c r="AG83" s="27"/>
+      <c r="AH83" s="27"/>
+      <c r="AI83" s="27"/>
+      <c r="AJ83" s="27"/>
+      <c r="AK83" s="27"/>
+      <c r="AL83" s="27"/>
+      <c r="AM83" s="27"/>
+      <c r="AN83" s="27"/>
+      <c r="AO83" s="27"/>
+      <c r="AP83" s="27"/>
+      <c r="AQ83" s="27"/>
+      <c r="AR83" s="27"/>
+      <c r="AS83" s="27"/>
+      <c r="AT83" s="27"/>
+      <c r="AU83" s="27"/>
+      <c r="AV83" s="27"/>
+      <c r="AW83" s="27"/>
+      <c r="AX83" s="27"/>
+      <c r="AY83" s="27"/>
+      <c r="AZ83" s="27"/>
+      <c r="BA83" s="27"/>
+      <c r="BB83" s="15"/>
+      <c r="BC83" s="15"/>
+      <c r="BD83" s="15"/>
+      <c r="BE83" s="15"/>
+      <c r="BF83" s="15"/>
+      <c r="BG83" s="15"/>
+      <c r="BH83" s="15"/>
+      <c r="BI83" s="15"/>
+      <c r="BJ83" s="15"/>
+      <c r="BK83" s="15"/>
+      <c r="BL83" s="15"/>
+      <c r="BM83" s="15"/>
+      <c r="BN83" s="15"/>
+      <c r="BO83" s="15"/>
+      <c r="BP83" s="15"/>
+      <c r="BQ83" s="15"/>
+      <c r="BR83" s="15"/>
+      <c r="BS83" s="15"/>
+      <c r="BT83" s="15"/>
+      <c r="BU83" s="15"/>
+      <c r="BV83" s="15"/>
+      <c r="BW83" s="15"/>
+      <c r="BX83" s="15"/>
+      <c r="BY83" s="15"/>
+      <c r="BZ83" s="15"/>
+      <c r="CA83" s="15"/>
+      <c r="CB83" s="15"/>
+      <c r="CC83" s="15"/>
+      <c r="CD83" s="15"/>
+      <c r="CE83" s="15"/>
+      <c r="CF83" s="15"/>
+      <c r="CG83" s="15"/>
+      <c r="CH83" s="15"/>
+      <c r="CI83" s="15"/>
+      <c r="CJ83" s="15"/>
+      <c r="CK83" s="15"/>
+      <c r="CL83" s="15"/>
+      <c r="CM83" s="15"/>
+      <c r="CN83" s="15"/>
+      <c r="CO83" s="15"/>
+      <c r="CP83" s="15"/>
+      <c r="CQ83" s="15"/>
+      <c r="CR83" s="15"/>
+      <c r="CS83" s="15"/>
+      <c r="CT83" s="15"/>
+      <c r="CU83" s="15"/>
+      <c r="CV83" s="15"/>
+      <c r="CW83" s="15"/>
+      <c r="CX83" s="15"/>
+      <c r="CY83" s="15"/>
+      <c r="CZ83" s="15"/>
+      <c r="DA83" s="15"/>
+      <c r="DB83" s="15"/>
+      <c r="DC83" s="15"/>
+      <c r="DD83" s="15"/>
+      <c r="DE83" s="15"/>
+      <c r="DF83" s="15"/>
+      <c r="DG83" s="15"/>
+      <c r="DH83" s="15"/>
+      <c r="DI83" s="15"/>
+      <c r="DJ83" s="15"/>
+      <c r="DK83" s="15"/>
+      <c r="DL83" s="15"/>
+      <c r="DM83" s="15"/>
+      <c r="DN83" s="15"/>
+      <c r="DO83" s="15"/>
+      <c r="DP83" s="15"/>
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="45" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B84" s="29">
-        <v>1062.6500000000001</v>
+        <v>1189.97</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="E84" s="18"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
       <c r="H84" s="26"/>
@@ -10178,14 +10248,14 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="45" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B85" s="29">
-        <v>1246.96</v>
+        <v>1062.6500000000001</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
@@ -10239,223 +10309,220 @@
       <c r="AY85" s="26"/>
       <c r="AZ85" s="26"/>
       <c r="BA85" s="26"/>
-      <c r="BB85" s="26"/>
-      <c r="BC85" s="26"/>
-      <c r="BD85" s="26"/>
-      <c r="BE85" s="26"/>
-    </row>
-    <row r="86" spans="1:120" ht="15" customHeight="1">
+    </row>
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="45" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B86" s="29">
-        <v>1306.26</v>
+        <v>1246.96</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D86" s="18">
-        <f t="shared" si="2"/>
-        <v>26125.200000000001</v>
+        <f t="shared" si="3"/>
+        <v>37408.800000000003</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="27"/>
-      <c r="AI86" s="27"/>
-      <c r="AJ86" s="27"/>
-      <c r="AK86" s="27"/>
-      <c r="AL86" s="27"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="27"/>
-      <c r="AO86" s="27"/>
-      <c r="AP86" s="27"/>
-      <c r="AQ86" s="27"/>
-      <c r="AR86" s="27"/>
-      <c r="AS86" s="27"/>
-      <c r="AT86" s="27"/>
-      <c r="AU86" s="27"/>
-      <c r="AV86" s="27"/>
-      <c r="AW86" s="27"/>
-      <c r="AX86" s="27"/>
-      <c r="AY86" s="27"/>
-      <c r="AZ86" s="27"/>
-      <c r="BA86" s="27"/>
-      <c r="BB86" s="27"/>
-      <c r="BC86" s="27"/>
-      <c r="BD86" s="27"/>
-      <c r="BE86" s="27"/>
-      <c r="BF86" s="27"/>
-      <c r="BG86" s="27"/>
-      <c r="BH86" s="27"/>
-      <c r="BI86" s="27"/>
-      <c r="BJ86" s="27"/>
-      <c r="BK86" s="27"/>
-      <c r="BL86" s="27"/>
-      <c r="BM86" s="27"/>
-      <c r="BN86" s="27"/>
-      <c r="BO86" s="27"/>
-      <c r="BP86" s="27"/>
-      <c r="BQ86" s="27"/>
-      <c r="BR86" s="27"/>
-      <c r="BS86" s="27"/>
-      <c r="BT86" s="27"/>
-      <c r="BU86" s="27"/>
-      <c r="BV86" s="27"/>
-      <c r="BW86" s="27"/>
-      <c r="BX86" s="27"/>
-      <c r="BY86" s="27"/>
-      <c r="BZ86" s="27"/>
-      <c r="CA86" s="27"/>
-      <c r="CB86" s="27"/>
-      <c r="CC86" s="27"/>
-      <c r="CD86" s="27"/>
-      <c r="CE86" s="27"/>
-      <c r="CF86" s="27"/>
-      <c r="CG86" s="27"/>
-      <c r="CH86" s="27"/>
-      <c r="CI86" s="27"/>
-      <c r="CJ86" s="27"/>
-      <c r="CK86" s="27"/>
-      <c r="CL86" s="27"/>
-      <c r="CM86" s="27"/>
-      <c r="CN86" s="27"/>
-      <c r="CO86" s="27"/>
-      <c r="CP86" s="27"/>
-      <c r="CQ86" s="27"/>
-      <c r="CR86" s="27"/>
-      <c r="CS86" s="27"/>
-      <c r="CT86" s="27"/>
-      <c r="CU86" s="27"/>
-      <c r="CV86" s="27"/>
-      <c r="CW86" s="27"/>
-      <c r="CX86" s="27"/>
-      <c r="CY86" s="27"/>
-      <c r="CZ86" s="27"/>
-      <c r="DA86" s="27"/>
-      <c r="DB86" s="27"/>
-      <c r="DC86" s="27"/>
-      <c r="DD86" s="27"/>
-      <c r="DE86" s="15"/>
-      <c r="DF86" s="15"/>
-      <c r="DG86" s="15"/>
-      <c r="DH86" s="15"/>
-      <c r="DI86" s="15"/>
-      <c r="DJ86" s="15"/>
-      <c r="DK86" s="15"/>
-      <c r="DL86" s="15"/>
-      <c r="DM86" s="15"/>
-      <c r="DN86" s="15"/>
-      <c r="DO86" s="15"/>
-      <c r="DP86" s="15"/>
-    </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+      <c r="T86" s="26"/>
+      <c r="U86" s="26"/>
+      <c r="V86" s="26"/>
+      <c r="W86" s="26"/>
+      <c r="X86" s="26"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="26"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="26"/>
+      <c r="AD86" s="26"/>
+      <c r="AE86" s="26"/>
+      <c r="AF86" s="26"/>
+      <c r="AG86" s="26"/>
+      <c r="AH86" s="26"/>
+      <c r="AI86" s="26"/>
+      <c r="AJ86" s="26"/>
+      <c r="AK86" s="26"/>
+      <c r="AL86" s="26"/>
+      <c r="AM86" s="26"/>
+      <c r="AN86" s="26"/>
+      <c r="AO86" s="26"/>
+      <c r="AP86" s="26"/>
+      <c r="AQ86" s="26"/>
+      <c r="AR86" s="26"/>
+      <c r="AS86" s="26"/>
+      <c r="AT86" s="26"/>
+      <c r="AU86" s="26"/>
+      <c r="AV86" s="26"/>
+      <c r="AW86" s="26"/>
+      <c r="AX86" s="26"/>
+      <c r="AY86" s="26"/>
+      <c r="AZ86" s="26"/>
+      <c r="BA86" s="26"/>
+      <c r="BB86" s="26"/>
+      <c r="BC86" s="26"/>
+      <c r="BD86" s="26"/>
+      <c r="BE86" s="26"/>
+    </row>
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="45" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="B87" s="29">
-        <v>1042.5999999999999</v>
-      </c>
-      <c r="C87" s="17"/>
+        <v>1306.26</v>
+      </c>
+      <c r="C87" s="17">
+        <v>30</v>
+      </c>
       <c r="D87" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="18"/>
-      <c r="BB87" s="14"/>
-      <c r="BC87" s="14"/>
-      <c r="BD87" s="14"/>
-      <c r="BE87" s="14"/>
-      <c r="BF87" s="14"/>
-      <c r="BG87" s="14"/>
-      <c r="BH87" s="14"/>
-      <c r="BI87" s="14"/>
-      <c r="BJ87" s="14"/>
-      <c r="BK87" s="14"/>
-      <c r="BL87" s="14"/>
-      <c r="BM87" s="14"/>
-      <c r="BN87" s="14"/>
-      <c r="BO87" s="14"/>
-      <c r="BP87" s="14"/>
-      <c r="BQ87" s="14"/>
-      <c r="BR87" s="14"/>
-      <c r="BS87" s="14"/>
-      <c r="BT87" s="14"/>
-      <c r="BU87" s="14"/>
-      <c r="BV87" s="14"/>
-      <c r="BW87" s="14"/>
-      <c r="BX87" s="14"/>
-      <c r="BY87" s="14"/>
-      <c r="BZ87" s="14"/>
-      <c r="CA87" s="14"/>
-      <c r="CB87" s="14"/>
-      <c r="CC87" s="14"/>
-      <c r="CD87" s="14"/>
-      <c r="CE87" s="14"/>
-      <c r="CF87" s="14"/>
-      <c r="CG87" s="14"/>
-      <c r="CH87" s="14"/>
-      <c r="CI87" s="14"/>
-      <c r="CJ87" s="14"/>
-      <c r="CK87" s="14"/>
-      <c r="CL87" s="14"/>
-      <c r="CM87" s="14"/>
-      <c r="CN87" s="14"/>
-      <c r="CO87" s="14"/>
-      <c r="CP87" s="14"/>
-      <c r="CQ87" s="14"/>
-      <c r="CR87" s="14"/>
-      <c r="CS87" s="14"/>
-      <c r="CT87" s="14"/>
-      <c r="CU87" s="14"/>
-      <c r="CV87" s="14"/>
-      <c r="CW87" s="14"/>
-      <c r="CX87" s="14"/>
-      <c r="CY87" s="14"/>
-      <c r="CZ87" s="14"/>
-      <c r="DA87" s="14"/>
-      <c r="DB87" s="14"/>
-      <c r="DC87" s="14"/>
-      <c r="DD87" s="14"/>
+        <f t="shared" si="3"/>
+        <v>39187.800000000003</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="27"/>
+      <c r="AH87" s="27"/>
+      <c r="AI87" s="27"/>
+      <c r="AJ87" s="27"/>
+      <c r="AK87" s="27"/>
+      <c r="AL87" s="27"/>
+      <c r="AM87" s="27"/>
+      <c r="AN87" s="27"/>
+      <c r="AO87" s="27"/>
+      <c r="AP87" s="27"/>
+      <c r="AQ87" s="27"/>
+      <c r="AR87" s="27"/>
+      <c r="AS87" s="27"/>
+      <c r="AT87" s="27"/>
+      <c r="AU87" s="27"/>
+      <c r="AV87" s="27"/>
+      <c r="AW87" s="27"/>
+      <c r="AX87" s="27"/>
+      <c r="AY87" s="27"/>
+      <c r="AZ87" s="27"/>
+      <c r="BA87" s="27"/>
+      <c r="BB87" s="27"/>
+      <c r="BC87" s="27"/>
+      <c r="BD87" s="27"/>
+      <c r="BE87" s="27"/>
+      <c r="BF87" s="27"/>
+      <c r="BG87" s="27"/>
+      <c r="BH87" s="27"/>
+      <c r="BI87" s="27"/>
+      <c r="BJ87" s="27"/>
+      <c r="BK87" s="27"/>
+      <c r="BL87" s="27"/>
+      <c r="BM87" s="27"/>
+      <c r="BN87" s="27"/>
+      <c r="BO87" s="27"/>
+      <c r="BP87" s="27"/>
+      <c r="BQ87" s="27"/>
+      <c r="BR87" s="27"/>
+      <c r="BS87" s="27"/>
+      <c r="BT87" s="27"/>
+      <c r="BU87" s="27"/>
+      <c r="BV87" s="27"/>
+      <c r="BW87" s="27"/>
+      <c r="BX87" s="27"/>
+      <c r="BY87" s="27"/>
+      <c r="BZ87" s="27"/>
+      <c r="CA87" s="27"/>
+      <c r="CB87" s="27"/>
+      <c r="CC87" s="27"/>
+      <c r="CD87" s="27"/>
+      <c r="CE87" s="27"/>
+      <c r="CF87" s="27"/>
+      <c r="CG87" s="27"/>
+      <c r="CH87" s="27"/>
+      <c r="CI87" s="27"/>
+      <c r="CJ87" s="27"/>
+      <c r="CK87" s="27"/>
+      <c r="CL87" s="27"/>
+      <c r="CM87" s="27"/>
+      <c r="CN87" s="27"/>
+      <c r="CO87" s="27"/>
+      <c r="CP87" s="27"/>
+      <c r="CQ87" s="27"/>
+      <c r="CR87" s="27"/>
+      <c r="CS87" s="27"/>
+      <c r="CT87" s="27"/>
+      <c r="CU87" s="27"/>
+      <c r="CV87" s="27"/>
+      <c r="CW87" s="27"/>
+      <c r="CX87" s="27"/>
+      <c r="CY87" s="27"/>
+      <c r="CZ87" s="27"/>
+      <c r="DA87" s="27"/>
+      <c r="DB87" s="27"/>
+      <c r="DC87" s="27"/>
+      <c r="DD87" s="27"/>
+      <c r="DE87" s="15"/>
+      <c r="DF87" s="15"/>
+      <c r="DG87" s="15"/>
+      <c r="DH87" s="15"/>
+      <c r="DI87" s="15"/>
+      <c r="DJ87" s="15"/>
+      <c r="DK87" s="15"/>
+      <c r="DL87" s="15"/>
+      <c r="DM87" s="15"/>
+      <c r="DN87" s="15"/>
+      <c r="DO87" s="15"/>
+      <c r="DP87" s="15"/>
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B88" s="29">
-        <v>1435.58</v>
+        <v>1042.5999999999999</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E88" s="18"/>
@@ -10516,150 +10583,88 @@
       <c r="DD88" s="14"/>
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="44" t="s">
-        <v>145</v>
+      <c r="A89" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="B89" s="29">
-        <v>5607.9849999999997</v>
+        <v>1435.58</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="27"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
-      <c r="AJ89" s="27"/>
-      <c r="AK89" s="27"/>
-      <c r="AL89" s="27"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="27"/>
-      <c r="AO89" s="27"/>
-      <c r="AP89" s="27"/>
-      <c r="AQ89" s="27"/>
-      <c r="AR89" s="27"/>
-      <c r="AS89" s="27"/>
-      <c r="AT89" s="27"/>
-      <c r="AU89" s="27"/>
-      <c r="AV89" s="27"/>
-      <c r="AW89" s="27"/>
-      <c r="AX89" s="27"/>
-      <c r="AY89" s="27"/>
-      <c r="AZ89" s="27"/>
-      <c r="BA89" s="27"/>
-      <c r="BB89" s="15"/>
-      <c r="BC89" s="15"/>
-      <c r="BD89" s="15"/>
-      <c r="BE89" s="15"/>
-      <c r="BF89" s="15"/>
-      <c r="BG89" s="15"/>
-      <c r="BH89" s="15"/>
-      <c r="BI89" s="15"/>
-      <c r="BJ89" s="15"/>
-      <c r="BK89" s="15"/>
-      <c r="BL89" s="15"/>
-      <c r="BM89" s="15"/>
-      <c r="BN89" s="15"/>
-      <c r="BO89" s="15"/>
-      <c r="BP89" s="15"/>
-      <c r="BQ89" s="15"/>
-      <c r="BR89" s="15"/>
-      <c r="BS89" s="15"/>
-      <c r="BT89" s="15"/>
-      <c r="BU89" s="15"/>
-      <c r="BV89" s="15"/>
-      <c r="BW89" s="15"/>
-      <c r="BX89" s="15"/>
-      <c r="BY89" s="15"/>
-      <c r="BZ89" s="15"/>
-      <c r="CA89" s="15"/>
-      <c r="CB89" s="15"/>
-      <c r="CC89" s="15"/>
-      <c r="CD89" s="15"/>
-      <c r="CE89" s="15"/>
-      <c r="CF89" s="15"/>
-      <c r="CG89" s="15"/>
-      <c r="CH89" s="15"/>
-      <c r="CI89" s="15"/>
-      <c r="CJ89" s="15"/>
-      <c r="CK89" s="15"/>
-      <c r="CL89" s="15"/>
-      <c r="CM89" s="15"/>
-      <c r="CN89" s="15"/>
-      <c r="CO89" s="15"/>
-      <c r="CP89" s="15"/>
-      <c r="CQ89" s="15"/>
-      <c r="CR89" s="15"/>
-      <c r="CS89" s="15"/>
-      <c r="CT89" s="15"/>
-      <c r="CU89" s="15"/>
-      <c r="CV89" s="15"/>
-      <c r="CW89" s="15"/>
-      <c r="CX89" s="15"/>
-      <c r="CY89" s="15"/>
-      <c r="CZ89" s="15"/>
-      <c r="DA89" s="15"/>
-      <c r="DB89" s="15"/>
-      <c r="DC89" s="15"/>
-      <c r="DD89" s="15"/>
-      <c r="DE89" s="15"/>
-      <c r="DF89" s="15"/>
-      <c r="DG89" s="15"/>
-      <c r="DH89" s="15"/>
-      <c r="DI89" s="15"/>
-      <c r="DJ89" s="15"/>
-      <c r="DK89" s="15"/>
-      <c r="DL89" s="15"/>
-      <c r="DM89" s="15"/>
-      <c r="DN89" s="15"/>
-      <c r="DO89" s="15"/>
-      <c r="DP89" s="15"/>
+      <c r="E89" s="18"/>
+      <c r="BB89" s="14"/>
+      <c r="BC89" s="14"/>
+      <c r="BD89" s="14"/>
+      <c r="BE89" s="14"/>
+      <c r="BF89" s="14"/>
+      <c r="BG89" s="14"/>
+      <c r="BH89" s="14"/>
+      <c r="BI89" s="14"/>
+      <c r="BJ89" s="14"/>
+      <c r="BK89" s="14"/>
+      <c r="BL89" s="14"/>
+      <c r="BM89" s="14"/>
+      <c r="BN89" s="14"/>
+      <c r="BO89" s="14"/>
+      <c r="BP89" s="14"/>
+      <c r="BQ89" s="14"/>
+      <c r="BR89" s="14"/>
+      <c r="BS89" s="14"/>
+      <c r="BT89" s="14"/>
+      <c r="BU89" s="14"/>
+      <c r="BV89" s="14"/>
+      <c r="BW89" s="14"/>
+      <c r="BX89" s="14"/>
+      <c r="BY89" s="14"/>
+      <c r="BZ89" s="14"/>
+      <c r="CA89" s="14"/>
+      <c r="CB89" s="14"/>
+      <c r="CC89" s="14"/>
+      <c r="CD89" s="14"/>
+      <c r="CE89" s="14"/>
+      <c r="CF89" s="14"/>
+      <c r="CG89" s="14"/>
+      <c r="CH89" s="14"/>
+      <c r="CI89" s="14"/>
+      <c r="CJ89" s="14"/>
+      <c r="CK89" s="14"/>
+      <c r="CL89" s="14"/>
+      <c r="CM89" s="14"/>
+      <c r="CN89" s="14"/>
+      <c r="CO89" s="14"/>
+      <c r="CP89" s="14"/>
+      <c r="CQ89" s="14"/>
+      <c r="CR89" s="14"/>
+      <c r="CS89" s="14"/>
+      <c r="CT89" s="14"/>
+      <c r="CU89" s="14"/>
+      <c r="CV89" s="14"/>
+      <c r="CW89" s="14"/>
+      <c r="CX89" s="14"/>
+      <c r="CY89" s="14"/>
+      <c r="CZ89" s="14"/>
+      <c r="DA89" s="14"/>
+      <c r="DB89" s="14"/>
+      <c r="DC89" s="14"/>
+      <c r="DD89" s="14"/>
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="45" t="s">
-        <v>54</v>
+      <c r="A90" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="B90" s="29">
-        <v>1054</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
@@ -10779,17 +10784,19 @@
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="45" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="B91" s="29">
-        <v>1072.68</v>
+        <v>1054</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="18"/>
+      <c r="E91" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
       <c r="H91" s="27"/>
@@ -10907,15 +10914,15 @@
       <c r="DP91" s="15"/>
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="44" t="s">
-        <v>57</v>
+      <c r="A92" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="B92" s="29">
-        <v>1106.76</v>
+        <v>1072.68</v>
       </c>
       <c r="C92" s="17"/>
       <c r="D92" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E92" s="18"/>
@@ -11036,15 +11043,15 @@
       <c r="DP92" s="15"/>
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A93" s="45" t="s">
-        <v>196</v>
+      <c r="A93" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="B93" s="29">
-        <v>1551.87</v>
+        <v>1106.76</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E93" s="18"/>
@@ -11164,80 +11171,145 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="45" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B94" s="29">
-        <v>1306.26</v>
+        <v>1551.87</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E94" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="26"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
-      <c r="U94" s="26"/>
-      <c r="V94" s="26"/>
-      <c r="W94" s="26"/>
-      <c r="X94" s="26"/>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="26"/>
-      <c r="AA94" s="26"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="26"/>
-      <c r="AD94" s="26"/>
-      <c r="AE94" s="26"/>
-      <c r="AF94" s="26"/>
-      <c r="AG94" s="26"/>
-      <c r="AH94" s="26"/>
-      <c r="AI94" s="26"/>
-      <c r="AJ94" s="26"/>
-      <c r="AK94" s="26"/>
-      <c r="AL94" s="26"/>
-      <c r="AM94" s="26"/>
-      <c r="AN94" s="26"/>
-      <c r="AO94" s="26"/>
-      <c r="AP94" s="26"/>
-      <c r="AQ94" s="26"/>
-      <c r="AR94" s="26"/>
-      <c r="AS94" s="26"/>
-      <c r="AT94" s="26"/>
-      <c r="AU94" s="26"/>
-      <c r="AV94" s="26"/>
-      <c r="AW94" s="26"/>
-      <c r="AX94" s="26"/>
-      <c r="AY94" s="26"/>
-      <c r="AZ94" s="26"/>
-      <c r="BA94" s="26"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
+      <c r="U94" s="27"/>
+      <c r="V94" s="27"/>
+      <c r="W94" s="27"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
+      <c r="AF94" s="27"/>
+      <c r="AG94" s="27"/>
+      <c r="AH94" s="27"/>
+      <c r="AI94" s="27"/>
+      <c r="AJ94" s="27"/>
+      <c r="AK94" s="27"/>
+      <c r="AL94" s="27"/>
+      <c r="AM94" s="27"/>
+      <c r="AN94" s="27"/>
+      <c r="AO94" s="27"/>
+      <c r="AP94" s="27"/>
+      <c r="AQ94" s="27"/>
+      <c r="AR94" s="27"/>
+      <c r="AS94" s="27"/>
+      <c r="AT94" s="27"/>
+      <c r="AU94" s="27"/>
+      <c r="AV94" s="27"/>
+      <c r="AW94" s="27"/>
+      <c r="AX94" s="27"/>
+      <c r="AY94" s="27"/>
+      <c r="AZ94" s="27"/>
+      <c r="BA94" s="27"/>
+      <c r="BB94" s="15"/>
+      <c r="BC94" s="15"/>
+      <c r="BD94" s="15"/>
+      <c r="BE94" s="15"/>
+      <c r="BF94" s="15"/>
+      <c r="BG94" s="15"/>
+      <c r="BH94" s="15"/>
+      <c r="BI94" s="15"/>
+      <c r="BJ94" s="15"/>
+      <c r="BK94" s="15"/>
+      <c r="BL94" s="15"/>
+      <c r="BM94" s="15"/>
+      <c r="BN94" s="15"/>
+      <c r="BO94" s="15"/>
+      <c r="BP94" s="15"/>
+      <c r="BQ94" s="15"/>
+      <c r="BR94" s="15"/>
+      <c r="BS94" s="15"/>
+      <c r="BT94" s="15"/>
+      <c r="BU94" s="15"/>
+      <c r="BV94" s="15"/>
+      <c r="BW94" s="15"/>
+      <c r="BX94" s="15"/>
+      <c r="BY94" s="15"/>
+      <c r="BZ94" s="15"/>
+      <c r="CA94" s="15"/>
+      <c r="CB94" s="15"/>
+      <c r="CC94" s="15"/>
+      <c r="CD94" s="15"/>
+      <c r="CE94" s="15"/>
+      <c r="CF94" s="15"/>
+      <c r="CG94" s="15"/>
+      <c r="CH94" s="15"/>
+      <c r="CI94" s="15"/>
+      <c r="CJ94" s="15"/>
+      <c r="CK94" s="15"/>
+      <c r="CL94" s="15"/>
+      <c r="CM94" s="15"/>
+      <c r="CN94" s="15"/>
+      <c r="CO94" s="15"/>
+      <c r="CP94" s="15"/>
+      <c r="CQ94" s="15"/>
+      <c r="CR94" s="15"/>
+      <c r="CS94" s="15"/>
+      <c r="CT94" s="15"/>
+      <c r="CU94" s="15"/>
+      <c r="CV94" s="15"/>
+      <c r="CW94" s="15"/>
+      <c r="CX94" s="15"/>
+      <c r="CY94" s="15"/>
+      <c r="CZ94" s="15"/>
+      <c r="DA94" s="15"/>
+      <c r="DB94" s="15"/>
+      <c r="DC94" s="15"/>
+      <c r="DD94" s="15"/>
+      <c r="DE94" s="15"/>
+      <c r="DF94" s="15"/>
+      <c r="DG94" s="15"/>
+      <c r="DH94" s="15"/>
+      <c r="DI94" s="15"/>
+      <c r="DJ94" s="15"/>
+      <c r="DK94" s="15"/>
+      <c r="DL94" s="15"/>
+      <c r="DM94" s="15"/>
+      <c r="DN94" s="15"/>
+      <c r="DO94" s="15"/>
+      <c r="DP94" s="15"/>
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="45" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="B95" s="29">
-        <v>1004.39</v>
+        <v>1306.26</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
@@ -11292,149 +11364,80 @@
       <c r="AZ95" s="26"/>
       <c r="BA95" s="26"/>
     </row>
-    <row r="96" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="45" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="B96" s="29">
-        <v>1364.45</v>
-      </c>
-      <c r="C96" s="17">
-        <v>40</v>
-      </c>
+        <v>1004.39</v>
+      </c>
+      <c r="C96" s="17"/>
       <c r="D96" s="18">
-        <f t="shared" si="2"/>
-        <v>54578</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27"/>
-      <c r="U96" s="27"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27"/>
-      <c r="AF96" s="27"/>
-      <c r="AG96" s="27"/>
-      <c r="AH96" s="27"/>
-      <c r="AI96" s="27"/>
-      <c r="AJ96" s="27"/>
-      <c r="AK96" s="27"/>
-      <c r="AL96" s="27"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="27"/>
-      <c r="AO96" s="27"/>
-      <c r="AP96" s="27"/>
-      <c r="AQ96" s="27"/>
-      <c r="AR96" s="27"/>
-      <c r="AS96" s="27"/>
-      <c r="AT96" s="27"/>
-      <c r="AU96" s="27"/>
-      <c r="AV96" s="27"/>
-      <c r="AW96" s="27"/>
-      <c r="AX96" s="27"/>
-      <c r="AY96" s="27"/>
-      <c r="AZ96" s="27"/>
-      <c r="BA96" s="27"/>
-      <c r="BB96" s="27"/>
-      <c r="BC96" s="27"/>
-      <c r="BD96" s="27"/>
-      <c r="BE96" s="27"/>
-      <c r="BF96" s="27"/>
-      <c r="BG96" s="27"/>
-      <c r="BH96" s="27"/>
-      <c r="BI96" s="27"/>
-      <c r="BJ96" s="27"/>
-      <c r="BK96" s="27"/>
-      <c r="BL96" s="27"/>
-      <c r="BM96" s="27"/>
-      <c r="BN96" s="27"/>
-      <c r="BO96" s="27"/>
-      <c r="BP96" s="27"/>
-      <c r="BQ96" s="27"/>
-      <c r="BR96" s="27"/>
-      <c r="BS96" s="27"/>
-      <c r="BT96" s="27"/>
-      <c r="BU96" s="27"/>
-      <c r="BV96" s="27"/>
-      <c r="BW96" s="27"/>
-      <c r="BX96" s="27"/>
-      <c r="BY96" s="27"/>
-      <c r="BZ96" s="27"/>
-      <c r="CA96" s="27"/>
-      <c r="CB96" s="27"/>
-      <c r="CC96" s="27"/>
-      <c r="CD96" s="27"/>
-      <c r="CE96" s="27"/>
-      <c r="CF96" s="27"/>
-      <c r="CG96" s="27"/>
-      <c r="CH96" s="27"/>
-      <c r="CI96" s="27"/>
-      <c r="CJ96" s="27"/>
-      <c r="CK96" s="27"/>
-      <c r="CL96" s="27"/>
-      <c r="CM96" s="27"/>
-      <c r="CN96" s="27"/>
-      <c r="CO96" s="27"/>
-      <c r="CP96" s="27"/>
-      <c r="CQ96" s="27"/>
-      <c r="CR96" s="27"/>
-      <c r="CS96" s="27"/>
-      <c r="CT96" s="27"/>
-      <c r="CU96" s="27"/>
-      <c r="CV96" s="27"/>
-      <c r="CW96" s="27"/>
-      <c r="CX96" s="27"/>
-      <c r="CY96" s="27"/>
-      <c r="CZ96" s="27"/>
-      <c r="DA96" s="27"/>
-      <c r="DB96" s="27"/>
-      <c r="DC96" s="27"/>
-      <c r="DD96" s="27"/>
-      <c r="DE96" s="15"/>
-      <c r="DF96" s="15"/>
-      <c r="DG96" s="15"/>
-      <c r="DH96" s="15"/>
-      <c r="DI96" s="15"/>
-      <c r="DJ96" s="15"/>
-      <c r="DK96" s="15"/>
-      <c r="DL96" s="15"/>
-      <c r="DM96" s="15"/>
-      <c r="DN96" s="15"/>
-      <c r="DO96" s="15"/>
-      <c r="DP96" s="15"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="26"/>
+      <c r="T96" s="26"/>
+      <c r="U96" s="26"/>
+      <c r="V96" s="26"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="26"/>
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="26"/>
+      <c r="AE96" s="26"/>
+      <c r="AF96" s="26"/>
+      <c r="AG96" s="26"/>
+      <c r="AH96" s="26"/>
+      <c r="AI96" s="26"/>
+      <c r="AJ96" s="26"/>
+      <c r="AK96" s="26"/>
+      <c r="AL96" s="26"/>
+      <c r="AM96" s="26"/>
+      <c r="AN96" s="26"/>
+      <c r="AO96" s="26"/>
+      <c r="AP96" s="26"/>
+      <c r="AQ96" s="26"/>
+      <c r="AR96" s="26"/>
+      <c r="AS96" s="26"/>
+      <c r="AT96" s="26"/>
+      <c r="AU96" s="26"/>
+      <c r="AV96" s="26"/>
+      <c r="AW96" s="26"/>
+      <c r="AX96" s="26"/>
+      <c r="AY96" s="26"/>
+      <c r="AZ96" s="26"/>
+      <c r="BA96" s="26"/>
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B97" s="29">
-        <v>1403.33</v>
+        <v>1364.45</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
@@ -11558,17 +11561,19 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="45" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="B98" s="29">
-        <v>1170.92</v>
+        <v>1403.33</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="18"/>
+      <c r="E98" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
       <c r="H98" s="27"/>
@@ -11617,61 +11622,61 @@
       <c r="AY98" s="27"/>
       <c r="AZ98" s="27"/>
       <c r="BA98" s="27"/>
-      <c r="BB98" s="15"/>
-      <c r="BC98" s="15"/>
-      <c r="BD98" s="15"/>
-      <c r="BE98" s="15"/>
-      <c r="BF98" s="15"/>
-      <c r="BG98" s="15"/>
-      <c r="BH98" s="15"/>
-      <c r="BI98" s="15"/>
-      <c r="BJ98" s="15"/>
-      <c r="BK98" s="15"/>
-      <c r="BL98" s="15"/>
-      <c r="BM98" s="15"/>
-      <c r="BN98" s="15"/>
-      <c r="BO98" s="15"/>
-      <c r="BP98" s="15"/>
-      <c r="BQ98" s="15"/>
-      <c r="BR98" s="15"/>
-      <c r="BS98" s="15"/>
-      <c r="BT98" s="15"/>
-      <c r="BU98" s="15"/>
-      <c r="BV98" s="15"/>
-      <c r="BW98" s="15"/>
-      <c r="BX98" s="15"/>
-      <c r="BY98" s="15"/>
-      <c r="BZ98" s="15"/>
-      <c r="CA98" s="15"/>
-      <c r="CB98" s="15"/>
-      <c r="CC98" s="15"/>
-      <c r="CD98" s="15"/>
-      <c r="CE98" s="15"/>
-      <c r="CF98" s="15"/>
-      <c r="CG98" s="15"/>
-      <c r="CH98" s="15"/>
-      <c r="CI98" s="15"/>
-      <c r="CJ98" s="15"/>
-      <c r="CK98" s="15"/>
-      <c r="CL98" s="15"/>
-      <c r="CM98" s="15"/>
-      <c r="CN98" s="15"/>
-      <c r="CO98" s="15"/>
-      <c r="CP98" s="15"/>
-      <c r="CQ98" s="15"/>
-      <c r="CR98" s="15"/>
-      <c r="CS98" s="15"/>
-      <c r="CT98" s="15"/>
-      <c r="CU98" s="15"/>
-      <c r="CV98" s="15"/>
-      <c r="CW98" s="15"/>
-      <c r="CX98" s="15"/>
-      <c r="CY98" s="15"/>
-      <c r="CZ98" s="15"/>
-      <c r="DA98" s="15"/>
-      <c r="DB98" s="15"/>
-      <c r="DC98" s="15"/>
-      <c r="DD98" s="15"/>
+      <c r="BB98" s="27"/>
+      <c r="BC98" s="27"/>
+      <c r="BD98" s="27"/>
+      <c r="BE98" s="27"/>
+      <c r="BF98" s="27"/>
+      <c r="BG98" s="27"/>
+      <c r="BH98" s="27"/>
+      <c r="BI98" s="27"/>
+      <c r="BJ98" s="27"/>
+      <c r="BK98" s="27"/>
+      <c r="BL98" s="27"/>
+      <c r="BM98" s="27"/>
+      <c r="BN98" s="27"/>
+      <c r="BO98" s="27"/>
+      <c r="BP98" s="27"/>
+      <c r="BQ98" s="27"/>
+      <c r="BR98" s="27"/>
+      <c r="BS98" s="27"/>
+      <c r="BT98" s="27"/>
+      <c r="BU98" s="27"/>
+      <c r="BV98" s="27"/>
+      <c r="BW98" s="27"/>
+      <c r="BX98" s="27"/>
+      <c r="BY98" s="27"/>
+      <c r="BZ98" s="27"/>
+      <c r="CA98" s="27"/>
+      <c r="CB98" s="27"/>
+      <c r="CC98" s="27"/>
+      <c r="CD98" s="27"/>
+      <c r="CE98" s="27"/>
+      <c r="CF98" s="27"/>
+      <c r="CG98" s="27"/>
+      <c r="CH98" s="27"/>
+      <c r="CI98" s="27"/>
+      <c r="CJ98" s="27"/>
+      <c r="CK98" s="27"/>
+      <c r="CL98" s="27"/>
+      <c r="CM98" s="27"/>
+      <c r="CN98" s="27"/>
+      <c r="CO98" s="27"/>
+      <c r="CP98" s="27"/>
+      <c r="CQ98" s="27"/>
+      <c r="CR98" s="27"/>
+      <c r="CS98" s="27"/>
+      <c r="CT98" s="27"/>
+      <c r="CU98" s="27"/>
+      <c r="CV98" s="27"/>
+      <c r="CW98" s="27"/>
+      <c r="CX98" s="27"/>
+      <c r="CY98" s="27"/>
+      <c r="CZ98" s="27"/>
+      <c r="DA98" s="27"/>
+      <c r="DB98" s="27"/>
+      <c r="DC98" s="27"/>
+      <c r="DD98" s="27"/>
       <c r="DE98" s="15"/>
       <c r="DF98" s="15"/>
       <c r="DG98" s="15"/>
@@ -11686,20 +11691,18 @@
       <c r="DP98" s="15"/>
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="44" t="s">
-        <v>177</v>
+      <c r="A99" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="B99" s="29">
-        <v>985.46</v>
+        <v>1170.92</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>210</v>
-      </c>
+      <c r="E99" s="18"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
       <c r="H99" s="27"/>
@@ -11816,135 +11819,147 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="44" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="B100" s="29">
-        <v>1178.94</v>
+        <v>985.46</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
-      <c r="T100" s="26"/>
-      <c r="U100" s="26"/>
-      <c r="V100" s="26"/>
-      <c r="W100" s="26"/>
-      <c r="X100" s="26"/>
-      <c r="Y100" s="26"/>
-      <c r="Z100" s="26"/>
-      <c r="AA100" s="26"/>
-      <c r="AB100" s="26"/>
-      <c r="AC100" s="26"/>
-      <c r="AD100" s="26"/>
-      <c r="AE100" s="26"/>
-      <c r="AF100" s="26"/>
-      <c r="AG100" s="26"/>
-      <c r="AH100" s="26"/>
-      <c r="AI100" s="26"/>
-      <c r="AJ100" s="26"/>
-      <c r="AK100" s="26"/>
-      <c r="AL100" s="26"/>
-      <c r="AM100" s="26"/>
-      <c r="AN100" s="26"/>
-      <c r="AO100" s="26"/>
-      <c r="AP100" s="26"/>
-      <c r="AQ100" s="26"/>
-      <c r="AR100" s="26"/>
-      <c r="AS100" s="26"/>
-      <c r="AT100" s="26"/>
-      <c r="AU100" s="26"/>
-      <c r="AV100" s="26"/>
-      <c r="AW100" s="26"/>
-      <c r="AX100" s="26"/>
-      <c r="AY100" s="26"/>
-      <c r="AZ100" s="26"/>
-      <c r="BA100" s="26"/>
-      <c r="BB100" s="26"/>
-      <c r="BC100" s="26"/>
-      <c r="BD100" s="26"/>
-      <c r="BE100" s="26"/>
-      <c r="BF100" s="26"/>
-      <c r="BG100" s="26"/>
-      <c r="BH100" s="26"/>
-      <c r="BI100" s="26"/>
-      <c r="BJ100" s="26"/>
-      <c r="BK100" s="26"/>
-      <c r="BL100" s="26"/>
-      <c r="BM100" s="26"/>
-      <c r="BN100" s="26"/>
-      <c r="BO100" s="26"/>
-      <c r="BP100" s="26"/>
-      <c r="BQ100" s="26"/>
-      <c r="BR100" s="26"/>
-      <c r="BS100" s="26"/>
-      <c r="BT100" s="26"/>
-      <c r="BU100" s="26"/>
-      <c r="BV100" s="26"/>
-      <c r="BW100" s="26"/>
-      <c r="BX100" s="26"/>
-      <c r="BY100" s="26"/>
-      <c r="BZ100" s="26"/>
-      <c r="CA100" s="26"/>
-      <c r="CB100" s="26"/>
-      <c r="CC100" s="26"/>
-      <c r="CD100" s="26"/>
-      <c r="CE100" s="26"/>
-      <c r="CF100" s="26"/>
-      <c r="CG100" s="26"/>
-      <c r="CH100" s="26"/>
-      <c r="CI100" s="26"/>
-      <c r="CJ100" s="26"/>
-      <c r="CK100" s="26"/>
-      <c r="CL100" s="26"/>
-      <c r="CM100" s="26"/>
-      <c r="CN100" s="26"/>
-      <c r="CO100" s="26"/>
-      <c r="CP100" s="26"/>
-      <c r="CQ100" s="26"/>
-      <c r="CR100" s="26"/>
-      <c r="CS100" s="26"/>
-      <c r="CT100" s="26"/>
-      <c r="CU100" s="26"/>
-      <c r="CV100" s="26"/>
-      <c r="CW100" s="26"/>
-      <c r="CX100" s="26"/>
-      <c r="CY100" s="26"/>
-      <c r="CZ100" s="26"/>
-      <c r="DA100" s="26"/>
-      <c r="DB100" s="26"/>
-      <c r="DC100" s="26"/>
-      <c r="DD100" s="26"/>
+        <v>210</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
+      <c r="V100" s="27"/>
+      <c r="W100" s="27"/>
+      <c r="X100" s="27"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+      <c r="AF100" s="27"/>
+      <c r="AG100" s="27"/>
+      <c r="AH100" s="27"/>
+      <c r="AI100" s="27"/>
+      <c r="AJ100" s="27"/>
+      <c r="AK100" s="27"/>
+      <c r="AL100" s="27"/>
+      <c r="AM100" s="27"/>
+      <c r="AN100" s="27"/>
+      <c r="AO100" s="27"/>
+      <c r="AP100" s="27"/>
+      <c r="AQ100" s="27"/>
+      <c r="AR100" s="27"/>
+      <c r="AS100" s="27"/>
+      <c r="AT100" s="27"/>
+      <c r="AU100" s="27"/>
+      <c r="AV100" s="27"/>
+      <c r="AW100" s="27"/>
+      <c r="AX100" s="27"/>
+      <c r="AY100" s="27"/>
+      <c r="AZ100" s="27"/>
+      <c r="BA100" s="27"/>
+      <c r="BB100" s="15"/>
+      <c r="BC100" s="15"/>
+      <c r="BD100" s="15"/>
+      <c r="BE100" s="15"/>
+      <c r="BF100" s="15"/>
+      <c r="BG100" s="15"/>
+      <c r="BH100" s="15"/>
+      <c r="BI100" s="15"/>
+      <c r="BJ100" s="15"/>
+      <c r="BK100" s="15"/>
+      <c r="BL100" s="15"/>
+      <c r="BM100" s="15"/>
+      <c r="BN100" s="15"/>
+      <c r="BO100" s="15"/>
+      <c r="BP100" s="15"/>
+      <c r="BQ100" s="15"/>
+      <c r="BR100" s="15"/>
+      <c r="BS100" s="15"/>
+      <c r="BT100" s="15"/>
+      <c r="BU100" s="15"/>
+      <c r="BV100" s="15"/>
+      <c r="BW100" s="15"/>
+      <c r="BX100" s="15"/>
+      <c r="BY100" s="15"/>
+      <c r="BZ100" s="15"/>
+      <c r="CA100" s="15"/>
+      <c r="CB100" s="15"/>
+      <c r="CC100" s="15"/>
+      <c r="CD100" s="15"/>
+      <c r="CE100" s="15"/>
+      <c r="CF100" s="15"/>
+      <c r="CG100" s="15"/>
+      <c r="CH100" s="15"/>
+      <c r="CI100" s="15"/>
+      <c r="CJ100" s="15"/>
+      <c r="CK100" s="15"/>
+      <c r="CL100" s="15"/>
+      <c r="CM100" s="15"/>
+      <c r="CN100" s="15"/>
+      <c r="CO100" s="15"/>
+      <c r="CP100" s="15"/>
+      <c r="CQ100" s="15"/>
+      <c r="CR100" s="15"/>
+      <c r="CS100" s="15"/>
+      <c r="CT100" s="15"/>
+      <c r="CU100" s="15"/>
+      <c r="CV100" s="15"/>
+      <c r="CW100" s="15"/>
+      <c r="CX100" s="15"/>
+      <c r="CY100" s="15"/>
+      <c r="CZ100" s="15"/>
+      <c r="DA100" s="15"/>
+      <c r="DB100" s="15"/>
+      <c r="DC100" s="15"/>
+      <c r="DD100" s="15"/>
+      <c r="DE100" s="15"/>
+      <c r="DF100" s="15"/>
+      <c r="DG100" s="15"/>
+      <c r="DH100" s="15"/>
+      <c r="DI100" s="15"/>
+      <c r="DJ100" s="15"/>
+      <c r="DK100" s="15"/>
+      <c r="DL100" s="15"/>
+      <c r="DM100" s="15"/>
+      <c r="DN100" s="15"/>
+      <c r="DO100" s="15"/>
+      <c r="DP100" s="15"/>
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="44" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="B101" s="29">
-        <v>1214.8900000000001</v>
+        <v>1178.94</v>
       </c>
       <c r="C101" s="17"/>
       <c r="D101" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
@@ -11998,17 +12013,72 @@
       <c r="AY101" s="26"/>
       <c r="AZ101" s="26"/>
       <c r="BA101" s="26"/>
+      <c r="BB101" s="26"/>
+      <c r="BC101" s="26"/>
+      <c r="BD101" s="26"/>
+      <c r="BE101" s="26"/>
+      <c r="BF101" s="26"/>
+      <c r="BG101" s="26"/>
+      <c r="BH101" s="26"/>
+      <c r="BI101" s="26"/>
+      <c r="BJ101" s="26"/>
+      <c r="BK101" s="26"/>
+      <c r="BL101" s="26"/>
+      <c r="BM101" s="26"/>
+      <c r="BN101" s="26"/>
+      <c r="BO101" s="26"/>
+      <c r="BP101" s="26"/>
+      <c r="BQ101" s="26"/>
+      <c r="BR101" s="26"/>
+      <c r="BS101" s="26"/>
+      <c r="BT101" s="26"/>
+      <c r="BU101" s="26"/>
+      <c r="BV101" s="26"/>
+      <c r="BW101" s="26"/>
+      <c r="BX101" s="26"/>
+      <c r="BY101" s="26"/>
+      <c r="BZ101" s="26"/>
+      <c r="CA101" s="26"/>
+      <c r="CB101" s="26"/>
+      <c r="CC101" s="26"/>
+      <c r="CD101" s="26"/>
+      <c r="CE101" s="26"/>
+      <c r="CF101" s="26"/>
+      <c r="CG101" s="26"/>
+      <c r="CH101" s="26"/>
+      <c r="CI101" s="26"/>
+      <c r="CJ101" s="26"/>
+      <c r="CK101" s="26"/>
+      <c r="CL101" s="26"/>
+      <c r="CM101" s="26"/>
+      <c r="CN101" s="26"/>
+      <c r="CO101" s="26"/>
+      <c r="CP101" s="26"/>
+      <c r="CQ101" s="26"/>
+      <c r="CR101" s="26"/>
+      <c r="CS101" s="26"/>
+      <c r="CT101" s="26"/>
+      <c r="CU101" s="26"/>
+      <c r="CV101" s="26"/>
+      <c r="CW101" s="26"/>
+      <c r="CX101" s="26"/>
+      <c r="CY101" s="26"/>
+      <c r="CZ101" s="26"/>
+      <c r="DA101" s="26"/>
+      <c r="DB101" s="26"/>
+      <c r="DC101" s="26"/>
+      <c r="DD101" s="26"/>
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B102" s="29">
-        <v>1188.82</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="C102" s="17"/>
       <c r="D102" s="18">
-        <f t="shared" ref="D102:D133" si="3">B102*C102</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
@@ -12062,75 +12132,22 @@
       <c r="AY102" s="26"/>
       <c r="AZ102" s="26"/>
       <c r="BA102" s="26"/>
-      <c r="BB102" s="26"/>
-      <c r="BC102" s="26"/>
-      <c r="BD102" s="26"/>
-      <c r="BE102" s="26"/>
-      <c r="BF102" s="26"/>
-      <c r="BG102" s="26"/>
-      <c r="BH102" s="26"/>
-      <c r="BI102" s="26"/>
-      <c r="BJ102" s="26"/>
-      <c r="BK102" s="26"/>
-      <c r="BL102" s="26"/>
-      <c r="BM102" s="26"/>
-      <c r="BN102" s="26"/>
-      <c r="BO102" s="26"/>
-      <c r="BP102" s="26"/>
-      <c r="BQ102" s="26"/>
-      <c r="BR102" s="26"/>
-      <c r="BS102" s="26"/>
-      <c r="BT102" s="26"/>
-      <c r="BU102" s="26"/>
-      <c r="BV102" s="26"/>
-      <c r="BW102" s="26"/>
-      <c r="BX102" s="26"/>
-      <c r="BY102" s="26"/>
-      <c r="BZ102" s="26"/>
-      <c r="CA102" s="26"/>
-      <c r="CB102" s="26"/>
-      <c r="CC102" s="26"/>
-      <c r="CD102" s="26"/>
-      <c r="CE102" s="26"/>
-      <c r="CF102" s="26"/>
-      <c r="CG102" s="26"/>
-      <c r="CH102" s="26"/>
-      <c r="CI102" s="26"/>
-      <c r="CJ102" s="26"/>
-      <c r="CK102" s="26"/>
-      <c r="CL102" s="26"/>
-      <c r="CM102" s="26"/>
-      <c r="CN102" s="26"/>
-      <c r="CO102" s="26"/>
-      <c r="CP102" s="26"/>
-      <c r="CQ102" s="26"/>
-      <c r="CR102" s="26"/>
-      <c r="CS102" s="26"/>
-      <c r="CT102" s="26"/>
-      <c r="CU102" s="26"/>
-      <c r="CV102" s="26"/>
-      <c r="CW102" s="26"/>
-      <c r="CX102" s="26"/>
-      <c r="CY102" s="26"/>
-      <c r="CZ102" s="26"/>
-      <c r="DA102" s="26"/>
-      <c r="DB102" s="26"/>
-      <c r="DC102" s="26"/>
-      <c r="DD102" s="26"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="45" t="s">
-        <v>184</v>
+      <c r="A103" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="B103" s="29">
-        <v>945.36</v>
+        <v>1188.82</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D103:D134" si="4">B103*C103</f>
         <v>0</v>
       </c>
-      <c r="E103" s="18"/>
+      <c r="E103" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
       <c r="H103" s="26"/>
@@ -12179,152 +12196,138 @@
       <c r="AY103" s="26"/>
       <c r="AZ103" s="26"/>
       <c r="BA103" s="26"/>
-    </row>
-    <row r="104" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="BB103" s="26"/>
+      <c r="BC103" s="26"/>
+      <c r="BD103" s="26"/>
+      <c r="BE103" s="26"/>
+      <c r="BF103" s="26"/>
+      <c r="BG103" s="26"/>
+      <c r="BH103" s="26"/>
+      <c r="BI103" s="26"/>
+      <c r="BJ103" s="26"/>
+      <c r="BK103" s="26"/>
+      <c r="BL103" s="26"/>
+      <c r="BM103" s="26"/>
+      <c r="BN103" s="26"/>
+      <c r="BO103" s="26"/>
+      <c r="BP103" s="26"/>
+      <c r="BQ103" s="26"/>
+      <c r="BR103" s="26"/>
+      <c r="BS103" s="26"/>
+      <c r="BT103" s="26"/>
+      <c r="BU103" s="26"/>
+      <c r="BV103" s="26"/>
+      <c r="BW103" s="26"/>
+      <c r="BX103" s="26"/>
+      <c r="BY103" s="26"/>
+      <c r="BZ103" s="26"/>
+      <c r="CA103" s="26"/>
+      <c r="CB103" s="26"/>
+      <c r="CC103" s="26"/>
+      <c r="CD103" s="26"/>
+      <c r="CE103" s="26"/>
+      <c r="CF103" s="26"/>
+      <c r="CG103" s="26"/>
+      <c r="CH103" s="26"/>
+      <c r="CI103" s="26"/>
+      <c r="CJ103" s="26"/>
+      <c r="CK103" s="26"/>
+      <c r="CL103" s="26"/>
+      <c r="CM103" s="26"/>
+      <c r="CN103" s="26"/>
+      <c r="CO103" s="26"/>
+      <c r="CP103" s="26"/>
+      <c r="CQ103" s="26"/>
+      <c r="CR103" s="26"/>
+      <c r="CS103" s="26"/>
+      <c r="CT103" s="26"/>
+      <c r="CU103" s="26"/>
+      <c r="CV103" s="26"/>
+      <c r="CW103" s="26"/>
+      <c r="CX103" s="26"/>
+      <c r="CY103" s="26"/>
+      <c r="CZ103" s="26"/>
+      <c r="DA103" s="26"/>
+      <c r="DB103" s="26"/>
+      <c r="DC103" s="26"/>
+      <c r="DD103" s="26"/>
+    </row>
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="45" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="B104" s="29">
-        <v>1072.68</v>
+        <v>945.36</v>
       </c>
       <c r="C104" s="17"/>
       <c r="D104" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="27"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="27"/>
-      <c r="R104" s="27"/>
-      <c r="S104" s="27"/>
-      <c r="T104" s="27"/>
-      <c r="U104" s="27"/>
-      <c r="V104" s="27"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="27"/>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="27"/>
-      <c r="AD104" s="27"/>
-      <c r="AE104" s="27"/>
-      <c r="AF104" s="27"/>
-      <c r="AG104" s="27"/>
-      <c r="AH104" s="27"/>
-      <c r="AI104" s="27"/>
-      <c r="AJ104" s="27"/>
-      <c r="AK104" s="27"/>
-      <c r="AL104" s="27"/>
-      <c r="AM104" s="27"/>
-      <c r="AN104" s="27"/>
-      <c r="AO104" s="27"/>
-      <c r="AP104" s="27"/>
-      <c r="AQ104" s="27"/>
-      <c r="AR104" s="27"/>
-      <c r="AS104" s="27"/>
-      <c r="AT104" s="27"/>
-      <c r="AU104" s="27"/>
-      <c r="AV104" s="27"/>
-      <c r="AW104" s="27"/>
-      <c r="AX104" s="27"/>
-      <c r="AY104" s="27"/>
-      <c r="AZ104" s="27"/>
-      <c r="BA104" s="27"/>
-      <c r="BB104" s="15"/>
-      <c r="BC104" s="15"/>
-      <c r="BD104" s="15"/>
-      <c r="BE104" s="15"/>
-      <c r="BF104" s="15"/>
-      <c r="BG104" s="15"/>
-      <c r="BH104" s="15"/>
-      <c r="BI104" s="15"/>
-      <c r="BJ104" s="15"/>
-      <c r="BK104" s="15"/>
-      <c r="BL104" s="15"/>
-      <c r="BM104" s="15"/>
-      <c r="BN104" s="15"/>
-      <c r="BO104" s="15"/>
-      <c r="BP104" s="15"/>
-      <c r="BQ104" s="15"/>
-      <c r="BR104" s="15"/>
-      <c r="BS104" s="15"/>
-      <c r="BT104" s="15"/>
-      <c r="BU104" s="15"/>
-      <c r="BV104" s="15"/>
-      <c r="BW104" s="15"/>
-      <c r="BX104" s="15"/>
-      <c r="BY104" s="15"/>
-      <c r="BZ104" s="15"/>
-      <c r="CA104" s="15"/>
-      <c r="CB104" s="15"/>
-      <c r="CC104" s="15"/>
-      <c r="CD104" s="15"/>
-      <c r="CE104" s="15"/>
-      <c r="CF104" s="15"/>
-      <c r="CG104" s="15"/>
-      <c r="CH104" s="15"/>
-      <c r="CI104" s="15"/>
-      <c r="CJ104" s="15"/>
-      <c r="CK104" s="15"/>
-      <c r="CL104" s="15"/>
-      <c r="CM104" s="15"/>
-      <c r="CN104" s="15"/>
-      <c r="CO104" s="15"/>
-      <c r="CP104" s="15"/>
-      <c r="CQ104" s="15"/>
-      <c r="CR104" s="15"/>
-      <c r="CS104" s="15"/>
-      <c r="CT104" s="15"/>
-      <c r="CU104" s="15"/>
-      <c r="CV104" s="15"/>
-      <c r="CW104" s="15"/>
-      <c r="CX104" s="15"/>
-      <c r="CY104" s="15"/>
-      <c r="CZ104" s="15"/>
-      <c r="DA104" s="15"/>
-      <c r="DB104" s="15"/>
-      <c r="DC104" s="15"/>
-      <c r="DD104" s="15"/>
-      <c r="DE104" s="15"/>
-      <c r="DF104" s="15"/>
-      <c r="DG104" s="15"/>
-      <c r="DH104" s="15"/>
-      <c r="DI104" s="15"/>
-      <c r="DJ104" s="15"/>
-      <c r="DK104" s="15"/>
-      <c r="DL104" s="15"/>
-      <c r="DM104" s="15"/>
-      <c r="DN104" s="15"/>
-      <c r="DO104" s="15"/>
-      <c r="DP104" s="15"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="26"/>
+      <c r="R104" s="26"/>
+      <c r="S104" s="26"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+      <c r="V104" s="26"/>
+      <c r="W104" s="26"/>
+      <c r="X104" s="26"/>
+      <c r="Y104" s="26"/>
+      <c r="Z104" s="26"/>
+      <c r="AA104" s="26"/>
+      <c r="AB104" s="26"/>
+      <c r="AC104" s="26"/>
+      <c r="AD104" s="26"/>
+      <c r="AE104" s="26"/>
+      <c r="AF104" s="26"/>
+      <c r="AG104" s="26"/>
+      <c r="AH104" s="26"/>
+      <c r="AI104" s="26"/>
+      <c r="AJ104" s="26"/>
+      <c r="AK104" s="26"/>
+      <c r="AL104" s="26"/>
+      <c r="AM104" s="26"/>
+      <c r="AN104" s="26"/>
+      <c r="AO104" s="26"/>
+      <c r="AP104" s="26"/>
+      <c r="AQ104" s="26"/>
+      <c r="AR104" s="26"/>
+      <c r="AS104" s="26"/>
+      <c r="AT104" s="26"/>
+      <c r="AU104" s="26"/>
+      <c r="AV104" s="26"/>
+      <c r="AW104" s="26"/>
+      <c r="AX104" s="26"/>
+      <c r="AY104" s="26"/>
+      <c r="AZ104" s="26"/>
+      <c r="BA104" s="26"/>
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="45" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="B105" s="29">
-        <v>1024.5550000000001</v>
+        <v>1072.68</v>
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -12444,17 +12447,19 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="45" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B106" s="29">
-        <v>1024.56</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E106" s="18"/>
+      <c r="E106" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
       <c r="H106" s="27"/>
@@ -12573,14 +12578,14 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="45" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B107" s="29">
-        <v>1101.75</v>
+        <v>1024.56</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E107" s="18"/>
@@ -12702,19 +12707,17 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="45" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B108" s="29">
-        <v>1297.24</v>
+        <v>1101.75</v>
       </c>
       <c r="C108" s="17"/>
       <c r="D108" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="E108" s="18"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
       <c r="H108" s="27"/>
@@ -12833,17 +12836,19 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="45" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B109" s="29">
         <v>1297.24</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E109" s="18"/>
+      <c r="E109" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
@@ -12962,88 +12967,148 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="45" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="B110" s="29">
-        <v>1150.8699999999999</v>
+        <v>1297.24</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB110" s="14"/>
-      <c r="BC110" s="14"/>
-      <c r="BD110" s="14"/>
-      <c r="BE110" s="14"/>
-      <c r="BF110" s="14"/>
-      <c r="BG110" s="14"/>
-      <c r="BH110" s="14"/>
-      <c r="BI110" s="14"/>
-      <c r="BJ110" s="14"/>
-      <c r="BK110" s="14"/>
-      <c r="BL110" s="14"/>
-      <c r="BM110" s="14"/>
-      <c r="BN110" s="14"/>
-      <c r="BO110" s="14"/>
-      <c r="BP110" s="14"/>
-      <c r="BQ110" s="14"/>
-      <c r="BR110" s="14"/>
-      <c r="BS110" s="14"/>
-      <c r="BT110" s="14"/>
-      <c r="BU110" s="14"/>
-      <c r="BV110" s="14"/>
-      <c r="BW110" s="14"/>
-      <c r="BX110" s="14"/>
-      <c r="BY110" s="14"/>
-      <c r="BZ110" s="14"/>
-      <c r="CA110" s="14"/>
-      <c r="CB110" s="14"/>
-      <c r="CC110" s="14"/>
-      <c r="CD110" s="14"/>
-      <c r="CE110" s="14"/>
-      <c r="CF110" s="14"/>
-      <c r="CG110" s="14"/>
-      <c r="CH110" s="14"/>
-      <c r="CI110" s="14"/>
-      <c r="CJ110" s="14"/>
-      <c r="CK110" s="14"/>
-      <c r="CL110" s="14"/>
-      <c r="CM110" s="14"/>
-      <c r="CN110" s="14"/>
-      <c r="CO110" s="14"/>
-      <c r="CP110" s="14"/>
-      <c r="CQ110" s="14"/>
-      <c r="CR110" s="14"/>
-      <c r="CS110" s="14"/>
-      <c r="CT110" s="14"/>
-      <c r="CU110" s="14"/>
-      <c r="CV110" s="14"/>
-      <c r="CW110" s="14"/>
-      <c r="CX110" s="14"/>
-      <c r="CY110" s="14"/>
-      <c r="CZ110" s="14"/>
-      <c r="DA110" s="14"/>
-      <c r="DB110" s="14"/>
-      <c r="DC110" s="14"/>
-      <c r="DD110" s="14"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="27"/>
+      <c r="AE110" s="27"/>
+      <c r="AF110" s="27"/>
+      <c r="AG110" s="27"/>
+      <c r="AH110" s="27"/>
+      <c r="AI110" s="27"/>
+      <c r="AJ110" s="27"/>
+      <c r="AK110" s="27"/>
+      <c r="AL110" s="27"/>
+      <c r="AM110" s="27"/>
+      <c r="AN110" s="27"/>
+      <c r="AO110" s="27"/>
+      <c r="AP110" s="27"/>
+      <c r="AQ110" s="27"/>
+      <c r="AR110" s="27"/>
+      <c r="AS110" s="27"/>
+      <c r="AT110" s="27"/>
+      <c r="AU110" s="27"/>
+      <c r="AV110" s="27"/>
+      <c r="AW110" s="27"/>
+      <c r="AX110" s="27"/>
+      <c r="AY110" s="27"/>
+      <c r="AZ110" s="27"/>
+      <c r="BA110" s="27"/>
+      <c r="BB110" s="15"/>
+      <c r="BC110" s="15"/>
+      <c r="BD110" s="15"/>
+      <c r="BE110" s="15"/>
+      <c r="BF110" s="15"/>
+      <c r="BG110" s="15"/>
+      <c r="BH110" s="15"/>
+      <c r="BI110" s="15"/>
+      <c r="BJ110" s="15"/>
+      <c r="BK110" s="15"/>
+      <c r="BL110" s="15"/>
+      <c r="BM110" s="15"/>
+      <c r="BN110" s="15"/>
+      <c r="BO110" s="15"/>
+      <c r="BP110" s="15"/>
+      <c r="BQ110" s="15"/>
+      <c r="BR110" s="15"/>
+      <c r="BS110" s="15"/>
+      <c r="BT110" s="15"/>
+      <c r="BU110" s="15"/>
+      <c r="BV110" s="15"/>
+      <c r="BW110" s="15"/>
+      <c r="BX110" s="15"/>
+      <c r="BY110" s="15"/>
+      <c r="BZ110" s="15"/>
+      <c r="CA110" s="15"/>
+      <c r="CB110" s="15"/>
+      <c r="CC110" s="15"/>
+      <c r="CD110" s="15"/>
+      <c r="CE110" s="15"/>
+      <c r="CF110" s="15"/>
+      <c r="CG110" s="15"/>
+      <c r="CH110" s="15"/>
+      <c r="CI110" s="15"/>
+      <c r="CJ110" s="15"/>
+      <c r="CK110" s="15"/>
+      <c r="CL110" s="15"/>
+      <c r="CM110" s="15"/>
+      <c r="CN110" s="15"/>
+      <c r="CO110" s="15"/>
+      <c r="CP110" s="15"/>
+      <c r="CQ110" s="15"/>
+      <c r="CR110" s="15"/>
+      <c r="CS110" s="15"/>
+      <c r="CT110" s="15"/>
+      <c r="CU110" s="15"/>
+      <c r="CV110" s="15"/>
+      <c r="CW110" s="15"/>
+      <c r="CX110" s="15"/>
+      <c r="CY110" s="15"/>
+      <c r="CZ110" s="15"/>
+      <c r="DA110" s="15"/>
+      <c r="DB110" s="15"/>
+      <c r="DC110" s="15"/>
+      <c r="DD110" s="15"/>
+      <c r="DE110" s="15"/>
+      <c r="DF110" s="15"/>
+      <c r="DG110" s="15"/>
+      <c r="DH110" s="15"/>
+      <c r="DI110" s="15"/>
+      <c r="DJ110" s="15"/>
+      <c r="DK110" s="15"/>
+      <c r="DL110" s="15"/>
+      <c r="DM110" s="15"/>
+      <c r="DN110" s="15"/>
+      <c r="DO110" s="15"/>
+      <c r="DP110" s="15"/>
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="44" t="s">
-        <v>142</v>
+      <c r="A111" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="B111" s="29">
-        <v>12215.46</v>
+        <v>1150.8699999999999</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E111" s="18"/>
+      <c r="E111" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
       <c r="BD111" s="14"/>
@@ -13102,14 +13167,14 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="44" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B112" s="29">
-        <v>1695.2280000000001</v>
+        <v>12215.46</v>
       </c>
       <c r="C112" s="17"/>
       <c r="D112" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E112" s="18"/>
@@ -13171,143 +13236,83 @@
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="44" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B113" s="29">
-        <v>11860.475</v>
+        <v>1695.2280000000001</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E113" s="18"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="27"/>
-      <c r="P113" s="27"/>
-      <c r="Q113" s="27"/>
-      <c r="R113" s="27"/>
-      <c r="S113" s="27"/>
-      <c r="T113" s="27"/>
-      <c r="U113" s="27"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
-      <c r="AD113" s="27"/>
-      <c r="AE113" s="27"/>
-      <c r="AF113" s="27"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="27"/>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="27"/>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="27"/>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
-      <c r="AS113" s="27"/>
-      <c r="AT113" s="27"/>
-      <c r="AU113" s="27"/>
-      <c r="AV113" s="27"/>
-      <c r="AW113" s="27"/>
-      <c r="AX113" s="27"/>
-      <c r="AY113" s="27"/>
-      <c r="AZ113" s="27"/>
-      <c r="BA113" s="27"/>
-      <c r="BB113" s="15"/>
-      <c r="BC113" s="15"/>
-      <c r="BD113" s="15"/>
-      <c r="BE113" s="15"/>
-      <c r="BF113" s="15"/>
-      <c r="BG113" s="15"/>
-      <c r="BH113" s="15"/>
-      <c r="BI113" s="15"/>
-      <c r="BJ113" s="15"/>
-      <c r="BK113" s="15"/>
-      <c r="BL113" s="15"/>
-      <c r="BM113" s="15"/>
-      <c r="BN113" s="15"/>
-      <c r="BO113" s="15"/>
-      <c r="BP113" s="15"/>
-      <c r="BQ113" s="15"/>
-      <c r="BR113" s="15"/>
-      <c r="BS113" s="15"/>
-      <c r="BT113" s="15"/>
-      <c r="BU113" s="15"/>
-      <c r="BV113" s="15"/>
-      <c r="BW113" s="15"/>
-      <c r="BX113" s="15"/>
-      <c r="BY113" s="15"/>
-      <c r="BZ113" s="15"/>
-      <c r="CA113" s="15"/>
-      <c r="CB113" s="15"/>
-      <c r="CC113" s="15"/>
-      <c r="CD113" s="15"/>
-      <c r="CE113" s="15"/>
-      <c r="CF113" s="15"/>
-      <c r="CG113" s="15"/>
-      <c r="CH113" s="15"/>
-      <c r="CI113" s="15"/>
-      <c r="CJ113" s="15"/>
-      <c r="CK113" s="15"/>
-      <c r="CL113" s="15"/>
-      <c r="CM113" s="15"/>
-      <c r="CN113" s="15"/>
-      <c r="CO113" s="15"/>
-      <c r="CP113" s="15"/>
-      <c r="CQ113" s="15"/>
-      <c r="CR113" s="15"/>
-      <c r="CS113" s="15"/>
-      <c r="CT113" s="15"/>
-      <c r="CU113" s="15"/>
-      <c r="CV113" s="15"/>
-      <c r="CW113" s="15"/>
-      <c r="CX113" s="15"/>
-      <c r="CY113" s="15"/>
-      <c r="CZ113" s="15"/>
-      <c r="DA113" s="15"/>
-      <c r="DB113" s="15"/>
-      <c r="DC113" s="15"/>
-      <c r="DD113" s="15"/>
-      <c r="DE113" s="15"/>
-      <c r="DF113" s="15"/>
-      <c r="DG113" s="15"/>
-      <c r="DH113" s="15"/>
-      <c r="DI113" s="15"/>
-      <c r="DJ113" s="15"/>
-      <c r="DK113" s="15"/>
-      <c r="DL113" s="15"/>
-      <c r="DM113" s="15"/>
-      <c r="DN113" s="15"/>
-      <c r="DO113" s="15"/>
-      <c r="DP113" s="15"/>
+      <c r="BB113" s="14"/>
+      <c r="BC113" s="14"/>
+      <c r="BD113" s="14"/>
+      <c r="BE113" s="14"/>
+      <c r="BF113" s="14"/>
+      <c r="BG113" s="14"/>
+      <c r="BH113" s="14"/>
+      <c r="BI113" s="14"/>
+      <c r="BJ113" s="14"/>
+      <c r="BK113" s="14"/>
+      <c r="BL113" s="14"/>
+      <c r="BM113" s="14"/>
+      <c r="BN113" s="14"/>
+      <c r="BO113" s="14"/>
+      <c r="BP113" s="14"/>
+      <c r="BQ113" s="14"/>
+      <c r="BR113" s="14"/>
+      <c r="BS113" s="14"/>
+      <c r="BT113" s="14"/>
+      <c r="BU113" s="14"/>
+      <c r="BV113" s="14"/>
+      <c r="BW113" s="14"/>
+      <c r="BX113" s="14"/>
+      <c r="BY113" s="14"/>
+      <c r="BZ113" s="14"/>
+      <c r="CA113" s="14"/>
+      <c r="CB113" s="14"/>
+      <c r="CC113" s="14"/>
+      <c r="CD113" s="14"/>
+      <c r="CE113" s="14"/>
+      <c r="CF113" s="14"/>
+      <c r="CG113" s="14"/>
+      <c r="CH113" s="14"/>
+      <c r="CI113" s="14"/>
+      <c r="CJ113" s="14"/>
+      <c r="CK113" s="14"/>
+      <c r="CL113" s="14"/>
+      <c r="CM113" s="14"/>
+      <c r="CN113" s="14"/>
+      <c r="CO113" s="14"/>
+      <c r="CP113" s="14"/>
+      <c r="CQ113" s="14"/>
+      <c r="CR113" s="14"/>
+      <c r="CS113" s="14"/>
+      <c r="CT113" s="14"/>
+      <c r="CU113" s="14"/>
+      <c r="CV113" s="14"/>
+      <c r="CW113" s="14"/>
+      <c r="CX113" s="14"/>
+      <c r="CY113" s="14"/>
+      <c r="CZ113" s="14"/>
+      <c r="DA113" s="14"/>
+      <c r="DB113" s="14"/>
+      <c r="DC113" s="14"/>
+      <c r="DD113" s="14"/>
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="44" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B114" s="29">
-        <v>10616.475</v>
+        <v>11860.475</v>
       </c>
       <c r="C114" s="17"/>
       <c r="D114" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E114" s="18"/>
@@ -13429,19 +13434,17 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="44" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B115" s="29">
-        <v>5607.32</v>
+        <v>10616.475</v>
       </c>
       <c r="C115" s="17"/>
       <c r="D115" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E115" s="18" t="s">
-        <v>232</v>
-      </c>
+      <c r="E115" s="18"/>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
       <c r="H115" s="27"/>
@@ -13560,17 +13563,19 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="44" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="B116" s="29">
-        <v>14021.94</v>
+        <v>5607.32</v>
       </c>
       <c r="C116" s="17"/>
       <c r="D116" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E116" s="18"/>
+      <c r="E116" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
       <c r="H116" s="27"/>
@@ -13689,19 +13694,17 @@
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="44" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B117" s="29">
-        <v>2788.96</v>
+        <v>14021.94</v>
       </c>
       <c r="C117" s="17"/>
       <c r="D117" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E117" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="E117" s="18"/>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
       <c r="H117" s="27"/>
@@ -13820,17 +13823,19 @@
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B118" s="29">
-        <v>10133.27</v>
+        <v>2788.96</v>
       </c>
       <c r="C118" s="17"/>
       <c r="D118" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E118" s="18"/>
+      <c r="E118" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
       <c r="H118" s="27"/>
@@ -13949,14 +13954,14 @@
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B119" s="29">
-        <v>17443.5</v>
+        <v>10133.27</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E119" s="18"/>
@@ -14078,19 +14083,17 @@
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="44" t="s">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="B120" s="29">
-        <v>1159.8900000000001</v>
+        <v>17443.5</v>
       </c>
       <c r="C120" s="17"/>
       <c r="D120" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E120" s="18" t="s">
-        <v>237</v>
-      </c>
+      <c r="E120" s="18"/>
       <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
@@ -14209,17 +14212,19 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="44" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B121" s="29">
-        <v>1072.675</v>
+        <v>1159.8900000000001</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E121" s="18"/>
+      <c r="E121" s="18" t="s">
+        <v>237</v>
+      </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
@@ -14337,15 +14342,15 @@
       <c r="DP121" s="15"/>
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="45" t="s">
-        <v>74</v>
+      <c r="A122" s="44" t="s">
+        <v>222</v>
       </c>
       <c r="B122" s="29">
-        <v>12691.65</v>
+        <v>1072.675</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E122" s="18"/>
@@ -14467,212 +14472,212 @@
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="45" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B123" s="29">
-        <v>5476.38</v>
+        <v>12691.65</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E123" s="18"/>
-      <c r="BB123" s="14"/>
-      <c r="BC123" s="14"/>
-      <c r="BD123" s="14"/>
-      <c r="BE123" s="14"/>
-      <c r="BF123" s="14"/>
-      <c r="BG123" s="14"/>
-      <c r="BH123" s="14"/>
-      <c r="BI123" s="14"/>
-      <c r="BJ123" s="14"/>
-      <c r="BK123" s="14"/>
-      <c r="BL123" s="14"/>
-      <c r="BM123" s="14"/>
-      <c r="BN123" s="14"/>
-      <c r="BO123" s="14"/>
-      <c r="BP123" s="14"/>
-      <c r="BQ123" s="14"/>
-      <c r="BR123" s="14"/>
-      <c r="BS123" s="14"/>
-      <c r="BT123" s="14"/>
-      <c r="BU123" s="14"/>
-      <c r="BV123" s="14"/>
-      <c r="BW123" s="14"/>
-      <c r="BX123" s="14"/>
-      <c r="BY123" s="14"/>
-      <c r="BZ123" s="14"/>
-      <c r="CA123" s="14"/>
-      <c r="CB123" s="14"/>
-      <c r="CC123" s="14"/>
-      <c r="CD123" s="14"/>
-      <c r="CE123" s="14"/>
-      <c r="CF123" s="14"/>
-      <c r="CG123" s="14"/>
-      <c r="CH123" s="14"/>
-      <c r="CI123" s="14"/>
-      <c r="CJ123" s="14"/>
-      <c r="CK123" s="14"/>
-      <c r="CL123" s="14"/>
-      <c r="CM123" s="14"/>
-      <c r="CN123" s="14"/>
-      <c r="CO123" s="14"/>
-      <c r="CP123" s="14"/>
-      <c r="CQ123" s="14"/>
-      <c r="CR123" s="14"/>
-      <c r="CS123" s="14"/>
-      <c r="CT123" s="14"/>
-      <c r="CU123" s="14"/>
-      <c r="CV123" s="14"/>
-      <c r="CW123" s="14"/>
-      <c r="CX123" s="14"/>
-      <c r="CY123" s="14"/>
-      <c r="CZ123" s="14"/>
-      <c r="DA123" s="14"/>
-      <c r="DB123" s="14"/>
-      <c r="DC123" s="14"/>
-      <c r="DD123" s="14"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
+      <c r="S123" s="27"/>
+      <c r="T123" s="27"/>
+      <c r="U123" s="27"/>
+      <c r="V123" s="27"/>
+      <c r="W123" s="27"/>
+      <c r="X123" s="27"/>
+      <c r="Y123" s="27"/>
+      <c r="Z123" s="27"/>
+      <c r="AA123" s="27"/>
+      <c r="AB123" s="27"/>
+      <c r="AC123" s="27"/>
+      <c r="AD123" s="27"/>
+      <c r="AE123" s="27"/>
+      <c r="AF123" s="27"/>
+      <c r="AG123" s="27"/>
+      <c r="AH123" s="27"/>
+      <c r="AI123" s="27"/>
+      <c r="AJ123" s="27"/>
+      <c r="AK123" s="27"/>
+      <c r="AL123" s="27"/>
+      <c r="AM123" s="27"/>
+      <c r="AN123" s="27"/>
+      <c r="AO123" s="27"/>
+      <c r="AP123" s="27"/>
+      <c r="AQ123" s="27"/>
+      <c r="AR123" s="27"/>
+      <c r="AS123" s="27"/>
+      <c r="AT123" s="27"/>
+      <c r="AU123" s="27"/>
+      <c r="AV123" s="27"/>
+      <c r="AW123" s="27"/>
+      <c r="AX123" s="27"/>
+      <c r="AY123" s="27"/>
+      <c r="AZ123" s="27"/>
+      <c r="BA123" s="27"/>
+      <c r="BB123" s="15"/>
+      <c r="BC123" s="15"/>
+      <c r="BD123" s="15"/>
+      <c r="BE123" s="15"/>
+      <c r="BF123" s="15"/>
+      <c r="BG123" s="15"/>
+      <c r="BH123" s="15"/>
+      <c r="BI123" s="15"/>
+      <c r="BJ123" s="15"/>
+      <c r="BK123" s="15"/>
+      <c r="BL123" s="15"/>
+      <c r="BM123" s="15"/>
+      <c r="BN123" s="15"/>
+      <c r="BO123" s="15"/>
+      <c r="BP123" s="15"/>
+      <c r="BQ123" s="15"/>
+      <c r="BR123" s="15"/>
+      <c r="BS123" s="15"/>
+      <c r="BT123" s="15"/>
+      <c r="BU123" s="15"/>
+      <c r="BV123" s="15"/>
+      <c r="BW123" s="15"/>
+      <c r="BX123" s="15"/>
+      <c r="BY123" s="15"/>
+      <c r="BZ123" s="15"/>
+      <c r="CA123" s="15"/>
+      <c r="CB123" s="15"/>
+      <c r="CC123" s="15"/>
+      <c r="CD123" s="15"/>
+      <c r="CE123" s="15"/>
+      <c r="CF123" s="15"/>
+      <c r="CG123" s="15"/>
+      <c r="CH123" s="15"/>
+      <c r="CI123" s="15"/>
+      <c r="CJ123" s="15"/>
+      <c r="CK123" s="15"/>
+      <c r="CL123" s="15"/>
+      <c r="CM123" s="15"/>
+      <c r="CN123" s="15"/>
+      <c r="CO123" s="15"/>
+      <c r="CP123" s="15"/>
+      <c r="CQ123" s="15"/>
+      <c r="CR123" s="15"/>
+      <c r="CS123" s="15"/>
+      <c r="CT123" s="15"/>
+      <c r="CU123" s="15"/>
+      <c r="CV123" s="15"/>
+      <c r="CW123" s="15"/>
+      <c r="CX123" s="15"/>
+      <c r="CY123" s="15"/>
+      <c r="CZ123" s="15"/>
+      <c r="DA123" s="15"/>
+      <c r="DB123" s="15"/>
+      <c r="DC123" s="15"/>
+      <c r="DD123" s="15"/>
+      <c r="DE123" s="15"/>
+      <c r="DF123" s="15"/>
+      <c r="DG123" s="15"/>
+      <c r="DH123" s="15"/>
+      <c r="DI123" s="15"/>
+      <c r="DJ123" s="15"/>
+      <c r="DK123" s="15"/>
+      <c r="DL123" s="15"/>
+      <c r="DM123" s="15"/>
+      <c r="DN123" s="15"/>
+      <c r="DO123" s="15"/>
+      <c r="DP123" s="15"/>
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="45" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B124" s="29">
-        <v>7586.92</v>
+        <v>5476.38</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E124" s="18"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
-      <c r="K124" s="27"/>
-      <c r="L124" s="27"/>
-      <c r="M124" s="27"/>
-      <c r="N124" s="27"/>
-      <c r="O124" s="27"/>
-      <c r="P124" s="27"/>
-      <c r="Q124" s="27"/>
-      <c r="R124" s="27"/>
-      <c r="S124" s="27"/>
-      <c r="T124" s="27"/>
-      <c r="U124" s="27"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="27"/>
-      <c r="AC124" s="27"/>
-      <c r="AD124" s="27"/>
-      <c r="AE124" s="27"/>
-      <c r="AF124" s="27"/>
-      <c r="AG124" s="27"/>
-      <c r="AH124" s="27"/>
-      <c r="AI124" s="27"/>
-      <c r="AJ124" s="27"/>
-      <c r="AK124" s="27"/>
-      <c r="AL124" s="27"/>
-      <c r="AM124" s="27"/>
-      <c r="AN124" s="27"/>
-      <c r="AO124" s="27"/>
-      <c r="AP124" s="27"/>
-      <c r="AQ124" s="27"/>
-      <c r="AR124" s="27"/>
-      <c r="AS124" s="27"/>
-      <c r="AT124" s="27"/>
-      <c r="AU124" s="27"/>
-      <c r="AV124" s="27"/>
-      <c r="AW124" s="27"/>
-      <c r="AX124" s="27"/>
-      <c r="AY124" s="27"/>
-      <c r="AZ124" s="27"/>
-      <c r="BA124" s="27"/>
-      <c r="BB124" s="15"/>
-      <c r="BC124" s="15"/>
-      <c r="BD124" s="15"/>
-      <c r="BE124" s="15"/>
-      <c r="BF124" s="15"/>
-      <c r="BG124" s="15"/>
-      <c r="BH124" s="15"/>
-      <c r="BI124" s="15"/>
-      <c r="BJ124" s="15"/>
-      <c r="BK124" s="15"/>
-      <c r="BL124" s="15"/>
-      <c r="BM124" s="15"/>
-      <c r="BN124" s="15"/>
-      <c r="BO124" s="15"/>
-      <c r="BP124" s="15"/>
-      <c r="BQ124" s="15"/>
-      <c r="BR124" s="15"/>
-      <c r="BS124" s="15"/>
-      <c r="BT124" s="15"/>
-      <c r="BU124" s="15"/>
-      <c r="BV124" s="15"/>
-      <c r="BW124" s="15"/>
-      <c r="BX124" s="15"/>
-      <c r="BY124" s="15"/>
-      <c r="BZ124" s="15"/>
-      <c r="CA124" s="15"/>
-      <c r="CB124" s="15"/>
-      <c r="CC124" s="15"/>
-      <c r="CD124" s="15"/>
-      <c r="CE124" s="15"/>
-      <c r="CF124" s="15"/>
-      <c r="CG124" s="15"/>
-      <c r="CH124" s="15"/>
-      <c r="CI124" s="15"/>
-      <c r="CJ124" s="15"/>
-      <c r="CK124" s="15"/>
-      <c r="CL124" s="15"/>
-      <c r="CM124" s="15"/>
-      <c r="CN124" s="15"/>
-      <c r="CO124" s="15"/>
-      <c r="CP124" s="15"/>
-      <c r="CQ124" s="15"/>
-      <c r="CR124" s="15"/>
-      <c r="CS124" s="15"/>
-      <c r="CT124" s="15"/>
-      <c r="CU124" s="15"/>
-      <c r="CV124" s="15"/>
-      <c r="CW124" s="15"/>
-      <c r="CX124" s="15"/>
-      <c r="CY124" s="15"/>
-      <c r="CZ124" s="15"/>
-      <c r="DA124" s="15"/>
-      <c r="DB124" s="15"/>
-      <c r="DC124" s="15"/>
-      <c r="DD124" s="15"/>
-      <c r="DE124" s="15"/>
-      <c r="DF124" s="15"/>
-      <c r="DG124" s="15"/>
-      <c r="DH124" s="15"/>
-      <c r="DI124" s="15"/>
-      <c r="DJ124" s="15"/>
-      <c r="DK124" s="15"/>
-      <c r="DL124" s="15"/>
-      <c r="DM124" s="15"/>
-      <c r="DN124" s="15"/>
-      <c r="DO124" s="15"/>
-      <c r="DP124" s="15"/>
+      <c r="BB124" s="14"/>
+      <c r="BC124" s="14"/>
+      <c r="BD124" s="14"/>
+      <c r="BE124" s="14"/>
+      <c r="BF124" s="14"/>
+      <c r="BG124" s="14"/>
+      <c r="BH124" s="14"/>
+      <c r="BI124" s="14"/>
+      <c r="BJ124" s="14"/>
+      <c r="BK124" s="14"/>
+      <c r="BL124" s="14"/>
+      <c r="BM124" s="14"/>
+      <c r="BN124" s="14"/>
+      <c r="BO124" s="14"/>
+      <c r="BP124" s="14"/>
+      <c r="BQ124" s="14"/>
+      <c r="BR124" s="14"/>
+      <c r="BS124" s="14"/>
+      <c r="BT124" s="14"/>
+      <c r="BU124" s="14"/>
+      <c r="BV124" s="14"/>
+      <c r="BW124" s="14"/>
+      <c r="BX124" s="14"/>
+      <c r="BY124" s="14"/>
+      <c r="BZ124" s="14"/>
+      <c r="CA124" s="14"/>
+      <c r="CB124" s="14"/>
+      <c r="CC124" s="14"/>
+      <c r="CD124" s="14"/>
+      <c r="CE124" s="14"/>
+      <c r="CF124" s="14"/>
+      <c r="CG124" s="14"/>
+      <c r="CH124" s="14"/>
+      <c r="CI124" s="14"/>
+      <c r="CJ124" s="14"/>
+      <c r="CK124" s="14"/>
+      <c r="CL124" s="14"/>
+      <c r="CM124" s="14"/>
+      <c r="CN124" s="14"/>
+      <c r="CO124" s="14"/>
+      <c r="CP124" s="14"/>
+      <c r="CQ124" s="14"/>
+      <c r="CR124" s="14"/>
+      <c r="CS124" s="14"/>
+      <c r="CT124" s="14"/>
+      <c r="CU124" s="14"/>
+      <c r="CV124" s="14"/>
+      <c r="CW124" s="14"/>
+      <c r="CX124" s="14"/>
+      <c r="CY124" s="14"/>
+      <c r="CZ124" s="14"/>
+      <c r="DA124" s="14"/>
+      <c r="DB124" s="14"/>
+      <c r="DC124" s="14"/>
+      <c r="DD124" s="14"/>
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="45" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B125" s="29">
-        <v>7679.15</v>
+        <v>7586.92</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E125" s="18"/>
@@ -14793,20 +14798,18 @@
       <c r="DP125" s="15"/>
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="44" t="s">
-        <v>181</v>
+      <c r="A126" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="B126" s="29">
-        <v>1219.04</v>
+        <v>7679.15</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>242</v>
-      </c>
+      <c r="E126" s="18"/>
       <c r="F126" s="27"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
@@ -14925,18 +14928,18 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="44" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B127" s="29">
-        <v>1336.33</v>
+        <v>1219.04</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
@@ -15056,17 +15059,19 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="44" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="B128" s="29">
-        <v>1188.97</v>
+        <v>1336.33</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E128" s="18"/>
+      <c r="E128" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
@@ -15185,14 +15190,14 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="44" t="s">
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="B129" s="29">
-        <v>1336.33</v>
+        <v>1188.97</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E129" s="18"/>
@@ -15314,14 +15319,14 @@
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="44" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B130" s="29">
-        <v>8641.5499999999993</v>
+        <v>1336.33</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E130" s="18"/>
@@ -15443,19 +15448,17 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="44" t="s">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="B131" s="29">
-        <v>1208.01</v>
+        <v>8641.5499999999993</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E131" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="E131" s="18"/>
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
       <c r="H131" s="27"/>
@@ -15574,18 +15577,18 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="44" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="B132" s="29">
-        <v>3520.36</v>
+        <v>1208.01</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
@@ -15705,18 +15708,18 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" s="29">
-        <v>3793.1</v>
+        <v>3520.36</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
@@ -15836,18 +15839,18 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="44" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B134" s="29">
-        <v>4174.41</v>
+        <v>3793.1</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" s="18">
-        <f t="shared" ref="D134:D165" si="4">B134*C134</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
@@ -15967,15 +15970,18 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="44" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B135" s="29">
         <v>4174.41</v>
       </c>
       <c r="C135" s="17"/>
       <c r="D135" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D135:D166" si="5">B135*C135</f>
         <v>0</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
@@ -16095,17 +16101,16 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="44" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B136" s="29">
-        <v>5510.74</v>
+        <v>4174.41</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E136" s="18"/>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
@@ -16224,14 +16229,14 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="44" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B137" s="29">
-        <v>4896.21</v>
+        <v>5510.74</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E137" s="18"/>
@@ -16351,83 +16356,150 @@
       <c r="DO137" s="15"/>
       <c r="DP137" s="15"/>
     </row>
-    <row r="138" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="45" t="s">
-        <v>211</v>
+    <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A138" s="44" t="s">
+        <v>159</v>
       </c>
       <c r="B138" s="29">
-        <v>4076.68</v>
+        <v>4896.21</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E138" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="26"/>
-      <c r="M138" s="26"/>
-      <c r="N138" s="26"/>
-      <c r="O138" s="26"/>
-      <c r="P138" s="26"/>
-      <c r="Q138" s="26"/>
-      <c r="R138" s="26"/>
-      <c r="S138" s="26"/>
-      <c r="T138" s="26"/>
-      <c r="U138" s="26"/>
-      <c r="V138" s="26"/>
-      <c r="W138" s="26"/>
-      <c r="X138" s="26"/>
-      <c r="Y138" s="26"/>
-      <c r="Z138" s="26"/>
-      <c r="AA138" s="26"/>
-      <c r="AB138" s="26"/>
-      <c r="AC138" s="26"/>
-      <c r="AD138" s="26"/>
-      <c r="AE138" s="26"/>
-      <c r="AF138" s="26"/>
-      <c r="AG138" s="26"/>
-      <c r="AH138" s="26"/>
-      <c r="AI138" s="26"/>
-      <c r="AJ138" s="26"/>
-      <c r="AK138" s="26"/>
-      <c r="AL138" s="26"/>
-      <c r="AM138" s="26"/>
-      <c r="AN138" s="26"/>
-      <c r="AO138" s="26"/>
-      <c r="AP138" s="26"/>
-      <c r="AQ138" s="26"/>
-      <c r="AR138" s="26"/>
-      <c r="AS138" s="26"/>
-      <c r="AT138" s="26"/>
-      <c r="AU138" s="26"/>
-      <c r="AV138" s="26"/>
-      <c r="AW138" s="26"/>
-      <c r="AX138" s="26"/>
-      <c r="AY138" s="26"/>
-      <c r="AZ138" s="26"/>
-      <c r="BA138" s="26"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="27"/>
+      <c r="Q138" s="27"/>
+      <c r="R138" s="27"/>
+      <c r="S138" s="27"/>
+      <c r="T138" s="27"/>
+      <c r="U138" s="27"/>
+      <c r="V138" s="27"/>
+      <c r="W138" s="27"/>
+      <c r="X138" s="27"/>
+      <c r="Y138" s="27"/>
+      <c r="Z138" s="27"/>
+      <c r="AA138" s="27"/>
+      <c r="AB138" s="27"/>
+      <c r="AC138" s="27"/>
+      <c r="AD138" s="27"/>
+      <c r="AE138" s="27"/>
+      <c r="AF138" s="27"/>
+      <c r="AG138" s="27"/>
+      <c r="AH138" s="27"/>
+      <c r="AI138" s="27"/>
+      <c r="AJ138" s="27"/>
+      <c r="AK138" s="27"/>
+      <c r="AL138" s="27"/>
+      <c r="AM138" s="27"/>
+      <c r="AN138" s="27"/>
+      <c r="AO138" s="27"/>
+      <c r="AP138" s="27"/>
+      <c r="AQ138" s="27"/>
+      <c r="AR138" s="27"/>
+      <c r="AS138" s="27"/>
+      <c r="AT138" s="27"/>
+      <c r="AU138" s="27"/>
+      <c r="AV138" s="27"/>
+      <c r="AW138" s="27"/>
+      <c r="AX138" s="27"/>
+      <c r="AY138" s="27"/>
+      <c r="AZ138" s="27"/>
+      <c r="BA138" s="27"/>
+      <c r="BB138" s="15"/>
+      <c r="BC138" s="15"/>
+      <c r="BD138" s="15"/>
+      <c r="BE138" s="15"/>
+      <c r="BF138" s="15"/>
+      <c r="BG138" s="15"/>
+      <c r="BH138" s="15"/>
+      <c r="BI138" s="15"/>
+      <c r="BJ138" s="15"/>
+      <c r="BK138" s="15"/>
+      <c r="BL138" s="15"/>
+      <c r="BM138" s="15"/>
+      <c r="BN138" s="15"/>
+      <c r="BO138" s="15"/>
+      <c r="BP138" s="15"/>
+      <c r="BQ138" s="15"/>
+      <c r="BR138" s="15"/>
+      <c r="BS138" s="15"/>
+      <c r="BT138" s="15"/>
+      <c r="BU138" s="15"/>
+      <c r="BV138" s="15"/>
+      <c r="BW138" s="15"/>
+      <c r="BX138" s="15"/>
+      <c r="BY138" s="15"/>
+      <c r="BZ138" s="15"/>
+      <c r="CA138" s="15"/>
+      <c r="CB138" s="15"/>
+      <c r="CC138" s="15"/>
+      <c r="CD138" s="15"/>
+      <c r="CE138" s="15"/>
+      <c r="CF138" s="15"/>
+      <c r="CG138" s="15"/>
+      <c r="CH138" s="15"/>
+      <c r="CI138" s="15"/>
+      <c r="CJ138" s="15"/>
+      <c r="CK138" s="15"/>
+      <c r="CL138" s="15"/>
+      <c r="CM138" s="15"/>
+      <c r="CN138" s="15"/>
+      <c r="CO138" s="15"/>
+      <c r="CP138" s="15"/>
+      <c r="CQ138" s="15"/>
+      <c r="CR138" s="15"/>
+      <c r="CS138" s="15"/>
+      <c r="CT138" s="15"/>
+      <c r="CU138" s="15"/>
+      <c r="CV138" s="15"/>
+      <c r="CW138" s="15"/>
+      <c r="CX138" s="15"/>
+      <c r="CY138" s="15"/>
+      <c r="CZ138" s="15"/>
+      <c r="DA138" s="15"/>
+      <c r="DB138" s="15"/>
+      <c r="DC138" s="15"/>
+      <c r="DD138" s="15"/>
+      <c r="DE138" s="15"/>
+      <c r="DF138" s="15"/>
+      <c r="DG138" s="15"/>
+      <c r="DH138" s="15"/>
+      <c r="DI138" s="15"/>
+      <c r="DJ138" s="15"/>
+      <c r="DK138" s="15"/>
+      <c r="DL138" s="15"/>
+      <c r="DM138" s="15"/>
+      <c r="DN138" s="15"/>
+      <c r="DO138" s="15"/>
+      <c r="DP138" s="15"/>
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="44" t="s">
-        <v>192</v>
+      <c r="A139" s="45" t="s">
+        <v>211</v>
       </c>
       <c r="B139" s="29">
-        <v>5150.8500000000004</v>
+        <v>4076.68</v>
       </c>
       <c r="C139" s="17"/>
       <c r="D139" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E139" s="35"/>
+      <c r="E139" s="34" t="s">
+        <v>203</v>
+      </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
       <c r="H139" s="26"/>
@@ -16479,17 +16551,17 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="44" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B140" s="29">
-        <v>4973.3999999999996</v>
+        <v>5150.8500000000004</v>
       </c>
       <c r="C140" s="17"/>
       <c r="D140" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E140" s="18"/>
+      <c r="E140" s="35"/>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
       <c r="H140" s="26"/>
@@ -16541,14 +16613,14 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B141" s="29">
-        <v>5423.53</v>
+        <v>4973.3999999999996</v>
       </c>
       <c r="C141" s="17"/>
       <c r="D141" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E141" s="18"/>
@@ -16603,14 +16675,14 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B142" s="29">
-        <v>5940.82</v>
+        <v>5423.53</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E142" s="18"/>
@@ -16664,20 +16736,18 @@
       <c r="BA142" s="26"/>
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="45" t="s">
-        <v>122</v>
+      <c r="A143" s="44" t="s">
+        <v>179</v>
       </c>
       <c r="B143" s="29">
-        <v>4438.07</v>
+        <v>5940.82</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E143" s="18" t="s">
-        <v>203</v>
-      </c>
+      <c r="E143" s="18"/>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
       <c r="H143" s="26"/>
@@ -16729,17 +16799,19 @@
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="45" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B144" s="29">
-        <v>3558.64</v>
+        <v>4438.07</v>
       </c>
       <c r="C144" s="17"/>
       <c r="D144" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E144" s="18"/>
+      <c r="E144" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F144" s="26"/>
       <c r="G144" s="26"/>
       <c r="H144" s="26"/>
@@ -16789,147 +16861,78 @@
       <c r="AZ144" s="26"/>
       <c r="BA144" s="26"/>
     </row>
-    <row r="145" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B145" s="32">
-        <v>3257.12</v>
+    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A145" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="29">
+        <v>3558.64</v>
       </c>
       <c r="C145" s="17"/>
       <c r="D145" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E145" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
-      <c r="K145" s="27"/>
-      <c r="L145" s="27"/>
-      <c r="M145" s="27"/>
-      <c r="N145" s="27"/>
-      <c r="O145" s="27"/>
-      <c r="P145" s="27"/>
-      <c r="Q145" s="27"/>
-      <c r="R145" s="27"/>
-      <c r="S145" s="27"/>
-      <c r="T145" s="27"/>
-      <c r="U145" s="27"/>
-      <c r="V145" s="27"/>
-      <c r="W145" s="27"/>
-      <c r="X145" s="27"/>
-      <c r="Y145" s="27"/>
-      <c r="Z145" s="27"/>
-      <c r="AA145" s="27"/>
-      <c r="AB145" s="27"/>
-      <c r="AC145" s="27"/>
-      <c r="AD145" s="27"/>
-      <c r="AE145" s="27"/>
-      <c r="AF145" s="27"/>
-      <c r="AG145" s="27"/>
-      <c r="AH145" s="27"/>
-      <c r="AI145" s="27"/>
-      <c r="AJ145" s="27"/>
-      <c r="AK145" s="27"/>
-      <c r="AL145" s="27"/>
-      <c r="AM145" s="27"/>
-      <c r="AN145" s="27"/>
-      <c r="AO145" s="27"/>
-      <c r="AP145" s="27"/>
-      <c r="AQ145" s="27"/>
-      <c r="AR145" s="27"/>
-      <c r="AS145" s="27"/>
-      <c r="AT145" s="27"/>
-      <c r="AU145" s="27"/>
-      <c r="AV145" s="27"/>
-      <c r="AW145" s="27"/>
-      <c r="AX145" s="27"/>
-      <c r="AY145" s="27"/>
-      <c r="AZ145" s="27"/>
-      <c r="BA145" s="27"/>
-      <c r="BB145" s="15"/>
-      <c r="BC145" s="15"/>
-      <c r="BD145" s="15"/>
-      <c r="BE145" s="15"/>
-      <c r="BF145" s="15"/>
-      <c r="BG145" s="15"/>
-      <c r="BH145" s="15"/>
-      <c r="BI145" s="15"/>
-      <c r="BJ145" s="15"/>
-      <c r="BK145" s="15"/>
-      <c r="BL145" s="15"/>
-      <c r="BM145" s="15"/>
-      <c r="BN145" s="15"/>
-      <c r="BO145" s="15"/>
-      <c r="BP145" s="15"/>
-      <c r="BQ145" s="15"/>
-      <c r="BR145" s="15"/>
-      <c r="BS145" s="15"/>
-      <c r="BT145" s="15"/>
-      <c r="BU145" s="15"/>
-      <c r="BV145" s="15"/>
-      <c r="BW145" s="15"/>
-      <c r="BX145" s="15"/>
-      <c r="BY145" s="15"/>
-      <c r="BZ145" s="15"/>
-      <c r="CA145" s="15"/>
-      <c r="CB145" s="15"/>
-      <c r="CC145" s="15"/>
-      <c r="CD145" s="15"/>
-      <c r="CE145" s="15"/>
-      <c r="CF145" s="15"/>
-      <c r="CG145" s="15"/>
-      <c r="CH145" s="15"/>
-      <c r="CI145" s="15"/>
-      <c r="CJ145" s="15"/>
-      <c r="CK145" s="15"/>
-      <c r="CL145" s="15"/>
-      <c r="CM145" s="15"/>
-      <c r="CN145" s="15"/>
-      <c r="CO145" s="15"/>
-      <c r="CP145" s="15"/>
-      <c r="CQ145" s="15"/>
-      <c r="CR145" s="15"/>
-      <c r="CS145" s="15"/>
-      <c r="CT145" s="15"/>
-      <c r="CU145" s="15"/>
-      <c r="CV145" s="15"/>
-      <c r="CW145" s="15"/>
-      <c r="CX145" s="15"/>
-      <c r="CY145" s="15"/>
-      <c r="CZ145" s="15"/>
-      <c r="DA145" s="15"/>
-      <c r="DB145" s="15"/>
-      <c r="DC145" s="15"/>
-      <c r="DD145" s="15"/>
-      <c r="DE145" s="15"/>
-      <c r="DF145" s="15"/>
-      <c r="DG145" s="15"/>
-      <c r="DH145" s="15"/>
-      <c r="DI145" s="15"/>
-      <c r="DJ145" s="15"/>
-      <c r="DK145" s="15"/>
-      <c r="DL145" s="15"/>
-      <c r="DM145" s="15"/>
-      <c r="DN145" s="15"/>
-      <c r="DO145" s="15"/>
-      <c r="DP145" s="15"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="26"/>
+      <c r="T145" s="26"/>
+      <c r="U145" s="26"/>
+      <c r="V145" s="26"/>
+      <c r="W145" s="26"/>
+      <c r="X145" s="26"/>
+      <c r="Y145" s="26"/>
+      <c r="Z145" s="26"/>
+      <c r="AA145" s="26"/>
+      <c r="AB145" s="26"/>
+      <c r="AC145" s="26"/>
+      <c r="AD145" s="26"/>
+      <c r="AE145" s="26"/>
+      <c r="AF145" s="26"/>
+      <c r="AG145" s="26"/>
+      <c r="AH145" s="26"/>
+      <c r="AI145" s="26"/>
+      <c r="AJ145" s="26"/>
+      <c r="AK145" s="26"/>
+      <c r="AL145" s="26"/>
+      <c r="AM145" s="26"/>
+      <c r="AN145" s="26"/>
+      <c r="AO145" s="26"/>
+      <c r="AP145" s="26"/>
+      <c r="AQ145" s="26"/>
+      <c r="AR145" s="26"/>
+      <c r="AS145" s="26"/>
+      <c r="AT145" s="26"/>
+      <c r="AU145" s="26"/>
+      <c r="AV145" s="26"/>
+      <c r="AW145" s="26"/>
+      <c r="AX145" s="26"/>
+      <c r="AY145" s="26"/>
+      <c r="AZ145" s="26"/>
+      <c r="BA145" s="26"/>
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B146" s="29">
-        <v>4389.43</v>
+      <c r="A146" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B146" s="32">
+        <v>3257.12</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
@@ -17053,17 +17056,19 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="45" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B147" s="29">
-        <v>4389.95</v>
-      </c>
-      <c r="C147" s="19"/>
+        <v>4389.43</v>
+      </c>
+      <c r="C147" s="17"/>
       <c r="D147" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E147" s="18"/>
+      <c r="E147" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
@@ -17182,19 +17187,17 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="45" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B148" s="29">
-        <v>5257.11</v>
-      </c>
-      <c r="C148" s="17"/>
+        <v>4389.95</v>
+      </c>
+      <c r="C148" s="19"/>
       <c r="D148" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E148" s="34" t="s">
-        <v>221</v>
-      </c>
+      <c r="E148" s="18"/>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
@@ -17313,17 +17316,19 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B149" s="32">
-        <v>3934.81</v>
+        <v>128</v>
+      </c>
+      <c r="B149" s="29">
+        <v>5257.11</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E149" s="18"/>
+      <c r="E149" s="34" t="s">
+        <v>221</v>
+      </c>
       <c r="F149" s="27"/>
       <c r="G149" s="27"/>
       <c r="H149" s="27"/>
@@ -17442,19 +17447,17 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="45" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B150" s="32">
-        <v>4027.04</v>
+        <v>3934.81</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E150" s="18" t="s">
-        <v>232</v>
-      </c>
+      <c r="E150" s="18"/>
       <c r="F150" s="27"/>
       <c r="G150" s="27"/>
       <c r="H150" s="27"/>
@@ -17573,18 +17576,18 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="45" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="B151" s="32">
-        <v>3891.71</v>
+        <v>4027.04</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
@@ -17704,17 +17707,19 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B152" s="29">
-        <v>4507.24</v>
+        <v>140</v>
+      </c>
+      <c r="B152" s="32">
+        <v>3891.71</v>
       </c>
       <c r="C152" s="17"/>
       <c r="D152" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E152" s="18"/>
+      <c r="E152" s="18" t="s">
+        <v>203</v>
+      </c>
       <c r="F152" s="27"/>
       <c r="G152" s="27"/>
       <c r="H152" s="27"/>
@@ -17833,14 +17838,14 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="45" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B153" s="29">
-        <v>4409</v>
+        <v>4507.24</v>
       </c>
       <c r="C153" s="17"/>
       <c r="D153" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E153" s="18"/>
@@ -17962,19 +17967,17 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="45" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B154" s="29">
-        <v>4165.3900000000003</v>
+        <v>4409</v>
       </c>
       <c r="C154" s="17"/>
       <c r="D154" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E154" s="35" t="s">
-        <v>203</v>
-      </c>
+      <c r="E154" s="18"/>
       <c r="F154" s="27"/>
       <c r="G154" s="27"/>
       <c r="H154" s="27"/>
@@ -18093,17 +18096,17 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="45" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="B155" s="29">
-        <v>3617.59</v>
+        <v>4165.3900000000003</v>
       </c>
       <c r="C155" s="17"/>
       <c r="D155" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="35" t="s">
         <v>203</v>
       </c>
       <c r="F155" s="27"/>
@@ -18223,153 +18226,220 @@
       <c r="DP155" s="15"/>
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A156" s="44" t="s">
-        <v>256</v>
+      <c r="A156" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="B156" s="29">
-        <v>3548.43</v>
+        <v>3617.59</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="BB156" s="14"/>
-      <c r="BC156" s="14"/>
-      <c r="BD156" s="14"/>
-      <c r="BE156" s="14"/>
-      <c r="BF156" s="14"/>
-      <c r="BG156" s="14"/>
-      <c r="BH156" s="14"/>
-      <c r="BI156" s="14"/>
-      <c r="BJ156" s="14"/>
-      <c r="BK156" s="14"/>
-      <c r="BL156" s="14"/>
-      <c r="BM156" s="14"/>
-      <c r="BN156" s="14"/>
-      <c r="BO156" s="14"/>
-      <c r="BP156" s="14"/>
-      <c r="BQ156" s="14"/>
-      <c r="BR156" s="14"/>
-      <c r="BS156" s="14"/>
-      <c r="BT156" s="14"/>
-      <c r="BU156" s="14"/>
-      <c r="BV156" s="14"/>
-      <c r="BW156" s="14"/>
-      <c r="BX156" s="14"/>
-      <c r="BY156" s="14"/>
-      <c r="BZ156" s="14"/>
-      <c r="CA156" s="14"/>
-      <c r="CB156" s="14"/>
-      <c r="CC156" s="14"/>
-      <c r="CD156" s="14"/>
-      <c r="CE156" s="14"/>
-      <c r="CF156" s="14"/>
-      <c r="CG156" s="14"/>
-      <c r="CH156" s="14"/>
-      <c r="CI156" s="14"/>
-      <c r="CJ156" s="14"/>
-      <c r="CK156" s="14"/>
-      <c r="CL156" s="14"/>
-      <c r="CM156" s="14"/>
-      <c r="CN156" s="14"/>
-      <c r="CO156" s="14"/>
-      <c r="CP156" s="14"/>
-      <c r="CQ156" s="14"/>
-      <c r="CR156" s="14"/>
-      <c r="CS156" s="14"/>
-      <c r="CT156" s="14"/>
-      <c r="CU156" s="14"/>
-      <c r="CV156" s="14"/>
-      <c r="CW156" s="14"/>
-      <c r="CX156" s="14"/>
-      <c r="CY156" s="14"/>
-      <c r="CZ156" s="14"/>
-      <c r="DA156" s="14"/>
-      <c r="DB156" s="14"/>
-      <c r="DC156" s="14"/>
-      <c r="DD156" s="14"/>
-    </row>
-    <row r="157" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+        <v>203</v>
+      </c>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="27"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="27"/>
+      <c r="P156" s="27"/>
+      <c r="Q156" s="27"/>
+      <c r="R156" s="27"/>
+      <c r="S156" s="27"/>
+      <c r="T156" s="27"/>
+      <c r="U156" s="27"/>
+      <c r="V156" s="27"/>
+      <c r="W156" s="27"/>
+      <c r="X156" s="27"/>
+      <c r="Y156" s="27"/>
+      <c r="Z156" s="27"/>
+      <c r="AA156" s="27"/>
+      <c r="AB156" s="27"/>
+      <c r="AC156" s="27"/>
+      <c r="AD156" s="27"/>
+      <c r="AE156" s="27"/>
+      <c r="AF156" s="27"/>
+      <c r="AG156" s="27"/>
+      <c r="AH156" s="27"/>
+      <c r="AI156" s="27"/>
+      <c r="AJ156" s="27"/>
+      <c r="AK156" s="27"/>
+      <c r="AL156" s="27"/>
+      <c r="AM156" s="27"/>
+      <c r="AN156" s="27"/>
+      <c r="AO156" s="27"/>
+      <c r="AP156" s="27"/>
+      <c r="AQ156" s="27"/>
+      <c r="AR156" s="27"/>
+      <c r="AS156" s="27"/>
+      <c r="AT156" s="27"/>
+      <c r="AU156" s="27"/>
+      <c r="AV156" s="27"/>
+      <c r="AW156" s="27"/>
+      <c r="AX156" s="27"/>
+      <c r="AY156" s="27"/>
+      <c r="AZ156" s="27"/>
+      <c r="BA156" s="27"/>
+      <c r="BB156" s="15"/>
+      <c r="BC156" s="15"/>
+      <c r="BD156" s="15"/>
+      <c r="BE156" s="15"/>
+      <c r="BF156" s="15"/>
+      <c r="BG156" s="15"/>
+      <c r="BH156" s="15"/>
+      <c r="BI156" s="15"/>
+      <c r="BJ156" s="15"/>
+      <c r="BK156" s="15"/>
+      <c r="BL156" s="15"/>
+      <c r="BM156" s="15"/>
+      <c r="BN156" s="15"/>
+      <c r="BO156" s="15"/>
+      <c r="BP156" s="15"/>
+      <c r="BQ156" s="15"/>
+      <c r="BR156" s="15"/>
+      <c r="BS156" s="15"/>
+      <c r="BT156" s="15"/>
+      <c r="BU156" s="15"/>
+      <c r="BV156" s="15"/>
+      <c r="BW156" s="15"/>
+      <c r="BX156" s="15"/>
+      <c r="BY156" s="15"/>
+      <c r="BZ156" s="15"/>
+      <c r="CA156" s="15"/>
+      <c r="CB156" s="15"/>
+      <c r="CC156" s="15"/>
+      <c r="CD156" s="15"/>
+      <c r="CE156" s="15"/>
+      <c r="CF156" s="15"/>
+      <c r="CG156" s="15"/>
+      <c r="CH156" s="15"/>
+      <c r="CI156" s="15"/>
+      <c r="CJ156" s="15"/>
+      <c r="CK156" s="15"/>
+      <c r="CL156" s="15"/>
+      <c r="CM156" s="15"/>
+      <c r="CN156" s="15"/>
+      <c r="CO156" s="15"/>
+      <c r="CP156" s="15"/>
+      <c r="CQ156" s="15"/>
+      <c r="CR156" s="15"/>
+      <c r="CS156" s="15"/>
+      <c r="CT156" s="15"/>
+      <c r="CU156" s="15"/>
+      <c r="CV156" s="15"/>
+      <c r="CW156" s="15"/>
+      <c r="CX156" s="15"/>
+      <c r="CY156" s="15"/>
+      <c r="CZ156" s="15"/>
+      <c r="DA156" s="15"/>
+      <c r="DB156" s="15"/>
+      <c r="DC156" s="15"/>
+      <c r="DD156" s="15"/>
+      <c r="DE156" s="15"/>
+      <c r="DF156" s="15"/>
+      <c r="DG156" s="15"/>
+      <c r="DH156" s="15"/>
+      <c r="DI156" s="15"/>
+      <c r="DJ156" s="15"/>
+      <c r="DK156" s="15"/>
+      <c r="DL156" s="15"/>
+      <c r="DM156" s="15"/>
+      <c r="DN156" s="15"/>
+      <c r="DO156" s="15"/>
+      <c r="DP156" s="15"/>
+    </row>
+    <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="44" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="B157" s="29">
-        <v>4849.09</v>
+        <v>3548.43</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E157" s="18"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="26"/>
-      <c r="M157" s="26"/>
-      <c r="N157" s="26"/>
-      <c r="O157" s="26"/>
-      <c r="P157" s="26"/>
-      <c r="Q157" s="26"/>
-      <c r="R157" s="26"/>
-      <c r="S157" s="26"/>
-      <c r="T157" s="26"/>
-      <c r="U157" s="26"/>
-      <c r="V157" s="26"/>
-      <c r="W157" s="26"/>
-      <c r="X157" s="26"/>
-      <c r="Y157" s="26"/>
-      <c r="Z157" s="26"/>
-      <c r="AA157" s="26"/>
-      <c r="AB157" s="26"/>
-      <c r="AC157" s="26"/>
-      <c r="AD157" s="26"/>
-      <c r="AE157" s="26"/>
-      <c r="AF157" s="26"/>
-      <c r="AG157" s="26"/>
-      <c r="AH157" s="26"/>
-      <c r="AI157" s="26"/>
-      <c r="AJ157" s="26"/>
-      <c r="AK157" s="26"/>
-      <c r="AL157" s="26"/>
-      <c r="AM157" s="26"/>
-      <c r="AN157" s="26"/>
-      <c r="AO157" s="26"/>
-      <c r="AP157" s="26"/>
-      <c r="AQ157" s="26"/>
-      <c r="AR157" s="26"/>
-      <c r="AS157" s="26"/>
-      <c r="AT157" s="26"/>
-      <c r="AU157" s="26"/>
-      <c r="AV157" s="26"/>
-      <c r="AW157" s="26"/>
-      <c r="AX157" s="26"/>
-      <c r="AY157" s="26"/>
-      <c r="AZ157" s="26"/>
-      <c r="BA157" s="26"/>
-    </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="E157" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="BB157" s="14"/>
+      <c r="BC157" s="14"/>
+      <c r="BD157" s="14"/>
+      <c r="BE157" s="14"/>
+      <c r="BF157" s="14"/>
+      <c r="BG157" s="14"/>
+      <c r="BH157" s="14"/>
+      <c r="BI157" s="14"/>
+      <c r="BJ157" s="14"/>
+      <c r="BK157" s="14"/>
+      <c r="BL157" s="14"/>
+      <c r="BM157" s="14"/>
+      <c r="BN157" s="14"/>
+      <c r="BO157" s="14"/>
+      <c r="BP157" s="14"/>
+      <c r="BQ157" s="14"/>
+      <c r="BR157" s="14"/>
+      <c r="BS157" s="14"/>
+      <c r="BT157" s="14"/>
+      <c r="BU157" s="14"/>
+      <c r="BV157" s="14"/>
+      <c r="BW157" s="14"/>
+      <c r="BX157" s="14"/>
+      <c r="BY157" s="14"/>
+      <c r="BZ157" s="14"/>
+      <c r="CA157" s="14"/>
+      <c r="CB157" s="14"/>
+      <c r="CC157" s="14"/>
+      <c r="CD157" s="14"/>
+      <c r="CE157" s="14"/>
+      <c r="CF157" s="14"/>
+      <c r="CG157" s="14"/>
+      <c r="CH157" s="14"/>
+      <c r="CI157" s="14"/>
+      <c r="CJ157" s="14"/>
+      <c r="CK157" s="14"/>
+      <c r="CL157" s="14"/>
+      <c r="CM157" s="14"/>
+      <c r="CN157" s="14"/>
+      <c r="CO157" s="14"/>
+      <c r="CP157" s="14"/>
+      <c r="CQ157" s="14"/>
+      <c r="CR157" s="14"/>
+      <c r="CS157" s="14"/>
+      <c r="CT157" s="14"/>
+      <c r="CU157" s="14"/>
+      <c r="CV157" s="14"/>
+      <c r="CW157" s="14"/>
+      <c r="CX157" s="14"/>
+      <c r="CY157" s="14"/>
+      <c r="CZ157" s="14"/>
+      <c r="DA157" s="14"/>
+      <c r="DB157" s="14"/>
+      <c r="DC157" s="14"/>
+      <c r="DD157" s="14"/>
+    </row>
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="44" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="B158" s="29">
-        <v>7165.87</v>
+        <v>4849.09</v>
       </c>
       <c r="C158" s="17"/>
       <c r="D158" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E158" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="E158" s="18"/>
       <c r="F158" s="26"/>
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
@@ -18419,150 +18489,83 @@
       <c r="AZ158" s="26"/>
       <c r="BA158" s="26"/>
     </row>
-    <row r="159" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="44" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="B159" s="29">
-        <v>7691.27</v>
+        <v>7165.87</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E159" s="18"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="27"/>
-      <c r="Q159" s="27"/>
-      <c r="R159" s="27"/>
-      <c r="S159" s="27"/>
-      <c r="T159" s="27"/>
-      <c r="U159" s="27"/>
-      <c r="V159" s="27"/>
-      <c r="W159" s="27"/>
-      <c r="X159" s="27"/>
-      <c r="Y159" s="27"/>
-      <c r="Z159" s="27"/>
-      <c r="AA159" s="27"/>
-      <c r="AB159" s="27"/>
-      <c r="AC159" s="27"/>
-      <c r="AD159" s="27"/>
-      <c r="AE159" s="27"/>
-      <c r="AF159" s="27"/>
-      <c r="AG159" s="27"/>
-      <c r="AH159" s="27"/>
-      <c r="AI159" s="27"/>
-      <c r="AJ159" s="27"/>
-      <c r="AK159" s="27"/>
-      <c r="AL159" s="27"/>
-      <c r="AM159" s="27"/>
-      <c r="AN159" s="27"/>
-      <c r="AO159" s="27"/>
-      <c r="AP159" s="27"/>
-      <c r="AQ159" s="27"/>
-      <c r="AR159" s="27"/>
-      <c r="AS159" s="27"/>
-      <c r="AT159" s="27"/>
-      <c r="AU159" s="27"/>
-      <c r="AV159" s="27"/>
-      <c r="AW159" s="27"/>
-      <c r="AX159" s="27"/>
-      <c r="AY159" s="27"/>
-      <c r="AZ159" s="27"/>
-      <c r="BA159" s="27"/>
-      <c r="BB159" s="15"/>
-      <c r="BC159" s="15"/>
-      <c r="BD159" s="15"/>
-      <c r="BE159" s="15"/>
-      <c r="BF159" s="15"/>
-      <c r="BG159" s="15"/>
-      <c r="BH159" s="15"/>
-      <c r="BI159" s="15"/>
-      <c r="BJ159" s="15"/>
-      <c r="BK159" s="15"/>
-      <c r="BL159" s="15"/>
-      <c r="BM159" s="15"/>
-      <c r="BN159" s="15"/>
-      <c r="BO159" s="15"/>
-      <c r="BP159" s="15"/>
-      <c r="BQ159" s="15"/>
-      <c r="BR159" s="15"/>
-      <c r="BS159" s="15"/>
-      <c r="BT159" s="15"/>
-      <c r="BU159" s="15"/>
-      <c r="BV159" s="15"/>
-      <c r="BW159" s="15"/>
-      <c r="BX159" s="15"/>
-      <c r="BY159" s="15"/>
-      <c r="BZ159" s="15"/>
-      <c r="CA159" s="15"/>
-      <c r="CB159" s="15"/>
-      <c r="CC159" s="15"/>
-      <c r="CD159" s="15"/>
-      <c r="CE159" s="15"/>
-      <c r="CF159" s="15"/>
-      <c r="CG159" s="15"/>
-      <c r="CH159" s="15"/>
-      <c r="CI159" s="15"/>
-      <c r="CJ159" s="15"/>
-      <c r="CK159" s="15"/>
-      <c r="CL159" s="15"/>
-      <c r="CM159" s="15"/>
-      <c r="CN159" s="15"/>
-      <c r="CO159" s="15"/>
-      <c r="CP159" s="15"/>
-      <c r="CQ159" s="15"/>
-      <c r="CR159" s="15"/>
-      <c r="CS159" s="15"/>
-      <c r="CT159" s="15"/>
-      <c r="CU159" s="15"/>
-      <c r="CV159" s="15"/>
-      <c r="CW159" s="15"/>
-      <c r="CX159" s="15"/>
-      <c r="CY159" s="15"/>
-      <c r="CZ159" s="15"/>
-      <c r="DA159" s="15"/>
-      <c r="DB159" s="15"/>
-      <c r="DC159" s="15"/>
-      <c r="DD159" s="15"/>
-      <c r="DE159" s="15"/>
-      <c r="DF159" s="15"/>
-      <c r="DG159" s="15"/>
-      <c r="DH159" s="15"/>
-      <c r="DI159" s="15"/>
-      <c r="DJ159" s="15"/>
-      <c r="DK159" s="15"/>
-      <c r="DL159" s="15"/>
-      <c r="DM159" s="15"/>
-      <c r="DN159" s="15"/>
-      <c r="DO159" s="15"/>
-      <c r="DP159" s="15"/>
+      <c r="E159" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="26"/>
+      <c r="M159" s="26"/>
+      <c r="N159" s="26"/>
+      <c r="O159" s="26"/>
+      <c r="P159" s="26"/>
+      <c r="Q159" s="26"/>
+      <c r="R159" s="26"/>
+      <c r="S159" s="26"/>
+      <c r="T159" s="26"/>
+      <c r="U159" s="26"/>
+      <c r="V159" s="26"/>
+      <c r="W159" s="26"/>
+      <c r="X159" s="26"/>
+      <c r="Y159" s="26"/>
+      <c r="Z159" s="26"/>
+      <c r="AA159" s="26"/>
+      <c r="AB159" s="26"/>
+      <c r="AC159" s="26"/>
+      <c r="AD159" s="26"/>
+      <c r="AE159" s="26"/>
+      <c r="AF159" s="26"/>
+      <c r="AG159" s="26"/>
+      <c r="AH159" s="26"/>
+      <c r="AI159" s="26"/>
+      <c r="AJ159" s="26"/>
+      <c r="AK159" s="26"/>
+      <c r="AL159" s="26"/>
+      <c r="AM159" s="26"/>
+      <c r="AN159" s="26"/>
+      <c r="AO159" s="26"/>
+      <c r="AP159" s="26"/>
+      <c r="AQ159" s="26"/>
+      <c r="AR159" s="26"/>
+      <c r="AS159" s="26"/>
+      <c r="AT159" s="26"/>
+      <c r="AU159" s="26"/>
+      <c r="AV159" s="26"/>
+      <c r="AW159" s="26"/>
+      <c r="AX159" s="26"/>
+      <c r="AY159" s="26"/>
+      <c r="AZ159" s="26"/>
+      <c r="BA159" s="26"/>
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="44" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B160" s="29">
-        <v>7093.04</v>
+        <v>7691.27</v>
       </c>
       <c r="C160" s="17"/>
       <c r="D160" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E160" s="18" t="s">
-        <v>260</v>
-      </c>
+      <c r="E160" s="18"/>
       <c r="F160" s="27"/>
       <c r="G160" s="27"/>
       <c r="H160" s="27"/>
@@ -18681,14 +18684,14 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B161" s="29">
-        <v>7242.2</v>
+        <v>7093.04</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
@@ -18812,17 +18815,19 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B162" s="29">
-        <v>8101.24</v>
+        <v>7242.2</v>
       </c>
       <c r="C162" s="17"/>
       <c r="D162" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E162" s="18"/>
+      <c r="E162" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
       <c r="H162" s="27"/>
@@ -18941,14 +18946,14 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B163" s="29">
-        <v>7501.24</v>
+        <v>8101.24</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E163" s="18"/>
@@ -19070,19 +19075,17 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B164" s="29">
-        <v>7778.48</v>
+        <v>7501.24</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E164" s="18" t="s">
-        <v>288</v>
-      </c>
+      <c r="E164" s="18"/>
       <c r="F164" s="27"/>
       <c r="G164" s="27"/>
       <c r="H164" s="27"/>
@@ -19201,18 +19204,18 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B165" s="29">
-        <v>9066.5400000000009</v>
+        <v>7778.48</v>
       </c>
       <c r="C165" s="17"/>
       <c r="D165" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E165" s="41" t="s">
-        <v>298</v>
+      <c r="E165" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
@@ -19332,14 +19335,14 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="44" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B166" s="29">
-        <v>9873.4500000000007</v>
+        <v>9066.5400000000009</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="18">
-        <f t="shared" ref="D166:D172" si="5">B166*C166</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E166" s="41" t="s">
@@ -19463,18 +19466,18 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="44" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B167" s="29">
-        <v>7778.48</v>
+        <v>9873.4500000000007</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D167:D173" si="6">B167*C167</f>
         <v>0</v>
       </c>
-      <c r="E167" s="18" t="s">
-        <v>260</v>
+      <c r="E167" s="41" t="s">
+        <v>298</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
@@ -19524,10 +19527,10 @@
       <c r="AY167" s="27"/>
       <c r="AZ167" s="27"/>
       <c r="BA167" s="27"/>
-      <c r="BB167" s="27"/>
-      <c r="BC167" s="27"/>
-      <c r="BD167" s="27"/>
-      <c r="BE167" s="27"/>
+      <c r="BB167" s="15"/>
+      <c r="BC167" s="15"/>
+      <c r="BD167" s="15"/>
+      <c r="BE167" s="15"/>
       <c r="BF167" s="15"/>
       <c r="BG167" s="15"/>
       <c r="BH167" s="15"/>
@@ -19594,18 +19597,18 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B168" s="29">
-        <v>8134.32</v>
+        <v>7778.48</v>
       </c>
       <c r="C168" s="17"/>
       <c r="D168" s="18">
-        <f t="shared" ref="D168" si="6">B168*C168</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E168" s="41" t="s">
-        <v>301</v>
+      <c r="E168" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
@@ -19723,20 +19726,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="44" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B169" s="29">
-        <v>9056.51</v>
-      </c>
-      <c r="C169" s="17"/>
+        <v>8134.32</v>
+      </c>
+      <c r="C169" s="17">
+        <v>45</v>
+      </c>
       <c r="D169" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>260</v>
+        <f t="shared" ref="D169" si="7">B169*C169</f>
+        <v>366044.39999999997</v>
+      </c>
+      <c r="E169" s="41" t="s">
+        <v>301</v>
       </c>
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
@@ -19786,10 +19791,10 @@
       <c r="AY169" s="27"/>
       <c r="AZ169" s="27"/>
       <c r="BA169" s="27"/>
-      <c r="BB169" s="15"/>
-      <c r="BC169" s="15"/>
-      <c r="BD169" s="15"/>
-      <c r="BE169" s="15"/>
+      <c r="BB169" s="27"/>
+      <c r="BC169" s="27"/>
+      <c r="BD169" s="27"/>
+      <c r="BE169" s="27"/>
       <c r="BF169" s="15"/>
       <c r="BG169" s="15"/>
       <c r="BH169" s="15"/>
@@ -19856,14 +19861,14 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B170" s="29">
-        <v>9973.69</v>
+        <v>9056.51</v>
       </c>
       <c r="C170" s="17"/>
       <c r="D170" s="18">
-        <f t="shared" ref="D170" si="7">B170*C170</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
@@ -19985,20 +19990,22 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A171" s="44" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B171" s="29">
-        <v>9056.51</v>
-      </c>
-      <c r="C171" s="17"/>
+        <v>9973.69</v>
+      </c>
+      <c r="C171" s="17">
+        <v>7</v>
+      </c>
       <c r="D171" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E171" s="41" t="s">
-        <v>299</v>
+        <f t="shared" ref="D171" si="8">B171*C171</f>
+        <v>69815.83</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
@@ -20048,10 +20055,10 @@
       <c r="AY171" s="27"/>
       <c r="AZ171" s="27"/>
       <c r="BA171" s="27"/>
-      <c r="BB171" s="27"/>
-      <c r="BC171" s="27"/>
-      <c r="BD171" s="27"/>
-      <c r="BE171" s="27"/>
+      <c r="BB171" s="15"/>
+      <c r="BC171" s="15"/>
+      <c r="BD171" s="15"/>
+      <c r="BE171" s="15"/>
       <c r="BF171" s="15"/>
       <c r="BG171" s="15"/>
       <c r="BH171" s="15"/>
@@ -20116,20 +20123,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B172" s="29">
-        <v>10133.07</v>
+        <v>9056.51</v>
       </c>
       <c r="C172" s="17"/>
       <c r="D172" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E172" s="18" t="s">
-        <v>260</v>
+      <c r="E172" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
@@ -20179,10 +20186,10 @@
       <c r="AY172" s="27"/>
       <c r="AZ172" s="27"/>
       <c r="BA172" s="27"/>
-      <c r="BB172" s="15"/>
-      <c r="BC172" s="15"/>
-      <c r="BD172" s="15"/>
-      <c r="BE172" s="15"/>
+      <c r="BB172" s="27"/>
+      <c r="BC172" s="27"/>
+      <c r="BD172" s="27"/>
+      <c r="BE172" s="27"/>
       <c r="BF172" s="15"/>
       <c r="BG172" s="15"/>
       <c r="BH172" s="15"/>
@@ -20247,20 +20254,21 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A173" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B173" s="73"/>
-      <c r="C173" s="61">
-        <f>SUBTOTAL(9,C21:C172)</f>
-        <v>620</v>
-      </c>
-      <c r="D173" s="62">
-        <f>SUBTOTAL(9,D21:D172)</f>
-        <v>676836.6</v>
-      </c>
-      <c r="E173" s="63"/>
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A173" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B173" s="29">
+        <v>10133.07</v>
+      </c>
+      <c r="C173" s="17"/>
+      <c r="D173" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>260</v>
+      </c>
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
       <c r="H173" s="27"/>
@@ -20309,61 +20317,61 @@
       <c r="AY173" s="27"/>
       <c r="AZ173" s="27"/>
       <c r="BA173" s="27"/>
-      <c r="BB173" s="27"/>
-      <c r="BC173" s="27"/>
-      <c r="BD173" s="27"/>
-      <c r="BE173" s="27"/>
-      <c r="BF173" s="27"/>
-      <c r="BG173" s="27"/>
-      <c r="BH173" s="27"/>
-      <c r="BI173" s="27"/>
-      <c r="BJ173" s="27"/>
-      <c r="BK173" s="27"/>
-      <c r="BL173" s="27"/>
-      <c r="BM173" s="27"/>
-      <c r="BN173" s="27"/>
-      <c r="BO173" s="27"/>
-      <c r="BP173" s="27"/>
-      <c r="BQ173" s="27"/>
-      <c r="BR173" s="27"/>
-      <c r="BS173" s="27"/>
-      <c r="BT173" s="27"/>
-      <c r="BU173" s="27"/>
-      <c r="BV173" s="27"/>
-      <c r="BW173" s="27"/>
-      <c r="BX173" s="27"/>
-      <c r="BY173" s="27"/>
-      <c r="BZ173" s="27"/>
-      <c r="CA173" s="27"/>
-      <c r="CB173" s="27"/>
-      <c r="CC173" s="27"/>
-      <c r="CD173" s="27"/>
-      <c r="CE173" s="27"/>
-      <c r="CF173" s="27"/>
-      <c r="CG173" s="27"/>
-      <c r="CH173" s="27"/>
-      <c r="CI173" s="27"/>
-      <c r="CJ173" s="27"/>
-      <c r="CK173" s="27"/>
-      <c r="CL173" s="27"/>
-      <c r="CM173" s="27"/>
-      <c r="CN173" s="27"/>
-      <c r="CO173" s="27"/>
-      <c r="CP173" s="27"/>
-      <c r="CQ173" s="27"/>
-      <c r="CR173" s="27"/>
-      <c r="CS173" s="27"/>
-      <c r="CT173" s="27"/>
-      <c r="CU173" s="27"/>
-      <c r="CV173" s="27"/>
-      <c r="CW173" s="27"/>
-      <c r="CX173" s="27"/>
-      <c r="CY173" s="27"/>
-      <c r="CZ173" s="27"/>
-      <c r="DA173" s="27"/>
-      <c r="DB173" s="27"/>
-      <c r="DC173" s="27"/>
-      <c r="DD173" s="27"/>
+      <c r="BB173" s="15"/>
+      <c r="BC173" s="15"/>
+      <c r="BD173" s="15"/>
+      <c r="BE173" s="15"/>
+      <c r="BF173" s="15"/>
+      <c r="BG173" s="15"/>
+      <c r="BH173" s="15"/>
+      <c r="BI173" s="15"/>
+      <c r="BJ173" s="15"/>
+      <c r="BK173" s="15"/>
+      <c r="BL173" s="15"/>
+      <c r="BM173" s="15"/>
+      <c r="BN173" s="15"/>
+      <c r="BO173" s="15"/>
+      <c r="BP173" s="15"/>
+      <c r="BQ173" s="15"/>
+      <c r="BR173" s="15"/>
+      <c r="BS173" s="15"/>
+      <c r="BT173" s="15"/>
+      <c r="BU173" s="15"/>
+      <c r="BV173" s="15"/>
+      <c r="BW173" s="15"/>
+      <c r="BX173" s="15"/>
+      <c r="BY173" s="15"/>
+      <c r="BZ173" s="15"/>
+      <c r="CA173" s="15"/>
+      <c r="CB173" s="15"/>
+      <c r="CC173" s="15"/>
+      <c r="CD173" s="15"/>
+      <c r="CE173" s="15"/>
+      <c r="CF173" s="15"/>
+      <c r="CG173" s="15"/>
+      <c r="CH173" s="15"/>
+      <c r="CI173" s="15"/>
+      <c r="CJ173" s="15"/>
+      <c r="CK173" s="15"/>
+      <c r="CL173" s="15"/>
+      <c r="CM173" s="15"/>
+      <c r="CN173" s="15"/>
+      <c r="CO173" s="15"/>
+      <c r="CP173" s="15"/>
+      <c r="CQ173" s="15"/>
+      <c r="CR173" s="15"/>
+      <c r="CS173" s="15"/>
+      <c r="CT173" s="15"/>
+      <c r="CU173" s="15"/>
+      <c r="CV173" s="15"/>
+      <c r="CW173" s="15"/>
+      <c r="CX173" s="15"/>
+      <c r="CY173" s="15"/>
+      <c r="CZ173" s="15"/>
+      <c r="DA173" s="15"/>
+      <c r="DB173" s="15"/>
+      <c r="DC173" s="15"/>
+      <c r="DD173" s="15"/>
       <c r="DE173" s="15"/>
       <c r="DF173" s="15"/>
       <c r="DG173" s="15"/>
@@ -20377,12 +20385,20 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1">
-      <c r="A174" s="46"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="21"/>
-      <c r="E174" s="21"/>
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A174" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B174" s="73"/>
+      <c r="C174" s="61">
+        <f>SUBTOTAL(9,C21:C173)</f>
+        <v>822</v>
+      </c>
+      <c r="D174" s="62">
+        <f>SUBTOTAL(9,D21:D173)</f>
+        <v>1293985.33</v>
+      </c>
+      <c r="E174" s="63"/>
       <c r="F174" s="27"/>
       <c r="G174" s="27"/>
       <c r="H174" s="27"/>
@@ -20499,70 +20515,192 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B175" s="64"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
-    </row>
-    <row r="176" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B176" s="69" t="s">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
+      <c r="A175" s="46"/>
+      <c r="B175" s="30"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="27"/>
+      <c r="L175" s="27"/>
+      <c r="M175" s="27"/>
+      <c r="N175" s="27"/>
+      <c r="O175" s="27"/>
+      <c r="P175" s="27"/>
+      <c r="Q175" s="27"/>
+      <c r="R175" s="27"/>
+      <c r="S175" s="27"/>
+      <c r="T175" s="27"/>
+      <c r="U175" s="27"/>
+      <c r="V175" s="27"/>
+      <c r="W175" s="27"/>
+      <c r="X175" s="27"/>
+      <c r="Y175" s="27"/>
+      <c r="Z175" s="27"/>
+      <c r="AA175" s="27"/>
+      <c r="AB175" s="27"/>
+      <c r="AC175" s="27"/>
+      <c r="AD175" s="27"/>
+      <c r="AE175" s="27"/>
+      <c r="AF175" s="27"/>
+      <c r="AG175" s="27"/>
+      <c r="AH175" s="27"/>
+      <c r="AI175" s="27"/>
+      <c r="AJ175" s="27"/>
+      <c r="AK175" s="27"/>
+      <c r="AL175" s="27"/>
+      <c r="AM175" s="27"/>
+      <c r="AN175" s="27"/>
+      <c r="AO175" s="27"/>
+      <c r="AP175" s="27"/>
+      <c r="AQ175" s="27"/>
+      <c r="AR175" s="27"/>
+      <c r="AS175" s="27"/>
+      <c r="AT175" s="27"/>
+      <c r="AU175" s="27"/>
+      <c r="AV175" s="27"/>
+      <c r="AW175" s="27"/>
+      <c r="AX175" s="27"/>
+      <c r="AY175" s="27"/>
+      <c r="AZ175" s="27"/>
+      <c r="BA175" s="27"/>
+      <c r="BB175" s="27"/>
+      <c r="BC175" s="27"/>
+      <c r="BD175" s="27"/>
+      <c r="BE175" s="27"/>
+      <c r="BF175" s="27"/>
+      <c r="BG175" s="27"/>
+      <c r="BH175" s="27"/>
+      <c r="BI175" s="27"/>
+      <c r="BJ175" s="27"/>
+      <c r="BK175" s="27"/>
+      <c r="BL175" s="27"/>
+      <c r="BM175" s="27"/>
+      <c r="BN175" s="27"/>
+      <c r="BO175" s="27"/>
+      <c r="BP175" s="27"/>
+      <c r="BQ175" s="27"/>
+      <c r="BR175" s="27"/>
+      <c r="BS175" s="27"/>
+      <c r="BT175" s="27"/>
+      <c r="BU175" s="27"/>
+      <c r="BV175" s="27"/>
+      <c r="BW175" s="27"/>
+      <c r="BX175" s="27"/>
+      <c r="BY175" s="27"/>
+      <c r="BZ175" s="27"/>
+      <c r="CA175" s="27"/>
+      <c r="CB175" s="27"/>
+      <c r="CC175" s="27"/>
+      <c r="CD175" s="27"/>
+      <c r="CE175" s="27"/>
+      <c r="CF175" s="27"/>
+      <c r="CG175" s="27"/>
+      <c r="CH175" s="27"/>
+      <c r="CI175" s="27"/>
+      <c r="CJ175" s="27"/>
+      <c r="CK175" s="27"/>
+      <c r="CL175" s="27"/>
+      <c r="CM175" s="27"/>
+      <c r="CN175" s="27"/>
+      <c r="CO175" s="27"/>
+      <c r="CP175" s="27"/>
+      <c r="CQ175" s="27"/>
+      <c r="CR175" s="27"/>
+      <c r="CS175" s="27"/>
+      <c r="CT175" s="27"/>
+      <c r="CU175" s="27"/>
+      <c r="CV175" s="27"/>
+      <c r="CW175" s="27"/>
+      <c r="CX175" s="27"/>
+      <c r="CY175" s="27"/>
+      <c r="CZ175" s="27"/>
+      <c r="DA175" s="27"/>
+      <c r="DB175" s="27"/>
+      <c r="DC175" s="27"/>
+      <c r="DD175" s="27"/>
+      <c r="DE175" s="15"/>
+      <c r="DF175" s="15"/>
+      <c r="DG175" s="15"/>
+      <c r="DH175" s="15"/>
+      <c r="DI175" s="15"/>
+      <c r="DJ175" s="15"/>
+      <c r="DK175" s="15"/>
+      <c r="DL175" s="15"/>
+      <c r="DM175" s="15"/>
+      <c r="DN175" s="15"/>
+      <c r="DO175" s="15"/>
+      <c r="DP175" s="15"/>
+    </row>
+    <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1">
+      <c r="B176" s="64"/>
+      <c r="C176" s="64"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="64"/>
+    </row>
+    <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B177" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C176" s="70"/>
-      <c r="D176" s="71"/>
-      <c r="E176" s="25"/>
-    </row>
-    <row r="177" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
-    <row r="178" spans="2:5">
-      <c r="B178" s="51" t="s">
+      <c r="C177" s="70"/>
+      <c r="D177" s="71"/>
+      <c r="E177" s="25"/>
+    </row>
+    <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
+    <row r="179" spans="2:5">
+      <c r="B179" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C178" s="52" t="s">
+      <c r="C179" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D178" s="53" t="s">
+      <c r="D179" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="E178" s="22"/>
-    </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1">
-      <c r="B179" s="31" t="s">
+      <c r="E179" s="22"/>
+    </row>
+    <row r="180" spans="2:5" ht="15" customHeight="1">
+      <c r="B180" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C179" s="54">
-        <v>500000</v>
-      </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="22" t="s">
+      <c r="C180" s="54">
+        <v>1200000</v>
+      </c>
+      <c r="D180" s="23"/>
+      <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B180" s="55" t="s">
+    <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
+      <c r="B181" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="C180" s="56">
-        <v>184930</v>
-      </c>
-      <c r="D180" s="57"/>
-      <c r="E180" s="22"/>
-    </row>
-    <row r="181" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B181" s="58" t="s">
+      <c r="C181" s="56">
+        <v>93689</v>
+      </c>
+      <c r="D181" s="57"/>
+      <c r="E181" s="22"/>
+    </row>
+    <row r="182" spans="2:5" ht="19.5" thickBot="1">
+      <c r="B182" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="C181" s="60">
-        <f>C179+C180</f>
-        <v>684930</v>
-      </c>
-      <c r="D181" s="59"/>
-      <c r="E181" s="24"/>
-    </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1"/>
-    <row r="183" spans="2:5" ht="15.75" customHeight="1"/>
+      <c r="C182" s="60">
+        <f>C180+C181</f>
+        <v>1293689</v>
+      </c>
+      <c r="D182" s="59"/>
+      <c r="E182" s="24"/>
+    </row>
+    <row r="183" spans="2:5" ht="15" customHeight="1"/>
+    <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E172">
+  <autoFilter ref="A4:E173">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20576,11 +20714,11 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="A174:B174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1948,10 +1948,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
+      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44455</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3096,19 +3096,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
         <v>248</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>80</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>89664</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>260</v>
@@ -3887,19 +3885,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="44" t="s">
         <v>295</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>300</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>309135</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>260</v>
@@ -4926,17 +4922,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>40</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5057,17 +5055,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>44803.199999999997</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5577,17 +5577,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>302</v>
@@ -6417,19 +6419,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="44" t="s">
         <v>304</v>
       </c>
       <c r="B49" s="29">
         <v>1156.75</v>
       </c>
-      <c r="C49" s="17">
-        <v>230</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>266052.5</v>
+        <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>260</v>
@@ -6550,19 +6550,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="45" t="s">
         <v>296</v>
       </c>
       <c r="B50" s="29">
         <v>1166.77</v>
       </c>
-      <c r="C50" s="17">
-        <v>100</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>116677</v>
+        <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>260</v>
@@ -10318,11 +10316,11 @@
         <v>1246.96</v>
       </c>
       <c r="C86" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>37408.800000000003</v>
+        <v>49878.400000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>260</v>
@@ -10388,11 +10386,11 @@
         <v>1306.26</v>
       </c>
       <c r="C87" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>39187.800000000003</v>
+        <v>52250.400000000001</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>260</v>
@@ -11428,17 +11426,19 @@
       <c r="AZ96" s="26"/>
       <c r="BA96" s="26"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>269</v>
       </c>
       <c r="B97" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54578</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>260</v>
@@ -12133,17 +12133,19 @@
       <c r="AZ102" s="26"/>
       <c r="BA102" s="26"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B103" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>260</v>
@@ -18813,17 +18815,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="44" t="s">
         <v>277</v>
       </c>
       <c r="B162" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>5</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>260</v>
@@ -19464,17 +19468,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="44" t="s">
         <v>270</v>
       </c>
       <c r="B167" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>4</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>39493.800000000003</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>298</v>
@@ -19726,19 +19732,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>300</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>45</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>366044.39999999997</v>
+        <v>0</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>301</v>
@@ -19990,7 +19994,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="44" t="s">
         <v>290</v>
       </c>
@@ -19998,11 +20002,11 @@
         <v>9973.69</v>
       </c>
       <c r="C171" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>69815.83</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>260</v>
@@ -20123,17 +20127,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="44" t="s">
         <v>285</v>
       </c>
       <c r="B172" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="41" t="s">
         <v>299</v>
@@ -20391,12 +20397,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C21:C173)</f>
-        <v>822</v>
+        <f>SUBTOTAL(9,C37:C173)</f>
+        <v>299</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D21:D173)</f>
-        <v>1293985.33</v>
+        <f>SUBTOTAL(9,D37:D173)</f>
+        <v>523965.79999999993</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20669,7 +20675,7 @@
         <v>279</v>
       </c>
       <c r="C180" s="54">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20681,7 +20687,7 @@
         <v>252</v>
       </c>
       <c r="C181" s="56">
-        <v>93689</v>
+        <v>528961</v>
       </c>
       <c r="D181" s="57"/>
       <c r="E181" s="22"/>
@@ -20691,8 +20697,7 @@
         <v>303</v>
       </c>
       <c r="C182" s="60">
-        <f>C180+C181</f>
-        <v>1293689</v>
+        <v>0</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1948,10 +1948,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
+      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44459</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -4922,19 +4922,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="44" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="29">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>260</v>
@@ -5055,19 +5053,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
         <v>249</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>260</v>
@@ -5585,11 +5581,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>302</v>
@@ -10386,11 +10382,11 @@
         <v>1306.26</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52250.400000000001</v>
+        <v>78375.600000000006</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>260</v>
@@ -11434,11 +11430,11 @@
         <v>1364.45</v>
       </c>
       <c r="C97" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54578</v>
+        <v>27289</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>260</v>
@@ -12141,11 +12137,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>260</v>
@@ -19337,17 +19333,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>283</v>
       </c>
       <c r="B166" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>5</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45332.700000000004</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>298</v>
@@ -19476,11 +19474,11 @@
         <v>9873.4500000000007</v>
       </c>
       <c r="C167" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>39493.800000000003</v>
+        <v>49367.25</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>298</v>
@@ -19732,17 +19730,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>300</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>20</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>162686.39999999999</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>301</v>
@@ -20397,12 +20397,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C37:C173)</f>
-        <v>299</v>
+        <f>SUBTOTAL(9,C42:C173)</f>
+        <v>205</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D37:D173)</f>
-        <v>523965.79999999993</v>
+        <f>SUBTOTAL(9,D42:D173)</f>
+        <v>596515.35</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20675,7 +20675,7 @@
         <v>279</v>
       </c>
       <c r="C180" s="54">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20687,7 +20687,7 @@
         <v>252</v>
       </c>
       <c r="C181" s="56">
-        <v>528961</v>
+        <v>0</v>
       </c>
       <c r="D181" s="57"/>
       <c r="E181" s="22"/>
@@ -20697,7 +20697,8 @@
         <v>303</v>
       </c>
       <c r="C182" s="60">
-        <v>0</v>
+        <f>C180</f>
+        <v>600000</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -715,9 +715,6 @@
     <t>B66</t>
   </si>
   <si>
-    <t>S40</t>
-  </si>
-  <si>
     <t>E95</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>D76</t>
+  </si>
+  <si>
+    <t>S45</t>
   </si>
 </sst>
 </file>
@@ -1951,7 +1951,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K175" sqref="K175"/>
+      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1980,7 +1980,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="42" t="s">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44461</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="29">
         <v>7244.21</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B13" s="29">
         <v>972.42499999999995</v>
@@ -2706,12 +2706,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="29">
         <v>721.8</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B18" s="29">
         <v>1032.575</v>
@@ -3006,12 +3006,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
@@ -3022,23 +3022,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39774.400000000001</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3098,7 +3100,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="29">
         <v>1120.8</v>
@@ -3109,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3176,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3625,7 +3627,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -3767,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -3887,7 +3889,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
@@ -4029,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -4160,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -4935,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -5055,7 +5057,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="29">
         <v>1120.08</v>
@@ -5066,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -5186,7 +5188,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="29">
         <v>1217.8900000000001</v>
@@ -5197,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -5588,7 +5590,7 @@
         <v>28447.600000000002</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -6224,7 +6226,7 @@
     </row>
     <row r="47" spans="1:120" s="33" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B47" s="29">
         <v>848.12</v>
@@ -6286,7 +6288,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B48" s="29">
         <v>1101.75</v>
@@ -6297,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
@@ -6417,7 +6419,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B49" s="29">
         <v>1156.75</v>
@@ -6428,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -6548,7 +6550,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="29">
         <v>1166.77</v>
@@ -6559,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
@@ -6679,7 +6681,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B51" s="29">
         <v>1066.6600000000001</v>
@@ -6690,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -6810,7 +6812,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" s="29">
         <v>1014.53</v>
@@ -6821,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="27"/>
@@ -7070,7 +7072,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B54" s="29">
         <v>2702.42</v>
@@ -7081,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="27"/>
@@ -7201,7 +7203,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B55" s="29">
         <v>4500</v>
@@ -7212,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
@@ -7332,7 +7334,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" s="49">
         <v>4706.18</v>
@@ -7343,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
@@ -8239,7 +8241,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B63" s="29">
         <v>4044.61</v>
@@ -8250,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -8757,7 +8759,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B67" s="29">
         <v>5247.46</v>
@@ -8768,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8828,7 +8830,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B68" s="29">
         <v>5142.21</v>
@@ -8839,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8961,7 +8963,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B70" s="29">
         <v>4866.5600000000004</v>
@@ -9023,7 +9025,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B71" s="29">
         <v>5603.31</v>
@@ -9213,7 +9215,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" s="29">
         <v>5792.76</v>
@@ -9224,7 +9226,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -9658,7 +9660,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B80" s="29">
         <v>5708.6</v>
@@ -9669,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
@@ -9789,7 +9791,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B81" s="29">
         <v>6405.21</v>
@@ -9800,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
@@ -10253,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -10304,22 +10306,20 @@
       <c r="AZ85" s="26"/>
       <c r="BA85" s="26"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B86" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C86" s="17">
-        <v>40</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>49878.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
@@ -10374,22 +10374,20 @@
       <c r="BD86" s="26"/>
       <c r="BE86" s="26"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C87" s="17">
-        <v>60</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78375.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
@@ -11296,7 +11294,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B95" s="29">
         <v>1306.26</v>
@@ -11307,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="26"/>
@@ -11371,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="26"/>
@@ -11424,7 +11422,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B97" s="29">
         <v>1364.45</v>
@@ -11437,7 +11435,7 @@
         <v>27289</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
@@ -11557,7 +11555,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B98" s="29">
         <v>1403.33</v>
@@ -11568,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
@@ -11959,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="26"/>
@@ -12067,7 +12065,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B102" s="29">
         <v>1214.8900000000001</v>
@@ -12078,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="26"/>
@@ -12131,7 +12129,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B103" s="29">
         <v>1188.82</v>
@@ -12144,7 +12142,7 @@
         <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="26"/>
@@ -13094,7 +13092,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B111" s="29">
         <v>1150.8699999999999</v>
@@ -13105,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13572,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
@@ -14208,20 +14206,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="44" t="s">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="B121" s="29">
-        <v>1159.8900000000001</v>
-      </c>
-      <c r="C121" s="17"/>
+        <v>1390.3</v>
+      </c>
+      <c r="C121" s="17">
+        <v>240</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>333672</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F127" s="27"/>
       <c r="G127" s="27"/>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
@@ -15188,7 +15188,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B129" s="29">
         <v>1188.97</v>
@@ -15575,7 +15575,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B132" s="29">
         <v>1208.01</v>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B133" s="29">
         <v>3520.36</v>
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
@@ -15837,7 +15837,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B134" s="29">
         <v>3793.1</v>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
@@ -17585,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F151" s="27"/>
       <c r="G151" s="27"/>
@@ -18356,7 +18356,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B157" s="29">
         <v>3548.43</v>
@@ -18489,7 +18489,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B159" s="29">
         <v>7165.87</v>
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F159" s="26"/>
       <c r="G159" s="26"/>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B161" s="29">
         <v>7093.04</v>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F161" s="27"/>
       <c r="G161" s="27"/>
@@ -18811,22 +18811,20 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B162" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>5</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F162" s="27"/>
       <c r="G162" s="27"/>
@@ -18946,7 +18944,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B163" s="29">
         <v>8101.24</v>
@@ -19075,7 +19073,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B164" s="29">
         <v>7501.24</v>
@@ -19204,7 +19202,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B165" s="29">
         <v>7778.48</v>
@@ -19215,7 +19213,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F165" s="27"/>
       <c r="G165" s="27"/>
@@ -19335,20 +19333,20 @@
     </row>
     <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B166" s="29">
         <v>9066.5400000000009</v>
       </c>
       <c r="C166" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>45332.700000000004</v>
+        <v>54399.240000000005</v>
       </c>
       <c r="E166" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F166" s="27"/>
       <c r="G166" s="27"/>
@@ -19468,20 +19466,20 @@
     </row>
     <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B167" s="29">
         <v>9873.4500000000007</v>
       </c>
       <c r="C167" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>49367.25</v>
+        <v>39493.800000000003</v>
       </c>
       <c r="E167" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F167" s="27"/>
       <c r="G167" s="27"/>
@@ -19601,7 +19599,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B168" s="29">
         <v>7778.48</v>
@@ -19612,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F168" s="27"/>
       <c r="G168" s="27"/>
@@ -19730,22 +19728,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
       <c r="C169" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>162686.39999999999</v>
+        <v>81343.199999999997</v>
       </c>
       <c r="E169" s="41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F169" s="27"/>
       <c r="G169" s="27"/>
@@ -19865,7 +19863,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
@@ -19876,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F170" s="27"/>
       <c r="G170" s="27"/>
@@ -19994,22 +19992,20 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B171" s="29">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>5</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>49868.450000000004</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F171" s="27"/>
       <c r="G171" s="27"/>
@@ -20127,22 +20123,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B172" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E172" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F172" s="27"/>
       <c r="G172" s="27"/>
@@ -20262,7 +20256,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B173" s="29">
         <v>10133.07</v>
@@ -20273,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F173" s="27"/>
       <c r="G173" s="27"/>
@@ -20397,12 +20391,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C42:C173)</f>
-        <v>205</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>360</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D42:D173)</f>
-        <v>596515.35</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>628195.64</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20672,10 +20666,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C180" s="54">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20684,21 +20678,21 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C181" s="56">
-        <v>0</v>
+        <v>133100</v>
       </c>
       <c r="D181" s="57"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C182" s="60">
-        <f>C180</f>
-        <v>600000</v>
+        <f>C181+C180</f>
+        <v>633100</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1951,7 +1951,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
+        <v>44465</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2080,17 +2080,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>259</v>
@@ -3033,11 +3035,11 @@
         <v>994.36</v>
       </c>
       <c r="C20" s="17">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>39774.400000000001</v>
+        <v>79548.800000000003</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>259</v>
@@ -5575,19 +5577,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>301</v>
@@ -11420,19 +11420,17 @@
       <c r="AZ96" s="26"/>
       <c r="BA96" s="26"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>268</v>
       </c>
       <c r="B97" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>259</v>
@@ -12063,17 +12061,19 @@
       <c r="DC101" s="26"/>
       <c r="DD101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>259</v>
@@ -12127,19 +12127,17 @@
       <c r="AZ102" s="26"/>
       <c r="BA102" s="26"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="44" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>259</v>
@@ -14206,19 +14204,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="44" t="s">
         <v>304</v>
       </c>
       <c r="B121" s="29">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>240</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>333672</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>236</v>
@@ -19331,19 +19327,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="44" t="s">
         <v>282</v>
       </c>
       <c r="B166" s="29">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17">
-        <v>6</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>54399.240000000005</v>
+        <v>0</v>
       </c>
       <c r="E166" s="41" t="s">
         <v>297</v>
@@ -19464,19 +19458,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="44" t="s">
         <v>269</v>
       </c>
       <c r="B167" s="29">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>4</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>39493.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E167" s="41" t="s">
         <v>297</v>
@@ -19736,11 +19728,11 @@
         <v>8134.32</v>
       </c>
       <c r="C169" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>81343.199999999997</v>
+        <v>122014.79999999999</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>300</v>
@@ -20391,12 +20383,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>360</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>125</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>628195.64</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>296429</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20669,7 +20661,7 @@
         <v>278</v>
       </c>
       <c r="C180" s="54">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20681,7 +20673,7 @@
         <v>251</v>
       </c>
       <c r="C181" s="56">
-        <v>133100</v>
+        <v>0</v>
       </c>
       <c r="D181" s="57"/>
       <c r="E181" s="22"/>
@@ -20692,7 +20684,7 @@
       </c>
       <c r="C182" s="60">
         <f>C181+C180</f>
-        <v>633100</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1951,7 +1951,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J182" sqref="J182"/>
+      <selection pane="bottomRight" activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44465</v>
+        <v>44466</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2080,19 +2080,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="44" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="29">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>259</v>
@@ -3011,35 +3009,35 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>320</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>314384</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="44" t="s">
         <v>290</v>
       </c>
       <c r="B20" s="29">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>80</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>79548.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>259</v>
@@ -3627,17 +3625,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>263</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22616.399999999998</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>259</v>
@@ -10306,17 +10306,19 @@
       <c r="AZ85" s="26"/>
       <c r="BA85" s="26"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>264</v>
       </c>
       <c r="B86" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24939.200000000001</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>259</v>
@@ -10374,17 +10376,19 @@
       <c r="BD86" s="26"/>
       <c r="BE86" s="26"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="45" t="s">
         <v>274</v>
       </c>
       <c r="B87" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26125.200000000001</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>259</v>
@@ -11420,17 +11424,19 @@
       <c r="AZ96" s="26"/>
       <c r="BA96" s="26"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>268</v>
       </c>
       <c r="B97" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27289</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>259</v>
@@ -11551,17 +11557,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A98" s="45" t="s">
         <v>272</v>
       </c>
       <c r="B98" s="29">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>140</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>196466.19999999998</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>259</v>
@@ -12061,19 +12069,17 @@
       <c r="DC101" s="26"/>
       <c r="DD101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>259</v>
@@ -18421,7 +18427,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="44" t="s">
         <v>131</v>
       </c>
@@ -18483,7 +18489,7 @@
       <c r="AZ158" s="26"/>
       <c r="BA158" s="26"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="44" t="s">
         <v>238</v>
       </c>
@@ -19720,19 +19726,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>299</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>15</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>122014.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>300</v>
@@ -20383,12 +20387,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>125</v>
+        <f>SUBTOTAL(9,C19:C173)</f>
+        <v>540</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>296429</v>
+        <f>SUBTOTAL(9,D19:D100)</f>
+        <v>611820</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20661,7 +20665,7 @@
         <v>278</v>
       </c>
       <c r="C180" s="54">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20684,7 +20688,7 @@
       </c>
       <c r="C182" s="60">
         <f>C181+C180</f>
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1951,7 +1951,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C180" sqref="C180"/>
+      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44466</v>
+        <v>44467</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3009,19 +3009,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>254</v>
       </c>
       <c r="B19" s="29">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>320</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>314384</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>259</v>
@@ -3625,19 +3623,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="44" t="s">
         <v>263</v>
       </c>
       <c r="B26" s="29">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>20</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22616.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>259</v>
@@ -5577,17 +5573,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>301</v>
@@ -7332,17 +7330,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="48" t="s">
         <v>292</v>
       </c>
       <c r="B56" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="50"/>
+      <c r="C56" s="50">
+        <v>5</v>
+      </c>
       <c r="D56" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23530.9</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>259</v>
@@ -11424,19 +11424,17 @@
       <c r="AZ96" s="26"/>
       <c r="BA96" s="26"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="45" t="s">
         <v>268</v>
       </c>
       <c r="B97" s="29">
         <v>1364.45</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>27289</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>259</v>
@@ -11557,19 +11555,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="45" t="s">
         <v>272</v>
       </c>
       <c r="B98" s="29">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>140</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>196466.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>259</v>
@@ -12069,17 +12065,19 @@
       <c r="DC101" s="26"/>
       <c r="DD101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>259</v>
@@ -12133,17 +12131,19 @@
       <c r="AZ102" s="26"/>
       <c r="BA102" s="26"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="44" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>259</v>
@@ -18427,7 +18427,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="44" t="s">
         <v>131</v>
       </c>
@@ -18489,7 +18489,7 @@
       <c r="AZ158" s="26"/>
       <c r="BA158" s="26"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="44" t="s">
         <v>238</v>
       </c>
@@ -18813,17 +18813,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B162" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>5</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>259</v>
@@ -19726,17 +19728,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="44" t="s">
         <v>299</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>81343.199999999997</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>300</v>
@@ -20387,12 +20391,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C19:C173)</f>
-        <v>540</v>
+        <f>SUBTOTAL(9,C42:C173)</f>
+        <v>140</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D19:D100)</f>
-        <v>611820</v>
+        <f>SUBTOTAL(9,D42:D173)</f>
+        <v>297118.89999999997</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20665,7 +20669,7 @@
         <v>278</v>
       </c>
       <c r="C180" s="54">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20688,7 +20692,7 @@
       </c>
       <c r="C182" s="60">
         <f>C181+C180</f>
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1951,7 +1951,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
+      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="E2" s="36">
         <f ca="1">TODAY()</f>
-        <v>44467</v>
+        <v>44468</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3885,17 +3885,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="44" t="s">
         <v>294</v>
       </c>
       <c r="B28" s="29">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>150</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154567.5</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>259</v>
@@ -5573,19 +5575,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="44" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="29">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>301</v>
@@ -7330,19 +7330,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="48" t="s">
         <v>292</v>
       </c>
       <c r="B56" s="49">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="50">
-        <v>5</v>
-      </c>
+      <c r="C56" s="50"/>
       <c r="D56" s="47">
         <f t="shared" si="1"/>
-        <v>23530.9</v>
+        <v>0</v>
       </c>
       <c r="E56" s="47" t="s">
         <v>259</v>
@@ -10306,19 +10304,17 @@
       <c r="AZ85" s="26"/>
       <c r="BA85" s="26"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="45" t="s">
         <v>264</v>
       </c>
       <c r="B86" s="29">
         <v>1246.96</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>24939.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>259</v>
@@ -10376,19 +10372,17 @@
       <c r="BD86" s="26"/>
       <c r="BE86" s="26"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="45" t="s">
         <v>274</v>
       </c>
       <c r="B87" s="29">
         <v>1306.26</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26125.200000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>259</v>
@@ -12065,19 +12059,17 @@
       <c r="DC101" s="26"/>
       <c r="DD101" s="26"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="44" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="29">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>259</v>
@@ -12131,19 +12123,17 @@
       <c r="AZ102" s="26"/>
       <c r="BA102" s="26"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="44" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="29">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>259</v>
@@ -18813,19 +18803,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="44" t="s">
         <v>276</v>
       </c>
       <c r="B162" s="29">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>5</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>259</v>
@@ -19728,19 +19716,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="44" t="s">
         <v>299</v>
       </c>
       <c r="B169" s="29">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>10</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>81343.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E169" s="41" t="s">
         <v>300</v>
@@ -19861,17 +19847,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="44" t="s">
         <v>288</v>
       </c>
       <c r="B170" s="29">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>259</v>
@@ -20391,12 +20379,12 @@
       </c>
       <c r="B174" s="73"/>
       <c r="C174" s="61">
-        <f>SUBTOTAL(9,C42:C173)</f>
-        <v>140</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>155</v>
       </c>
       <c r="D174" s="62">
-        <f>SUBTOTAL(9,D42:D173)</f>
-        <v>297118.89999999997</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>199850.05</v>
       </c>
       <c r="E174" s="63"/>
       <c r="F174" s="27"/>
@@ -20669,7 +20657,7 @@
         <v>278</v>
       </c>
       <c r="C180" s="54">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="23"/>
       <c r="E180" s="22" t="s">
@@ -20692,7 +20680,7 @@
       </c>
       <c r="C182" s="60">
         <f>C181+C180</f>
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="24"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1207,7 +1207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1328,21 +1328,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1414,7 +1399,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,7 +1492,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1523,7 +1508,7 @@
     <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1557,29 +1542,29 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="21" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,13 +1612,6 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1948,10 +1926,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D186" sqref="D186"/>
+      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1988,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44469</v>
+        <v>44472</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2080,17 +2058,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>259</v>
@@ -3096,17 +3076,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>247</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>200</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>224160</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>259</v>
@@ -3623,17 +3605,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>50</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56541</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>259</v>
@@ -5058,14 +5042,14 @@
         <v>248</v>
       </c>
       <c r="B38" s="28">
-        <v>1120.08</v>
+        <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>44803.199999999997</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>259</v>
@@ -5575,17 +5559,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>100</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>142238</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>301</v>
@@ -7330,17 +7316,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>292</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>25</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117654.5</v>
       </c>
       <c r="E56" s="45" t="s">
         <v>259</v>
@@ -10309,14 +10297,14 @@
         <v>264</v>
       </c>
       <c r="B86" s="28">
-        <v>1246.96</v>
+        <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>24939.200000000001</v>
+        <v>126700.94999999998</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>259</v>
@@ -10379,14 +10367,14 @@
         <v>274</v>
       </c>
       <c r="B87" s="28">
-        <v>1306.26</v>
+        <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78375.600000000006</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>259</v>
@@ -11422,19 +11410,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B97" s="28">
-        <v>1364.45</v>
+        <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
         <v>40</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54578</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>259</v>
@@ -12065,17 +12053,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>100</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>121489.00000000001</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>259</v>
@@ -12129,17 +12119,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>275</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>100</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>118882</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>259</v>
@@ -15571,17 +15563,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>259</v>
@@ -18423,7 +18417,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18485,7 +18479,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>238</v>
       </c>
@@ -18809,17 +18803,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>15</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>108633</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>259</v>
@@ -19460,17 +19456,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>269</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>10</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>98734.5</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>297</v>
@@ -19722,17 +19720,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>299</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>50</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>406716</v>
       </c>
       <c r="E169" s="39" t="s">
         <v>300</v>
@@ -19853,17 +19853,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>259</v>
@@ -19984,17 +19986,19 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>289</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17">
+        <v>10</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>259</v>
@@ -20115,17 +20119,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>10</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>298</v>
@@ -20383,12 +20389,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C38:C173)</f>
-        <v>160</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>1050</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D38:D173)</f>
-        <v>202696</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>2199502.31</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,13 +20663,13 @@
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
-      <c r="B180" s="76" t="s">
+      <c r="B180" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C180" s="77">
-        <v>140000</v>
-      </c>
-      <c r="D180" s="78"/>
+      <c r="C180" s="53">
+        <v>2200000</v>
+      </c>
+      <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
@@ -20673,7 +20679,7 @@
         <v>251</v>
       </c>
       <c r="C181" s="53">
-        <v>63499</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20684,7 +20690,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>203499</v>
+        <v>2200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -628,9 +628,6 @@
     <t>Z15</t>
   </si>
   <si>
-    <t>i72</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>S45</t>
+  </si>
+  <si>
+    <t>i69</t>
   </si>
 </sst>
 </file>
@@ -1926,10 +1926,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1958,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44472</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2058,22 +2058,20 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2129,7 +2127,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2140,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2211,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2342,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2473,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2544,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2615,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2675,7 +2673,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2686,12 +2684,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2702,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2762,7 +2760,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="28">
         <v>779.95</v>
@@ -2773,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2833,7 +2831,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2844,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2904,7 +2902,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2915,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2975,7 +2973,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2986,12 +2984,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
@@ -3002,12 +3000,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
@@ -3018,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3076,22 +3074,20 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>224160</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3158,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3487,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3605,22 +3601,20 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>50</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>56541</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3740,7 +3734,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3751,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3869,20 +3863,22 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>400</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>412180</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4013,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4144,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4264,7 +4260,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4275,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4777,7 +4773,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4788,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -4908,7 +4904,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4919,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5037,22 +5033,20 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5172,7 +5166,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5183,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5559,22 +5553,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>199</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5952,7 +5944,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6210,7 +6202,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6272,7 +6264,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6283,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6403,7 +6395,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6414,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6534,7 +6526,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6545,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6665,7 +6657,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6676,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6796,7 +6788,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6807,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7056,7 +7048,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7067,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7187,7 +7179,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7198,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7316,22 +7308,20 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>25</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>117654.5</v>
+        <v>0</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7720,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8227,7 +8217,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8238,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8616,7 +8606,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8745,7 +8735,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8756,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8816,7 +8806,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8827,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8949,7 +8939,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9011,7 +9001,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9022,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9075,7 +9065,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9086,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9137,17 +9127,19 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="B73" s="28">
-        <v>5412.5</v>
-      </c>
-      <c r="C73" s="17"/>
+        <v>6320.01</v>
+      </c>
+      <c r="C73" s="17">
+        <v>60</v>
+      </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>379200.60000000003</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="25"/>
@@ -9201,7 +9193,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9212,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9276,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9515,7 +9507,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9526,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9646,7 +9638,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9657,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9777,7 +9769,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9788,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -9919,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10230,7 +10222,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10241,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10292,22 +10284,20 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126700.94999999998</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10362,22 +10352,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10646,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10777,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11284,7 +11272,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11295,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11359,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11410,22 +11398,20 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11545,7 +11531,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11556,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11816,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11936,7 +11922,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11947,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12053,22 +12039,20 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>100</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>121489.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12119,22 +12103,20 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>100</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12315,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12446,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12835,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13082,20 +13064,22 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B111" s="28">
-        <v>1150.8699999999999</v>
-      </c>
-      <c r="C111" s="17"/>
+        <v>1243.0999999999999</v>
+      </c>
+      <c r="C111" s="17">
+        <v>40</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>49724</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13562,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13822,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14200,7 +14184,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14211,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14331,7 +14315,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14927,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15058,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15178,7 +15162,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15563,22 +15547,20 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15698,7 +15680,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15709,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15829,7 +15811,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15840,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -15971,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16477,7 +16459,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16488,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16800,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -16915,7 +16897,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -16926,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17057,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17317,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17577,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17708,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18097,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18217,7 +18199,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18228,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18348,7 +18330,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18359,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18481,7 +18463,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18492,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18674,7 +18656,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18685,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18803,22 +18785,20 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>15</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>108633</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18938,7 +18918,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19067,7 +19047,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19196,7 +19176,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19207,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19327,7 +19307,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19338,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19456,22 +19436,20 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>10</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>98734.5</v>
+        <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19591,7 +19569,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19602,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19720,22 +19698,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>50</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>406716</v>
+        <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19853,22 +19829,22 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
       <c r="C170" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>90565.1</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19986,22 +19962,20 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>10</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>99736.900000000009</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20119,22 +20093,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>10</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20254,7 +20226,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20265,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20389,12 +20361,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>1050</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>505</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>2199502.31</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>886387.15000000014</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20664,10 +20636,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C180" s="53">
-        <v>2200000</v>
+        <v>900000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20676,7 +20648,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20686,11 +20658,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>2200000</v>
+        <v>900000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -556,9 +556,6 @@
     <t>V145</t>
   </si>
   <si>
-    <t>L40</t>
-  </si>
-  <si>
     <t>BL95</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>i69</t>
+  </si>
+  <si>
+    <t>L45</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1929,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1958,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44473</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2684,12 +2684,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="28">
         <v>779.95</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2984,28 +2984,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>300</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>294735</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3076,7 +3078,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
@@ -3087,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3154,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3472,7 +3474,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3483,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3603,7 +3605,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3614,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3734,7 +3736,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3745,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3863,22 +3865,20 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>400</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>412180</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6788,7 +6788,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7059,7 +7059,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9129,17 +9129,17 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
       <c r="C73" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>379200.60000000003</v>
+        <v>126400.20000000001</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="25"/>
@@ -9193,7 +9193,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9638,7 +9638,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10286,7 +10286,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
@@ -10365,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11272,7 +11272,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11400,7 +11400,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11789,20 +11789,22 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A100" s="42" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="B100" s="28">
-        <v>985.46</v>
-      </c>
-      <c r="C100" s="17"/>
+        <v>1166.9100000000001</v>
+      </c>
+      <c r="C100" s="17">
+        <v>340</v>
+      </c>
       <c r="D100" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>396749.4</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11922,7 +11924,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11933,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12041,7 +12043,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12052,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12105,7 +12107,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
@@ -12116,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12224,7 +12226,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
@@ -12297,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12417,7 +12419,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12428,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12806,7 +12808,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12817,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13064,22 +13066,20 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>40</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>49724</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14315,7 +14315,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15162,7 +15162,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15549,7 +15549,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15691,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15811,7 +15811,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15822,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -15942,7 +15942,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16523,7 +16523,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16782,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17028,7 +17028,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17299,7 +17299,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17559,7 +17559,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17939,7 +17939,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18330,7 +18330,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18399,7 +18399,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18461,9 +18461,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18667,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18787,7 +18787,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18918,7 +18918,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19047,7 +19047,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19176,7 +19176,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19307,7 +19307,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19318,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19438,7 +19438,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19569,7 +19569,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19580,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19700,7 +19700,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19829,22 +19829,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19964,7 +19962,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19975,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20095,7 +20093,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20106,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20226,7 +20224,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20237,7 +20235,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20361,12 +20359,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>505</v>
+        <f>SUBTOTAL(9,C19:C173)</f>
+        <v>660</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>886387.15000000014</v>
+        <f>SUBTOTAL(9,D19:D173)</f>
+        <v>817884.60000000009</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20636,10 +20634,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C180" s="53">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20648,21 +20646,21 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>13859</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>900000</v>
+        <v>813859</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1929,7 +1929,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44474</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2987,19 +2987,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>300</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>294735</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>257</v>
@@ -4902,17 +4900,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>240</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>282912</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>257</v>
@@ -9127,19 +9127,17 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>303</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17">
-        <v>20</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>126400.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="25"/>
@@ -9191,7 +9189,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>233</v>
       </c>
@@ -9255,7 +9253,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>164</v>
       </c>
@@ -9319,7 +9317,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>137</v>
       </c>
@@ -9381,7 +9379,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>148</v>
       </c>
@@ -9443,7 +9441,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>193</v>
       </c>
@@ -11270,7 +11268,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>230</v>
       </c>
@@ -11334,7 +11332,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -11789,19 +11787,17 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
         <v>304</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
       </c>
-      <c r="C100" s="17">
-        <v>340</v>
-      </c>
+      <c r="C100" s="17"/>
       <c r="D100" s="18">
         <f t="shared" si="3"/>
-        <v>396749.4</v>
+        <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>208</v>
@@ -20360,11 +20356,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C19:C173)</f>
-        <v>660</v>
+        <v>240</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D19:D173)</f>
-        <v>817884.60000000009</v>
+        <v>282912</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20637,7 +20633,7 @@
         <v>276</v>
       </c>
       <c r="C180" s="53">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20649,7 +20645,7 @@
         <v>249</v>
       </c>
       <c r="C181" s="53">
-        <v>13859</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20660,7 +20656,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>813859</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -1929,7 +1929,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44475</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2058,17 +2058,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>257</v>
@@ -3863,17 +3865,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>292</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>120</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123654</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>257</v>
@@ -4900,19 +4904,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>240</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>282912</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>257</v>
@@ -9127,19 +9129,23 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>303</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17">
+        <v>11</v>
+      </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="18"/>
+        <v>69520.11</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -9189,7 +9195,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>233</v>
       </c>
@@ -9253,7 +9259,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>164</v>
       </c>
@@ -9317,7 +9323,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>137</v>
       </c>
@@ -9379,7 +9385,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>148</v>
       </c>
@@ -9441,7 +9447,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>193</v>
       </c>
@@ -11268,7 +11274,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>230</v>
       </c>
@@ -11332,7 +11338,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -18395,7 +18401,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18457,7 +18463,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>236</v>
       </c>
@@ -19432,17 +19438,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>5</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>295</v>
@@ -19956,17 +19964,19 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A171" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17">
+        <v>10</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>257</v>
@@ -20355,12 +20365,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C19:C173)</f>
-        <v>240</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>156</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D19:D173)</f>
-        <v>282912</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>412845.86000000004</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20633,7 +20643,7 @@
         <v>276</v>
       </c>
       <c r="C180" s="53">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20656,7 +20666,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>L45</t>
+  </si>
+  <si>
+    <t>10.10.2021</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1932,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,7 +1969,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44476</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2058,19 +2061,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>257</v>
@@ -2989,17 +2990,19 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>150</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147367.5</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>257</v>
@@ -3865,19 +3868,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>292</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>120</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>123654</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>257</v>
@@ -4904,17 +4905,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>200</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>235760</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>257</v>
@@ -5035,17 +5038,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>246</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>30</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>35093.58</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>257</v>
@@ -9129,19 +9134,17 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>303</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17">
-        <v>11</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>69520.11</v>
+        <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>257</v>
@@ -12107,17 +12110,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>257</v>
@@ -13068,17 +13073,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>60</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>74586</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>257</v>
@@ -14184,17 +14191,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>100</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>139030</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>234</v>
@@ -18787,17 +18796,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>274</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>10</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>257</v>
@@ -19446,11 +19457,11 @@
         <v>9873.4500000000007</v>
       </c>
       <c r="C167" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>49367.25</v>
+        <v>98734.5</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>295</v>
@@ -19833,17 +19844,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>257</v>
@@ -19964,19 +19977,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>10</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>99736.900000000009</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>257</v>
@@ -20365,12 +20376,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>156</v>
+        <f>SUBTOTAL(9,C19:C173)</f>
+        <v>610</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>412845.86000000004</v>
+        <f>SUBTOTAL(9,D19:D173)</f>
+        <v>941111.48</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20643,9 +20654,11 @@
         <v>276</v>
       </c>
       <c r="C180" s="53">
-        <v>400000</v>
-      </c>
-      <c r="D180" s="54"/>
+        <v>850000</v>
+      </c>
+      <c r="D180" s="54" t="s">
+        <v>305</v>
+      </c>
       <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
@@ -20655,7 +20668,7 @@
         <v>249</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>99988</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20666,7 +20679,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>400000</v>
+        <v>949988</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -938,9 +938,6 @@
   </si>
   <si>
     <t>L45</t>
-  </si>
-  <si>
-    <t>10.10.2021</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1929,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1969,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44479</v>
+        <v>44480</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1990,17 +1987,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>144884.20000000001</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>257</v>
@@ -2061,17 +2060,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>257</v>
@@ -2990,19 +2991,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>252</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17">
-        <v>150</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>147367.5</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>257</v>
@@ -4905,19 +4904,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>214</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>200</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>235760</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>257</v>
@@ -5038,19 +5035,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>246</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>30</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>35093.58</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>257</v>
@@ -10291,17 +10286,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>257</v>
@@ -10359,17 +10356,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A87" s="43" t="s">
         <v>272</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>257</v>
@@ -11277,7 +11276,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>230</v>
       </c>
@@ -11341,7 +11340,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -12110,19 +12109,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>257</v>
@@ -13073,19 +13070,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>60</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>74586</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>257</v>
@@ -14191,19 +14186,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>100</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>139030</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>234</v>
@@ -18410,7 +18403,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18472,7 +18465,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>236</v>
       </c>
@@ -18796,19 +18789,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>274</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>10</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>257</v>
@@ -19449,19 +19440,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>10</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>98734.5</v>
+        <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>295</v>
@@ -19844,19 +19833,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>10</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>90565.1</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>257</v>
@@ -20376,12 +20363,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C19:C173)</f>
-        <v>610</v>
+        <f>SUBTOTAL(9,C5:C173)</f>
+        <v>70</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D19:D173)</f>
-        <v>941111.48</v>
+        <f>SUBTOTAL(9,D5:D173)</f>
+        <v>266914.038</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20654,11 +20641,9 @@
         <v>276</v>
       </c>
       <c r="C180" s="53">
-        <v>850000</v>
-      </c>
-      <c r="D180" s="54" t="s">
-        <v>305</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
@@ -20668,7 +20653,7 @@
         <v>249</v>
       </c>
       <c r="C181" s="53">
-        <v>99988</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20679,7 +20664,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>949988</v>
+        <v>500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -574,9 +574,6 @@
     <t>V94</t>
   </si>
   <si>
-    <t>L52</t>
-  </si>
-  <si>
     <t>V75_SKD</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>L45</t>
+  </si>
+  <si>
+    <t>L44</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1929,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1958,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44480</v>
+        <v>44481</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1987,22 +1987,20 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>20</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>144884.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2060,22 +2058,20 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2131,7 +2127,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2142,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2202,7 +2198,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2213,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2344,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2475,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2546,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2617,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2677,7 +2673,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2688,12 +2684,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2704,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2764,7 +2760,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="28">
         <v>779.95</v>
@@ -2775,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2835,7 +2831,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2846,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2906,7 +2902,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2917,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2977,7 +2973,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2988,12 +2984,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
@@ -3004,12 +3000,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
@@ -3020,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3080,7 +3076,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
@@ -3091,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3158,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3487,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3607,7 +3603,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3618,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3738,7 +3734,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3749,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3869,7 +3865,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3880,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4011,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4142,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4262,7 +4258,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4273,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4522,7 +4518,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4775,7 +4771,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4786,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -4906,7 +4902,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4917,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5037,7 +5033,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
@@ -5048,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5168,7 +5164,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5179,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5557,7 +5553,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5568,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5946,7 +5942,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6204,7 +6200,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6266,7 +6262,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6277,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6397,7 +6393,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6408,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6528,7 +6524,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6539,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6659,7 +6655,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6670,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6790,7 +6786,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6801,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7050,7 +7046,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7061,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7181,7 +7177,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7192,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7312,7 +7308,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7323,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7712,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7832,7 +7828,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8219,7 +8215,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8230,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8608,7 +8604,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8737,7 +8733,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8748,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8808,7 +8804,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8819,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8879,7 +8875,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -8941,7 +8937,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9003,7 +8999,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9014,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9067,7 +9063,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9078,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9131,7 +9127,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9142,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9195,7 +9191,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9206,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9270,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9447,7 +9443,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9509,7 +9505,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9520,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9640,7 +9636,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9651,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9782,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -9913,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10224,7 +10220,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10235,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10286,22 +10282,20 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10356,22 +10350,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10640,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10771,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11149,7 +11141,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11276,9 +11268,9 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11289,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11340,7 +11332,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -11353,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11404,20 +11396,22 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>100</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>136424.05000000002</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11537,7 +11531,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11548,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11797,7 +11791,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11808,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11928,7 +11922,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11939,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12047,7 +12041,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12058,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12111,7 +12105,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
@@ -12122,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12228,19 +12222,23 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>240</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="18"/>
+        <v>226886.39999999999</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>256</v>
+      </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
@@ -12303,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12423,7 +12421,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12434,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12823,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13072,7 +13070,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13083,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13539,7 +13537,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13550,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13810,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14188,7 +14186,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14199,7 +14197,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14319,7 +14317,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14915,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15035,7 +15033,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15046,7 +15044,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15166,7 +15164,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15553,7 +15551,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15564,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15684,7 +15682,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15695,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15815,7 +15813,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15826,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -15946,7 +15944,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -15957,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16463,7 +16461,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16474,7 +16472,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16527,7 +16525,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16786,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -16901,7 +16899,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -16912,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17032,7 +17030,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17043,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17303,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17563,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17694,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17943,7 +17941,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18083,7 +18081,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18203,7 +18201,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18214,7 +18212,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18334,7 +18332,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18345,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18403,7 +18401,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18465,9 +18463,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18478,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18531,7 +18529,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18660,7 +18658,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18671,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18791,7 +18789,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18802,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18922,7 +18920,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19051,7 +19049,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19180,7 +19178,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19191,7 +19189,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19311,7 +19309,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19322,7 +19320,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19442,7 +19440,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19453,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19573,7 +19571,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19584,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19702,20 +19700,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>70</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>569402.4</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19835,7 +19835,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19846,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19966,7 +19966,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20097,7 +20097,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20228,7 +20228,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20239,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20363,12 +20363,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C5:C173)</f>
-        <v>70</v>
+        <f>SUBTOTAL(9,C97:C173)</f>
+        <v>410</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D5:D173)</f>
-        <v>266914.038</v>
+        <f>SUBTOTAL(9,D97:D173)</f>
+        <v>932712.85000000009</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20638,10 +20638,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>900000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20650,21 +20650,21 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>40817</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>500000</v>
+        <v>940817</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1620,7 +1620,18 @@
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1929,7 +1940,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,7 +1977,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44481</v>
+        <v>44482</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3863,17 +3874,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>200</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206090</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>256</v>
@@ -7306,17 +7319,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>289</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>8</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37649.440000000002</v>
       </c>
       <c r="E56" s="45" t="s">
         <v>256</v>
@@ -10282,17 +10297,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>261</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>256</v>
@@ -10350,17 +10367,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A87" s="43" t="s">
         <v>271</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>256</v>
@@ -11268,7 +11287,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>229</v>
       </c>
@@ -11332,7 +11351,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -11396,19 +11415,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>100</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>136424.05000000002</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>256</v>
@@ -12222,19 +12239,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>304</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
       </c>
-      <c r="C104" s="17">
-        <v>240</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>226886.39999999999</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>256</v>
@@ -18401,7 +18416,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18463,7 +18478,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>235</v>
       </c>
@@ -19700,19 +19715,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>296</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>70</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>569402.4</v>
+        <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
         <v>297</v>
@@ -20363,12 +20376,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C97:C173)</f>
-        <v>410</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>308</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D97:D173)</f>
-        <v>932712.85000000009</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>372004.10600000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20641,7 +20654,7 @@
         <v>275</v>
       </c>
       <c r="C180" s="53">
-        <v>900000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20653,7 +20666,7 @@
         <v>248</v>
       </c>
       <c r="C181" s="53">
-        <v>40817</v>
+        <v>-26891</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20664,7 +20677,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>940817</v>
+        <v>373109</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20692,6 +20705,11 @@
     <mergeCell ref="B177:D177"/>
     <mergeCell ref="A174:B174"/>
   </mergeCells>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -644,9 +644,6 @@
   </si>
   <si>
     <t>Gold &amp; Dark_Blue</t>
-  </si>
-  <si>
-    <t>Must Black</t>
   </si>
   <si>
     <t>V141</t>
@@ -1940,7 +1937,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I179" sqref="I179"/>
+      <selection pane="bottomRight" activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1969,7 +1966,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1977,7 +1974,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44482</v>
+        <v>44483</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2011,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2082,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2149,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2220,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2351,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2482,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2553,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2624,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2684,7 +2681,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2695,12 +2692,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2711,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="28">
         <v>779.95</v>
@@ -2782,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2842,7 +2839,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2853,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2913,7 +2910,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2924,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2984,7 +2981,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2995,12 +2992,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
@@ -3011,23 +3008,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>60</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59661.599999999999</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3087,7 +3086,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
@@ -3098,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3165,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3614,7 +3613,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3625,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3745,7 +3744,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3756,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3874,22 +3873,20 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>200</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>206090</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4020,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4151,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4282,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4784,7 +4781,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4926,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5044,20 +5041,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>46791.44</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5177,7 +5176,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5188,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5564,20 +5563,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5955,7 +5956,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6213,7 +6214,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6275,7 +6276,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6286,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6406,7 +6407,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6417,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6537,7 +6538,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6548,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6668,7 +6669,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6679,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6799,7 +6800,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6810,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7059,7 +7060,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7070,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7190,7 +7191,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7201,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7319,22 +7320,20 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>8</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>37649.440000000002</v>
+        <v>0</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8230,7 +8229,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8241,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8748,7 +8747,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8759,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8819,7 +8818,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8830,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8952,7 +8951,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9014,7 +9013,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9078,7 +9077,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9142,7 +9141,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9153,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9206,7 +9205,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9217,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9520,7 +9519,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9651,7 +9650,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9662,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9782,7 +9781,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9793,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10235,7 +10234,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10246,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10299,20 +10298,20 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10367,22 +10366,22 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -11287,9 +11286,9 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11300,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11351,7 +11350,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>162</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11417,7 +11416,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11428,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11548,7 +11547,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11559,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11808,7 +11807,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11819,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11939,7 +11938,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11950,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12058,7 +12057,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12069,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12120,20 +12119,22 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12239,20 +12240,22 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>40</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>37814.400000000001</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13085,7 +13088,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13096,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13563,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14201,7 +14204,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14212,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14332,7 +14335,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14928,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15059,7 +15062,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15179,7 +15182,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15564,20 +15567,22 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15697,7 +15702,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15708,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15828,7 +15833,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15839,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16476,7 +16481,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16914,7 +16919,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17316,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17576,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -18216,7 +18221,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18347,7 +18352,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18416,7 +18421,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18478,9 +18483,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18491,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18673,7 +18678,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18684,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18802,20 +18807,22 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>10</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18935,7 +18942,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19064,7 +19071,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19193,7 +19200,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19204,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19324,7 +19331,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19335,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19453,20 +19460,22 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>5</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>49367.25</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19586,7 +19595,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19597,7 +19606,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19717,7 +19726,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19728,7 +19737,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19848,7 +19857,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19859,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19979,7 +19988,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19990,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20110,7 +20119,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20121,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20241,7 +20250,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20252,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20376,12 +20385,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>308</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>255</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>372004.10600000003</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>393903.12800000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20628,16 +20637,19 @@
       <c r="D176" s="61"/>
       <c r="E176" s="61"/>
     </row>
-    <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="177" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
       <c r="B177" s="66" t="s">
         <v>84</v>
       </c>
       <c r="C177" s="67"/>
       <c r="D177" s="68"/>
       <c r="E177" s="24"/>
-    </row>
-    <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
-    <row r="179" spans="2:5">
+      <c r="H177" s="25">
+        <v>317880</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="9" customHeight="1" thickBot="1"/>
+    <row r="179" spans="2:8">
       <c r="B179" s="49" t="s">
         <v>85</v>
       </c>
@@ -20649,41 +20661,41 @@
       </c>
       <c r="E179" s="22"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1">
+    <row r="180" spans="2:8" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C180" s="53">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
+    <row r="181" spans="2:8" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C181" s="53">
-        <v>-26891</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
-    <row r="182" spans="2:5" ht="19.5" thickBot="1">
+    <row r="182" spans="2:8" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>373109</v>
+        <v>500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1"/>
-    <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="183" spans="2:8" ht="15" customHeight="1"/>
+    <row r="184" spans="2:8" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E173">
     <filterColumn colId="2">

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -721,9 +721,6 @@
     <t>i74</t>
   </si>
   <si>
-    <t>Battle green</t>
-  </si>
-  <si>
     <t>gold</t>
   </si>
   <si>
@@ -935,6 +932,9 @@
   </si>
   <si>
     <t>L44</t>
+  </si>
+  <si>
+    <t>Black &amp; Blue</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1937,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F180" sqref="F180"/>
+      <selection pane="bottomRight" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1966,7 +1966,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44483</v>
+        <v>44486</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2066,20 +2066,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2146,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2348,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2550,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2681,7 +2683,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2692,12 +2694,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2708,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2850,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2921,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2981,7 +2983,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2992,12 +2994,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
@@ -3008,25 +3010,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
       <c r="C20" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>59661.599999999999</v>
+        <v>198872</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3086,7 +3088,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
@@ -3097,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3164,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3613,7 +3615,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3624,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3875,7 +3877,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3886,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4017,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4148,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4923,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5041,22 +5043,20 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>46791.44</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5563,22 +5563,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6214,7 +6212,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6276,7 +6274,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6287,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6407,7 +6405,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6418,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6538,7 +6536,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6549,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6669,7 +6667,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6680,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6800,7 +6798,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6811,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7071,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7191,7 +7189,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7202,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7320,20 +7318,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>18</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>255</v>
+        <v>84711.24</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>303</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8747,7 +8747,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8758,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9216,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10298,7 +10298,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10311,7 +10311,7 @@
         <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
@@ -10381,7 +10381,7 @@
         <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11414,20 +11414,22 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>20</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27284.81</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11547,7 +11549,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11558,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11807,7 +11809,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11818,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11949,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12057,7 +12059,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12068,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12121,7 +12123,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
@@ -12134,7 +12136,7 @@
         <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12240,22 +12242,20 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
       </c>
-      <c r="C104" s="17">
-        <v>40</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>37814.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13099,7 +13099,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -14202,20 +14202,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14931,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15062,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15182,7 +15184,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15567,22 +15569,20 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15844,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -18352,7 +18352,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18485,7 +18485,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18496,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18807,22 +18807,20 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>10</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18942,7 +18940,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19071,7 +19069,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19200,7 +19198,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19211,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19331,7 +19329,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19342,7 +19340,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19460,22 +19458,20 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>5</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>49367.25</v>
+        <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19595,7 +19591,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19606,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19726,7 +19722,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19737,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19855,20 +19851,22 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19988,7 +19986,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19999,7 +19997,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20119,7 +20117,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20130,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20250,7 +20248,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20261,7 +20259,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20385,12 +20383,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>255</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>343</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>393903.12800000003</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>600330.43800000008</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20637,19 +20635,16 @@
       <c r="D176" s="61"/>
       <c r="E176" s="61"/>
     </row>
-    <row r="177" spans="2:8" ht="16.5" customHeight="1" thickBot="1">
+    <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="B177" s="66" t="s">
         <v>84</v>
       </c>
       <c r="C177" s="67"/>
       <c r="D177" s="68"/>
       <c r="E177" s="24"/>
-      <c r="H177" s="25">
-        <v>317880</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" ht="9" customHeight="1" thickBot="1"/>
-    <row r="179" spans="2:8">
+    </row>
+    <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
+    <row r="179" spans="2:5">
       <c r="B179" s="49" t="s">
         <v>85</v>
       </c>
@@ -20661,41 +20656,41 @@
       </c>
       <c r="E179" s="22"/>
     </row>
-    <row r="180" spans="2:8" ht="15" customHeight="1">
+    <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="15" customHeight="1" thickBot="1">
+    <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>200598</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
-    <row r="182" spans="2:8" ht="19.5" thickBot="1">
+    <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>500000</v>
+        <v>600598</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
     </row>
-    <row r="183" spans="2:8" ht="15" customHeight="1"/>
-    <row r="184" spans="2:8" ht="15.75" customHeight="1"/>
+    <row r="183" spans="2:5" ht="15" customHeight="1"/>
+    <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E173">
     <filterColumn colId="2">

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1937,7 +1937,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E181" sqref="E181"/>
+      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44486</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2066,19 +2066,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>20</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>254</v>
@@ -3013,19 +3011,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>200</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>198872</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>254</v>
@@ -3875,17 +3871,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>100</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>254</v>
@@ -5563,17 +5561,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>296</v>
@@ -7326,11 +7326,11 @@
         <v>4706.18</v>
       </c>
       <c r="C56" s="48">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>84711.24</v>
+        <v>94123.6</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>303</v>
@@ -10304,11 +10304,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>254</v>
@@ -10374,11 +10374,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>254</v>
@@ -11414,19 +11414,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>27284.81</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>254</v>
@@ -12121,7 +12119,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
         <v>270</v>
       </c>
@@ -12129,11 +12127,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>254</v>
@@ -14202,19 +14200,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>299</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>254</v>
@@ -18421,7 +18417,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18483,7 +18479,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>233</v>
       </c>
@@ -19851,19 +19847,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>254</v>
@@ -20383,12 +20377,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>343</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>280</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>600330.43800000008</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>401433.66600000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20673,7 +20667,7 @@
         <v>246</v>
       </c>
       <c r="C181" s="53">
-        <v>200598</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20684,7 +20678,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>600598</v>
+        <v>400000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -908,9 +908,6 @@
   </si>
   <si>
     <t>Z33</t>
-  </si>
-  <si>
-    <t>Blue/Green</t>
   </si>
   <si>
     <t>Black &amp; White</t>
@@ -1937,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
+      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44487</v>
+        <v>44488</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3011,17 +3008,19 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99436</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>254</v>
@@ -3609,17 +3608,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>254</v>
@@ -5561,22 +5562,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6405,7 +6404,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -7318,22 +7317,20 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>287</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>20</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>94123.6</v>
+        <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8816,17 +8813,19 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:120" ht="15" customHeight="1">
       <c r="A68" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="17">
+        <v>160</v>
+      </c>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>822753.6</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>254</v>
@@ -9141,7 +9140,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -10296,19 +10295,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>259</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>254</v>
@@ -10366,19 +10363,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>269</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>254</v>
@@ -11414,17 +11409,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>254</v>
@@ -11807,7 +11804,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12119,19 +12116,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>254</v>
@@ -12240,17 +12235,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B104" s="28">
         <v>945.36</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>100</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>94536</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>254</v>
@@ -14202,7 +14199,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -18417,7 +18414,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>131</v>
       </c>
@@ -18479,7 +18476,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>233</v>
       </c>
@@ -18803,17 +18800,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>271</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>5</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>254</v>
@@ -19716,20 +19715,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>24</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>195223.67999999999</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20109,17 +20110,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>293</v>
@@ -20377,12 +20380,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>280</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>574</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>401433.66600000003</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>1496290.25</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20655,7 +20658,7 @@
         <v>273</v>
       </c>
       <c r="C180" s="53">
-        <v>400000</v>
+        <v>1400000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20667,18 +20670,18 @@
         <v>246</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>99650</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>400000</v>
+        <v>1499650</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K162" sqref="K162"/>
+      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44488</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2063,17 +2063,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>254</v>
@@ -3008,19 +3010,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>99436</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>254</v>
@@ -3616,11 +3616,11 @@
         <v>1130.82</v>
       </c>
       <c r="C26" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>22616.399999999998</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>254</v>
@@ -3872,19 +3872,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>289</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>100</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>254</v>
@@ -5562,17 +5560,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>197</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>295</v>
@@ -8813,19 +8813,17 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" customHeight="1">
+    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
         <v>291</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
       </c>
-      <c r="C68" s="17">
-        <v>160</v>
-      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>822753.6</v>
+        <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>254</v>
@@ -10295,17 +10293,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>259</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>254</v>
@@ -10363,17 +10363,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>269</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>254</v>
@@ -11409,19 +11411,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>254</v>
@@ -12116,17 +12116,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>254</v>
@@ -12240,14 +12242,14 @@
         <v>301</v>
       </c>
       <c r="B104" s="28">
-        <v>945.36</v>
+        <v>1204.8599999999999</v>
       </c>
       <c r="C104" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>94536</v>
+        <v>48194.399999999994</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>254</v>
@@ -19723,11 +19725,11 @@
         <v>8134.32</v>
       </c>
       <c r="C169" s="17">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>195223.67999999999</v>
+        <v>813432</v>
       </c>
       <c r="E169" s="39" t="s">
         <v>201</v>
@@ -19848,17 +19850,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>7</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63395.57</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>254</v>
@@ -20380,12 +20384,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>574</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>267</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>1496290.25</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>1203385.7580000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20658,7 +20662,7 @@
         <v>273</v>
       </c>
       <c r="C180" s="53">
-        <v>1400000</v>
+        <v>1200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20669,9 +20673,7 @@
       <c r="B181" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="C181" s="53">
-        <v>99650</v>
-      </c>
+      <c r="C181" s="53"/>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
@@ -20681,7 +20683,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>1499650</v>
+        <v>1200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -403,9 +403,6 @@
     <t>L100</t>
   </si>
   <si>
-    <t>L300</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>Black &amp; Blue</t>
+  </si>
+  <si>
+    <t>L33</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
+      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1963,7 +1963,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44490</v>
+        <v>44493</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1989,12 +1989,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2063,22 +2063,20 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2134,7 +2132,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2145,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2205,7 +2203,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2216,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2347,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2467,7 +2465,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2478,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2538,7 +2536,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2549,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2609,7 +2607,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2620,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2680,7 +2678,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2691,12 +2689,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2707,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2767,7 +2765,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="28">
         <v>779.95</v>
@@ -2778,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2838,7 +2836,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2849,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2909,7 +2907,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2920,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2980,7 +2978,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2991,12 +2989,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
@@ -3007,12 +3005,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
@@ -3023,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3083,7 +3081,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B21" s="28">
         <v>1120.8</v>
@@ -3094,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3161,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3221,7 +3219,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3479,7 +3477,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3490,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3608,22 +3606,20 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>20</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22616.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3743,7 +3739,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3754,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3874,7 +3870,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3885,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4005,7 +4001,7 @@
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B29" s="28">
         <v>1072.675</v>
@@ -4016,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4147,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4267,7 +4263,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4278,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4398,7 +4394,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="28">
         <v>858.14</v>
@@ -4527,7 +4523,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4589,7 +4585,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4651,7 +4647,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4780,7 +4776,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4791,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -4911,7 +4907,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4922,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5040,20 +5036,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>200</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>233957.2</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5173,7 +5171,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5184,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5433,7 +5431,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5560,22 +5558,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5824,7 +5820,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -5953,7 +5949,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6082,7 +6078,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6273,7 +6269,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6284,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6404,7 +6400,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6415,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6535,7 +6531,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6546,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6666,7 +6662,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6677,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6797,7 +6793,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6808,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -6928,7 +6924,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7057,7 +7053,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7068,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7188,7 +7184,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7199,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7319,7 +7315,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7330,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7450,7 +7446,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="28">
         <v>20340.84</v>
@@ -7719,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7839,7 +7835,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -7968,7 +7964,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="28">
         <v>6715.95</v>
@@ -8097,7 +8093,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="28">
         <v>8573.3799999999992</v>
@@ -8226,7 +8222,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8237,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8357,7 +8353,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8486,7 +8482,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8615,7 +8611,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8744,7 +8740,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8755,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8815,7 +8811,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8826,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8886,7 +8882,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -8948,7 +8944,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9010,7 +9006,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9021,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9074,7 +9070,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9085,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9138,7 +9134,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9149,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9202,7 +9198,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9213,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9266,7 +9262,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="28">
         <v>5793.45</v>
@@ -9277,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9330,7 +9326,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76" s="28">
         <v>7714.24</v>
@@ -9392,7 +9388,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="28">
         <v>8225.51</v>
@@ -9454,7 +9450,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9516,7 +9512,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9527,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9647,7 +9643,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9658,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9778,7 +9774,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9789,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -9920,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10040,7 +10036,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10169,7 +10165,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="28">
         <v>1189.97</v>
@@ -10231,7 +10227,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10242,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10293,22 +10289,20 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10363,22 +10357,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10498,7 +10490,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B88" s="28">
         <v>1042.5999999999999</v>
@@ -10567,7 +10559,7 @@
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="28">
         <v>1435.58</v>
@@ -10636,7 +10628,7 @@
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B90" s="28">
         <v>5607.9849999999997</v>
@@ -10647,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10778,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -10898,7 +10890,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11156,7 +11148,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11285,7 +11277,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11296,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11349,7 +11341,7 @@
     </row>
     <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11360,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11413,7 +11405,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11424,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11544,7 +11536,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11555,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11673,19 +11665,23 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A99" s="43" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="B99" s="28">
-        <v>1170.92</v>
-      </c>
-      <c r="C99" s="17"/>
+        <v>1225.06</v>
+      </c>
+      <c r="C99" s="17">
+        <v>300</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="18"/>
+        <v>367518</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>253</v>
+      </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
       <c r="H99" s="26"/>
@@ -11804,7 +11800,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11815,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11935,7 +11931,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11946,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12054,7 +12050,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12065,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12116,22 +12112,20 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12237,22 +12231,20 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>40</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>48194.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12305,7 +12297,7 @@
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" s="28">
         <v>1072.68</v>
@@ -12316,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12436,7 +12428,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12447,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12567,7 +12559,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12696,7 +12688,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12825,7 +12817,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12836,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -12956,7 +12948,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -13085,7 +13077,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13096,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13156,7 +13148,7 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B112" s="28">
         <v>12215.46</v>
@@ -13294,7 +13286,7 @@
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="28">
         <v>11860.475</v>
@@ -13423,7 +13415,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B115" s="28">
         <v>10616.475</v>
@@ -13552,7 +13544,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13563,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13823,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14201,7 +14193,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14212,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14332,7 +14324,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14590,7 +14582,7 @@
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="28">
         <v>5476.38</v>
@@ -14788,7 +14780,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="28">
         <v>7679.15</v>
@@ -14917,7 +14909,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -14928,7 +14920,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15048,7 +15040,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15059,7 +15051,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15179,7 +15171,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15437,7 +15429,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B131" s="28">
         <v>8641.5499999999993</v>
@@ -15566,7 +15558,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15577,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15697,7 +15689,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15708,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15828,7 +15820,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15839,7 +15831,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -15959,7 +15951,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -15970,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16090,7 +16082,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" s="28">
         <v>4174.41</v>
@@ -16218,7 +16210,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B137" s="28">
         <v>5510.74</v>
@@ -16347,7 +16339,7 @@
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16476,7 +16468,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16487,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16540,7 +16532,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16602,7 +16594,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16664,7 +16656,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16726,7 +16718,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16799,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -16852,7 +16844,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -16914,7 +16906,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -16925,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17045,7 +17037,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17056,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17176,7 +17168,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17305,7 +17297,7 @@
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B149" s="28">
         <v>5257.11</v>
@@ -17316,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17436,7 +17428,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17565,7 +17557,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17576,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17696,7 +17688,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B152" s="30">
         <v>3891.71</v>
@@ -17707,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17827,7 +17819,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -17956,7 +17948,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18085,7 +18077,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18096,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18216,7 +18208,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18227,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18347,7 +18339,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18358,7 +18350,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18416,9 +18408,9 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B158" s="28">
         <v>4849.09</v>
@@ -18478,9 +18470,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18491,7 +18483,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18544,7 +18536,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18673,7 +18665,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18684,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18802,22 +18794,20 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>5</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18937,7 +18927,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19066,7 +19056,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19195,7 +19185,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19206,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19326,7 +19316,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19337,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19457,7 +19447,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19468,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19588,7 +19578,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19599,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19717,22 +19707,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
       </c>
-      <c r="C169" s="17">
-        <v>100</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>813432</v>
+        <v>0</v>
       </c>
       <c r="E169" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19850,22 +19838,20 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>7</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>63395.57</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19985,7 +19971,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19996,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20114,22 +20100,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20249,7 +20233,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20260,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20384,12 +20368,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>267</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>500</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>1203385.7580000001</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>601475.19999999995</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20653,37 +20637,39 @@
         <v>86</v>
       </c>
       <c r="D179" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="C181" s="53"/>
+        <v>245</v>
+      </c>
+      <c r="C181" s="53">
+        <v>100000</v>
+      </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>1200000</v>
+        <v>600000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
+      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44493</v>
+        <v>44494</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3868,17 +3868,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>120</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123654</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -5036,19 +5038,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>200</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>233957.2</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>253</v>
@@ -5558,17 +5558,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>294</v>
@@ -10289,17 +10291,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50680.38</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10357,17 +10361,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11403,17 +11409,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -11665,19 +11673,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>302</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>300</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>367518</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>253</v>
@@ -12048,17 +12054,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>253</v>
@@ -12112,17 +12120,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>269</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>253</v>
@@ -14191,17 +14201,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -20369,11 +20381,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C28:C173)</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D28:D173)</f>
-        <v>601475.19999999995</v>
+        <v>489803.69600000005</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,9 +20669,7 @@
       <c r="B181" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C181" s="53">
-        <v>100000</v>
-      </c>
+      <c r="C181" s="53"/>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
@@ -20669,7 +20679,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomRight" activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44494</v>
+        <v>44495</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3008,17 +3008,19 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99436</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>253</v>
@@ -3868,19 +3870,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>120</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>123654</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -5566,11 +5566,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>294</v>
@@ -10299,11 +10299,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>50680.38</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10369,11 +10369,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11409,19 +11409,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -12054,19 +12052,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>253</v>
@@ -12120,7 +12116,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
         <v>269</v>
       </c>
@@ -12128,11 +12124,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>253</v>
@@ -12241,7 +12237,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="43" t="s">
         <v>300</v>
       </c>
@@ -14201,19 +14197,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -20380,12 +20374,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>400</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>180</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>489803.69600000005</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>203122.23800000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20658,7 +20652,7 @@
         <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20679,7 +20673,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H181" sqref="H181"/>
+      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44495</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2063,17 +2063,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>253</v>
@@ -3008,19 +3010,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>99436</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>253</v>
@@ -3608,17 +3608,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45232.799999999996</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>253</v>
@@ -3870,17 +3872,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>200</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>206090</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -5558,19 +5562,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>294</v>
@@ -10299,11 +10301,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>126700.94999999998</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10369,11 +10371,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11409,17 +11411,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>100</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>136424.05000000002</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -12052,17 +12056,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>253</v>
@@ -12116,7 +12122,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>269</v>
       </c>
@@ -12124,11 +12130,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>253</v>
@@ -12237,17 +12243,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>50</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60242.999999999993</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>253</v>
@@ -14197,17 +14205,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -18414,7 +18424,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18476,7 +18486,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18800,17 +18810,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A162" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>10</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72422</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>253</v>
@@ -20374,12 +20386,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>180</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>730</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>203122.23800000001</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>999529.64</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20652,7 +20664,7 @@
         <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20673,7 +20685,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44496</v>
+        <v>44497</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2063,19 +2063,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>253</v>
@@ -2994,17 +2992,19 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B19" s="28">
         <v>982.45</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>98245</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>253</v>
@@ -3608,19 +3608,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>257</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45232.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>253</v>
@@ -3880,11 +3878,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>206090</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -10293,19 +10291,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126700.94999999998</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10363,19 +10359,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11411,19 +11405,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>100</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>136424.05000000002</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -12056,19 +12048,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>253</v>
@@ -12122,19 +12112,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>269</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>60</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>253</v>
@@ -12243,19 +12231,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>50</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>60242.999999999993</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>253</v>
@@ -14205,19 +14191,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -18810,19 +18794,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>10</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>253</v>
@@ -19332,17 +19314,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>80</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>725323.20000000007</v>
       </c>
       <c r="E166" s="39" t="s">
         <v>291</v>
@@ -19463,17 +19447,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>58</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>572660.10000000009</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>291</v>
@@ -20386,12 +20372,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>730</v>
+        <f>SUBTOTAL(9,C19:C173)</f>
+        <v>338</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>999529.64</v>
+        <f>SUBTOTAL(9,D19:D173)</f>
+        <v>1499273.3000000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20664,7 +20650,7 @@
         <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20685,7 +20671,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44497</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1992,17 +1992,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>264</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>80</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>579536.80000000005</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>253</v>
@@ -2997,14 +2999,14 @@
         <v>248</v>
       </c>
       <c r="B19" s="28">
-        <v>982.45</v>
+        <v>942.28</v>
       </c>
       <c r="C19" s="17">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>98245</v>
+        <v>108362.2</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>253</v>
@@ -3878,11 +3880,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>206090</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -5560,17 +5562,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>50</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71119</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>294</v>
@@ -10291,17 +10295,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10359,17 +10365,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11405,17 +11413,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -11667,17 +11677,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>302</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>100</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>122506</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>253</v>
@@ -12231,17 +12243,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>100</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120485.99999999999</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>253</v>
@@ -14191,17 +14205,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>70</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97321</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -18794,17 +18810,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>15</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>108633</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>253</v>
@@ -19314,19 +19332,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17">
-        <v>80</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>725323.20000000007</v>
+        <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
         <v>291</v>
@@ -19447,19 +19463,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>263</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>58</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>572660.10000000009</v>
+        <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>291</v>
@@ -19842,17 +19856,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>253</v>
@@ -20104,17 +20120,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>292</v>
@@ -20372,12 +20390,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C19:C173)</f>
-        <v>338</v>
+        <f>SUBTOTAL(9,C5:C173)</f>
+        <v>900</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D19:D173)</f>
-        <v>1499273.3000000003</v>
+        <f>SUBTOTAL(9,D5:D173)</f>
+        <v>1713575.4340000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20650,7 +20668,7 @@
         <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>1500000</v>
+        <v>1750000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20671,7 +20689,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>1500000</v>
+        <v>1750000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44500</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1992,19 +1992,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>264</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>80</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>579536.80000000005</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>253</v>
@@ -2994,19 +2992,17 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>248</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
       </c>
-      <c r="C19" s="17">
-        <v>115</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>108362.2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>253</v>
@@ -3880,11 +3876,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>206090</v>
+        <v>61827</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>253</v>
@@ -5562,19 +5558,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>50</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>71119</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>294</v>
@@ -10295,19 +10289,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>253</v>
@@ -10365,19 +10357,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>268</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>60</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>253</v>
@@ -11413,19 +11403,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>262</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>253</v>
@@ -11677,19 +11665,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>302</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>100</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>122506</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>253</v>
@@ -12243,19 +12229,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>100</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>120485.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>253</v>
@@ -14205,7 +14189,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
         <v>297</v>
       </c>
@@ -14213,11 +14197,11 @@
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>97321</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>253</v>
@@ -18424,7 +18408,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18486,7 +18470,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18810,19 +18794,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>15</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>108633</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>253</v>
@@ -19856,19 +19838,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>253</v>
@@ -19989,7 +19969,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="42" t="s">
         <v>283</v>
       </c>
@@ -20120,19 +20100,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>292</v>
@@ -20391,11 +20369,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>1713575.4340000001</v>
+        <v>117439</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20668,7 +20646,7 @@
         <v>272</v>
       </c>
       <c r="C180" s="53">
-        <v>1750000</v>
+        <v>100000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20689,7 +20667,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>1750000</v>
+        <v>100000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -769,9 +769,6 @@
     <t>Red &amp; Dark Blue,gold</t>
   </si>
   <si>
-    <t>B68</t>
-  </si>
-  <si>
     <t>V99+</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>L33</t>
+  </si>
+  <si>
+    <t>B68_WHP_SKD</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
+      <selection pane="bottomRight" activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1963,7 +1963,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44503</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2989,28 +2989,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="42" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="B19" s="28">
-        <v>942.28</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>1069.5899999999999</v>
+      </c>
+      <c r="C19" s="17">
+        <v>500</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>534795</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" s="28">
         <v>994.36</v>
@@ -3021,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3608,7 +3610,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3619,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3750,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3868,22 +3870,20 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>60</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>61827</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9134,7 +9134,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9196,7 +9196,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9260,7 +9260,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9324,7 +9324,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -11275,7 +11275,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11339,7 +11339,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11416,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11667,7 +11667,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11798,7 +11798,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12242,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -14189,22 +14189,20 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -15558,7 +15556,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15569,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15831,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -18339,7 +18337,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18483,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18665,7 +18663,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18676,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18796,7 +18794,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18807,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18927,7 +18925,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19056,7 +19054,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19185,7 +19183,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19196,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19316,7 +19314,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19327,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19447,7 +19445,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19458,7 +19456,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19578,7 +19576,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19589,7 +19587,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19709,7 +19707,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19840,7 +19838,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19851,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19969,9 +19967,9 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19982,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20102,7 +20100,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20113,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20233,7 +20231,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20244,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20369,11 +20367,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>117439</v>
+        <v>534795</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20643,10 +20641,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180" s="53">
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20657,17 +20655,19 @@
       <c r="B181" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C181" s="53"/>
+      <c r="C181" s="53">
+        <v>16923</v>
+      </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>100000</v>
+        <v>566923</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/2021/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G184" sqref="G184"/>
+      <selection pane="bottomRight" activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44504</v>
+        <v>44507</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2992,19 +2992,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B19" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C19" s="17">
-        <v>500</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>534795</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>252</v>
@@ -9196,7 +9194,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9260,7 +9258,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9324,7 +9322,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9386,7 +9384,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9448,7 +9446,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11275,7 +11273,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11339,7 +11337,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -18406,7 +18404,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18468,7 +18466,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18792,17 +18790,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>269</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>9</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>65179.799999999996</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>252</v>
@@ -19836,17 +19836,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>252</v>
@@ -20098,17 +20100,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>8</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>72452.08</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>291</v>
@@ -20367,11 +20371,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>534795</v>
+        <v>228196.97999999998</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20644,7 +20648,7 @@
         <v>271</v>
       </c>
       <c r="C180" s="53">
-        <v>550000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20656,7 +20660,7 @@
         <v>245</v>
       </c>
       <c r="C181" s="53">
-        <v>16923</v>
+        <v>32128</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20667,7 +20671,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>566923</v>
+        <v>232128</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
